--- a/nuevosScripts/diccionarios/diccionarios.xlsx
+++ b/nuevosScripts/diccionarios/diccionarios.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mis proyectos\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mis proyectos\Test\Repo-Python-DB-DottAPI\nuevosScripts\diccionarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08E621D-AFDA-4AFE-95F5-7E7F7AAA0960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E447531-5836-4CD1-81A3-B429733B3699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{907ADB49-8BB7-4046-9511-7212E4DA76A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{907ADB49-8BB7-4046-9511-7212E4DA76A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Air" sheetId="1" r:id="rId1"/>
     <sheet name="Eik" sheetId="2" r:id="rId2"/>
     <sheet name="Elit" sheetId="3" r:id="rId3"/>
     <sheet name="NB" sheetId="4" r:id="rId4"/>
+    <sheet name="Categorias" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2671" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2704" uniqueCount="377">
   <si>
     <t>electro</t>
   </si>
@@ -1099,6 +1100,66 @@
   </si>
   <si>
     <t>NOTEBOOKS - CLOUDBOOKS</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>Cables y Adaptadores</t>
+  </si>
+  <si>
+    <t>Computadoras</t>
+  </si>
+  <si>
+    <t>Conectividad</t>
+  </si>
+  <si>
+    <t>Discos</t>
+  </si>
+  <si>
+    <t>Electro</t>
+  </si>
+  <si>
+    <t>Estabilizadores y UPS</t>
+  </si>
+  <si>
+    <t>Gamer</t>
+  </si>
+  <si>
+    <t>Impresoras e Insumos</t>
+  </si>
+  <si>
+    <t>Memorias RAM</t>
+  </si>
+  <si>
+    <t>Almacenamiento Portatil</t>
+  </si>
+  <si>
+    <t>Notebooks</t>
+  </si>
+  <si>
+    <t>Placas de video</t>
+  </si>
+  <si>
+    <t>Proyectores</t>
+  </si>
+  <si>
+    <t>Refrigeracion</t>
+  </si>
+  <si>
+    <t>Smartwatch</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Tablets</t>
+  </si>
+  <si>
+    <t>Telefonia</t>
+  </si>
+  <si>
+    <t>Webcams</t>
   </si>
 </sst>
 </file>
@@ -10419,7 +10480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C9A83B5-C2A8-42F3-A50B-B65DA1F9C1BC}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
@@ -11783,4 +11844,185 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A23AC8-0680-4338-8F9B-085C30FD02CA}">
+  <dimension ref="A1:A33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>376</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/nuevosScripts/diccionarios/diccionarios.xlsx
+++ b/nuevosScripts/diccionarios/diccionarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mis proyectos\Test\Repo-Python-DB-DottAPI\nuevosScripts\diccionarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E447531-5836-4CD1-81A3-B429733B3699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BAD95A8-CEDB-4E01-9EF8-B661CD780DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{907ADB49-8BB7-4046-9511-7212E4DA76A7}"/>
   </bookViews>
@@ -16,8 +16,10 @@
     <sheet name="Air" sheetId="1" r:id="rId1"/>
     <sheet name="Eik" sheetId="2" r:id="rId2"/>
     <sheet name="Elit" sheetId="3" r:id="rId3"/>
-    <sheet name="NB" sheetId="4" r:id="rId4"/>
-    <sheet name="Categorias" sheetId="5" r:id="rId5"/>
+    <sheet name="Invid" sheetId="6" r:id="rId4"/>
+    <sheet name="Megacom" sheetId="7" r:id="rId5"/>
+    <sheet name="NB" sheetId="4" r:id="rId6"/>
+    <sheet name="Categorias" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2704" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4465" uniqueCount="577">
   <si>
     <t>electro</t>
   </si>
@@ -1160,6 +1162,606 @@
   </si>
   <si>
     <t>Webcams</t>
+  </si>
+  <si>
+    <t>Accesorios / Auriculares</t>
+  </si>
+  <si>
+    <t>Accesorios / Micrófonos</t>
+  </si>
+  <si>
+    <t>Accesorios / Mouse</t>
+  </si>
+  <si>
+    <t>Accesorios / Mousepads</t>
+  </si>
+  <si>
+    <t>Accesorios / Parlantes</t>
+  </si>
+  <si>
+    <t>Accesorios / Teclado + Mouse</t>
+  </si>
+  <si>
+    <t>Accesorios / Teclados</t>
+  </si>
+  <si>
+    <t>Accesorios / Web Cam</t>
+  </si>
+  <si>
+    <t>Almacenamiento / Pen Drive</t>
+  </si>
+  <si>
+    <t>Almacenamiento / Tarjetas de memoria</t>
+  </si>
+  <si>
+    <t>Computadoras / Notebooks</t>
+  </si>
+  <si>
+    <t>Computadoras / PC</t>
+  </si>
+  <si>
+    <t>Conectividad / Accesorios Bluetooth</t>
+  </si>
+  <si>
+    <t>Conectividad / Access Point y Extensores de Rango</t>
+  </si>
+  <si>
+    <t>Conectividad / Cable de Red UTP</t>
+  </si>
+  <si>
+    <t>Conectividad / Luces</t>
+  </si>
+  <si>
+    <t>Conectividad / Modem ADSL y GPON</t>
+  </si>
+  <si>
+    <t>Conectividad / Placas de Red Ethernet y Adaptadores USB</t>
+  </si>
+  <si>
+    <t>Conectividad / Placas de Red WiFi PCI</t>
+  </si>
+  <si>
+    <t>Conectividad / Placas de Red WiFi USB</t>
+  </si>
+  <si>
+    <t>Conectividad / Router</t>
+  </si>
+  <si>
+    <t>Conectividad / Router Wireless</t>
+  </si>
+  <si>
+    <t>Conectividad / Switches Administrables</t>
+  </si>
+  <si>
+    <t>Conectividad / Switches No Administrables</t>
+  </si>
+  <si>
+    <t>Consumibles / Cartuchos</t>
+  </si>
+  <si>
+    <t>Consumibles / Tintas</t>
+  </si>
+  <si>
+    <t>Discos Rígidos / SSD / Disco Rígido Externo</t>
+  </si>
+  <si>
+    <t>Discos Rígidos / SSD / Disco Rígido SATA</t>
+  </si>
+  <si>
+    <t>Discos Rígidos / SSD / Disco SSD</t>
+  </si>
+  <si>
+    <t>Discos Rígidos / SSD / Disco SSD M2</t>
+  </si>
+  <si>
+    <t>Energía / Estabilizadores</t>
+  </si>
+  <si>
+    <t>Fans, Coolers</t>
+  </si>
+  <si>
+    <t>Gabinetes y fuentes / Fuentes de Alimentación</t>
+  </si>
+  <si>
+    <t>Gabinetes y fuentes / Gabinetes con Fuente</t>
+  </si>
+  <si>
+    <t>Gabinetes y fuentes / Gabinetes sin Fuente</t>
+  </si>
+  <si>
+    <t>Gabinetes y fuentes / Kit Gabinete, teclado, mouse y parlante</t>
+  </si>
+  <si>
+    <t>Gamers / Auriculares</t>
+  </si>
+  <si>
+    <t>Gamers / Mouse y Mousepads</t>
+  </si>
+  <si>
+    <t>Gamers / Parlantes</t>
+  </si>
+  <si>
+    <t>Gamers / Streaming</t>
+  </si>
+  <si>
+    <t>Gamers / Teclados</t>
+  </si>
+  <si>
+    <t>Impresoras / Ink Jet</t>
+  </si>
+  <si>
+    <t>Impresoras / Multifunción</t>
+  </si>
+  <si>
+    <t>Memorias RAM / Memoria DDR2</t>
+  </si>
+  <si>
+    <t>Memorias RAM / Memoria DDR3</t>
+  </si>
+  <si>
+    <t>Memorias RAM / Memoria DDR4</t>
+  </si>
+  <si>
+    <t>Memorias RAM / Memoria Sodimm</t>
+  </si>
+  <si>
+    <t>Microprocesadores / AMD</t>
+  </si>
+  <si>
+    <t>Microprocesadores / Intel</t>
+  </si>
+  <si>
+    <t>Mobile / Celulares</t>
+  </si>
+  <si>
+    <t>Mobile / Tablet</t>
+  </si>
+  <si>
+    <t>Monitores / Monitor Consumo</t>
+  </si>
+  <si>
+    <t>Monitores / Monitor Corporativo</t>
+  </si>
+  <si>
+    <t>Monitores / Monitor Gamer</t>
+  </si>
+  <si>
+    <t>Mothers / Plataforma AMD</t>
+  </si>
+  <si>
+    <t>Mothers / Plataforma Intel</t>
+  </si>
+  <si>
+    <t>Notebooks / Consumo</t>
+  </si>
+  <si>
+    <t>Notebooks / Gamer</t>
+  </si>
+  <si>
+    <t>Placas de video / Línea AMD RADEON</t>
+  </si>
+  <si>
+    <t>Placas de video / Línea NVIDIA GEFORCE</t>
+  </si>
+  <si>
+    <t>Seguridad / Accesorios</t>
+  </si>
+  <si>
+    <t>Seguridad / Alarmas</t>
+  </si>
+  <si>
+    <t>Seguridad / Cámaras Analógicas</t>
+  </si>
+  <si>
+    <t>Seguridad / Cámaras Especiales</t>
+  </si>
+  <si>
+    <t>Seguridad / Cámaras IP</t>
+  </si>
+  <si>
+    <t>Seguridad / Cámaras PTZ</t>
+  </si>
+  <si>
+    <t>Seguridad / Controles de Acceso</t>
+  </si>
+  <si>
+    <t>Seguridad / DVR</t>
+  </si>
+  <si>
+    <t>Seguridad / NVR</t>
+  </si>
+  <si>
+    <t>Seguridad / Porteros</t>
+  </si>
+  <si>
+    <t>Notebooks / Corporativa</t>
+  </si>
+  <si>
+    <t>Varios / Papel Resma</t>
+  </si>
+  <si>
+    <t>Energía / UPS</t>
+  </si>
+  <si>
+    <t>Impresoras</t>
+  </si>
+  <si>
+    <t>Accesorios Celulares</t>
+  </si>
+  <si>
+    <t>Accesorios para GPS</t>
+  </si>
+  <si>
+    <t>Accesorios para Redes</t>
+  </si>
+  <si>
+    <t>Accesorios PS2</t>
+  </si>
+  <si>
+    <t>Accesorios PS3-PS4</t>
+  </si>
+  <si>
+    <t>Accesorios TV</t>
+  </si>
+  <si>
+    <t>Accesorios WII</t>
+  </si>
+  <si>
+    <t>Accesorios XBOX</t>
+  </si>
+  <si>
+    <t>Access Point</t>
+  </si>
+  <si>
+    <t>Adaptadores</t>
+  </si>
+  <si>
+    <t>Adaptadores de Red</t>
+  </si>
+  <si>
+    <t>Alargues</t>
+  </si>
+  <si>
+    <t>Alimentacion</t>
+  </si>
+  <si>
+    <t>Antenas</t>
+  </si>
+  <si>
+    <t>Audio</t>
+  </si>
+  <si>
+    <t>Bicicletas</t>
+  </si>
+  <si>
+    <t>Binoculares</t>
+  </si>
+  <si>
+    <t>Bolsos</t>
+  </si>
+  <si>
+    <t>Cajas p/ CD-DVD</t>
+  </si>
+  <si>
+    <t>Calculadoras</t>
+  </si>
+  <si>
+    <t>CAMARAS - VIDEO CAMARAS</t>
+  </si>
+  <si>
+    <t>Camaras Digitales</t>
+  </si>
+  <si>
+    <t>Camaras Domo y Bullet</t>
+  </si>
+  <si>
+    <t>Camaras WEB</t>
+  </si>
+  <si>
+    <t>Cargadores</t>
+  </si>
+  <si>
+    <t>Cartuchos Alternativos</t>
+  </si>
+  <si>
+    <t>Cartuchos Originales</t>
+  </si>
+  <si>
+    <t>Celulares</t>
+  </si>
+  <si>
+    <t>Celulares - Repuestos</t>
+  </si>
+  <si>
+    <t>Cintas Matriciales</t>
+  </si>
+  <si>
+    <t>Climatizacion</t>
+  </si>
+  <si>
+    <t>Cocina</t>
+  </si>
+  <si>
+    <t>Computadoras PC</t>
+  </si>
+  <si>
+    <t>Conectores</t>
+  </si>
+  <si>
+    <t>Consolas</t>
+  </si>
+  <si>
+    <t>Controladores</t>
+  </si>
+  <si>
+    <t>Cuidado Personal</t>
+  </si>
+  <si>
+    <t>Datos</t>
+  </si>
+  <si>
+    <t>De Conduccion (Auto)</t>
+  </si>
+  <si>
+    <t>De Conduccion (Bicicletas)</t>
+  </si>
+  <si>
+    <t>De Conduccion (Motos)</t>
+  </si>
+  <si>
+    <t>De Exploración</t>
+  </si>
+  <si>
+    <t>De Redes</t>
+  </si>
+  <si>
+    <t>De Tinta</t>
+  </si>
+  <si>
+    <t>De Tinta Multifuncion</t>
+  </si>
+  <si>
+    <t>De Tinta Sistema Continuo</t>
+  </si>
+  <si>
+    <t>Desayuno</t>
+  </si>
+  <si>
+    <t>Destructores de Documentos</t>
+  </si>
+  <si>
+    <t>Discos Rigidos</t>
+  </si>
+  <si>
+    <t>Drones - MiniDrones</t>
+  </si>
+  <si>
+    <t>DVD - BLURAY - Multimedia</t>
+  </si>
+  <si>
+    <t>DVR Autonomos</t>
+  </si>
+  <si>
+    <t>Faxes</t>
+  </si>
+  <si>
+    <t>Fijos</t>
+  </si>
+  <si>
+    <t>Gabinetes y Fuentes</t>
+  </si>
+  <si>
+    <t>Game Pad - Joysticks</t>
+  </si>
+  <si>
+    <t>Grabadores de Periodista - Radios</t>
+  </si>
+  <si>
+    <t>Guitarras</t>
+  </si>
+  <si>
+    <t>Handies</t>
+  </si>
+  <si>
+    <t>Herramientas</t>
+  </si>
+  <si>
+    <t>Hidrolavadoras</t>
+  </si>
+  <si>
+    <t>HOGAR</t>
+  </si>
+  <si>
+    <t>Hornos - Parillas</t>
+  </si>
+  <si>
+    <t>Iluminación</t>
+  </si>
+  <si>
+    <t>Jardineria</t>
+  </si>
+  <si>
+    <t>Juguetes</t>
+  </si>
+  <si>
+    <t>Kit de Seguridad</t>
+  </si>
+  <si>
+    <t>Laser</t>
+  </si>
+  <si>
+    <t>Laser Multifuncion</t>
+  </si>
+  <si>
+    <t>Lectores de Libros Digitales</t>
+  </si>
+  <si>
+    <t>Lectores de Memorias</t>
+  </si>
+  <si>
+    <t>Libreria</t>
+  </si>
+  <si>
+    <t>Limpieza</t>
+  </si>
+  <si>
+    <t>Matriciales</t>
+  </si>
+  <si>
+    <t>Mesas para PC</t>
+  </si>
+  <si>
+    <t>Mesas para TV</t>
+  </si>
+  <si>
+    <t>Microondas</t>
+  </si>
+  <si>
+    <t>Microprocesadores</t>
+  </si>
+  <si>
+    <t>Mineria</t>
+  </si>
+  <si>
+    <t>Modem y ADSL</t>
+  </si>
+  <si>
+    <t>MP3</t>
+  </si>
+  <si>
+    <t>MP5</t>
+  </si>
+  <si>
+    <t>Opticos</t>
+  </si>
+  <si>
+    <t>Opticos (CD-DVD-BD)</t>
+  </si>
+  <si>
+    <t>Papel</t>
+  </si>
+  <si>
+    <t>Para Notebooks</t>
+  </si>
+  <si>
+    <t>Para PC</t>
+  </si>
+  <si>
+    <t>Paralelo</t>
+  </si>
+  <si>
+    <t>Parlantes Activos</t>
+  </si>
+  <si>
+    <t>Pen Drive USB</t>
+  </si>
+  <si>
+    <t>Pilas</t>
+  </si>
+  <si>
+    <t>Placas de Sonido</t>
+  </si>
+  <si>
+    <t>Placas de Video y TV</t>
+  </si>
+  <si>
+    <t>Placas Madre</t>
+  </si>
+  <si>
+    <t>Ploters de Dibujo</t>
+  </si>
+  <si>
+    <t>Porta CD-DVD</t>
+  </si>
+  <si>
+    <t>Productos de Limpieza</t>
+  </si>
+  <si>
+    <t>Radios</t>
+  </si>
+  <si>
+    <t>Relojes Digitales - Fitness</t>
+  </si>
+  <si>
+    <t>Repuestos</t>
+  </si>
+  <si>
+    <t>Rotuladoras - Termicas</t>
+  </si>
+  <si>
+    <t>Routers de Cable</t>
+  </si>
+  <si>
+    <t>Routers Inalambricos</t>
+  </si>
+  <si>
+    <t>Scanners</t>
+  </si>
+  <si>
+    <t>SD - MicroSD - CF - MS</t>
+  </si>
+  <si>
+    <t>Servidores</t>
+  </si>
+  <si>
+    <t>Servidores de Impresion</t>
+  </si>
+  <si>
+    <t>Sillones y Sillas Gamer</t>
+  </si>
+  <si>
+    <t>Sistemas de Audio y Video</t>
+  </si>
+  <si>
+    <t>Stereos</t>
+  </si>
+  <si>
+    <t>Switchs</t>
+  </si>
+  <si>
+    <t>Termotanques</t>
+  </si>
+  <si>
+    <t>Tinta Alternativa Continuos</t>
+  </si>
+  <si>
+    <t>Todo en Uno (AIO)</t>
+  </si>
+  <si>
+    <t>Toner y Drum Alternativos</t>
+  </si>
+  <si>
+    <t>Toner y Drum Originales</t>
+  </si>
+  <si>
+    <t>TV - Smart TV</t>
+  </si>
+  <si>
+    <t>U.P.S.</t>
+  </si>
+  <si>
+    <t>ULTRABOOKS</t>
+  </si>
+  <si>
+    <t>USB y Celulares</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>Video Camaras Digitales</t>
+  </si>
+  <si>
+    <t>VOIP SKYPE</t>
+  </si>
+  <si>
+    <t>Zapatillas Eléctricas</t>
+  </si>
+  <si>
+    <t>Mini PCs</t>
+  </si>
+  <si>
+    <t>Discos Rígidos / SSD / Disco Rígido Notebook</t>
   </si>
 </sst>
 </file>
@@ -1383,7 +1985,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1391,6 +1993,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="17">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -10477,6 +11082,6637 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5080B6B1-8104-4853-9F71-2D7A2F2F7BFE}">
+  <dimension ref="A1:L81"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="1.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="70.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I1" t="str">
+        <f>_xlfn.CONCAT(A1:H1)</f>
+        <v>"Accesorios / Auriculares":"Auriculares",</v>
+      </c>
+      <c r="L1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" t="s">
+        <v>292</v>
+      </c>
+      <c r="G2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H2" t="s">
+        <v>179</v>
+      </c>
+      <c r="I2" t="str">
+        <f t="shared" ref="I2:I65" si="0">_xlfn.CONCAT(A2:H2)</f>
+        <v>"Accesorios / Micrófonos":"Microfonos",</v>
+      </c>
+      <c r="L2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F3" t="s">
+        <v>295</v>
+      </c>
+      <c r="G3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" si="0"/>
+        <v>"Accesorios / Mouse":"Mouses",</v>
+      </c>
+      <c r="L3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F4" t="s">
+        <v>295</v>
+      </c>
+      <c r="G4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="0"/>
+        <v>"Accesorios / Mousepads":"Mouses",</v>
+      </c>
+      <c r="L4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" t="s">
+        <v>381</v>
+      </c>
+      <c r="C5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F5" t="s">
+        <v>298</v>
+      </c>
+      <c r="G5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H5" t="s">
+        <v>179</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>"Accesorios / Parlantes":"Parlantes",</v>
+      </c>
+      <c r="L5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" t="s">
+        <v>382</v>
+      </c>
+      <c r="C6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" t="s">
+        <v>263</v>
+      </c>
+      <c r="E6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F6" t="s">
+        <v>311</v>
+      </c>
+      <c r="G6" t="s">
+        <v>178</v>
+      </c>
+      <c r="H6" t="s">
+        <v>179</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>"Accesorios / Teclado + Mouse":"Teclados",</v>
+      </c>
+      <c r="L6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" t="s">
+        <v>383</v>
+      </c>
+      <c r="C7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" t="s">
+        <v>263</v>
+      </c>
+      <c r="E7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H7" t="s">
+        <v>179</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>"Accesorios / Teclados":"Teclados",</v>
+      </c>
+      <c r="L7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" t="s">
+        <v>384</v>
+      </c>
+      <c r="C8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" t="s">
+        <v>263</v>
+      </c>
+      <c r="E8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F8" t="s">
+        <v>376</v>
+      </c>
+      <c r="G8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H8" t="s">
+        <v>179</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>"Accesorios / Web Cam":"Webcams",</v>
+      </c>
+      <c r="L8" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" t="s">
+        <v>385</v>
+      </c>
+      <c r="C9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E9" t="s">
+        <v>178</v>
+      </c>
+      <c r="F9" t="s">
+        <v>367</v>
+      </c>
+      <c r="G9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H9" t="s">
+        <v>179</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>"Almacenamiento / Pen Drive":"Almacenamiento Portatil",</v>
+      </c>
+      <c r="L9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" t="s">
+        <v>386</v>
+      </c>
+      <c r="C10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" t="s">
+        <v>263</v>
+      </c>
+      <c r="E10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F10" t="s">
+        <v>367</v>
+      </c>
+      <c r="G10" t="s">
+        <v>178</v>
+      </c>
+      <c r="H10" t="s">
+        <v>179</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>"Almacenamiento / Tarjetas de memoria":"Almacenamiento Portatil",</v>
+      </c>
+      <c r="L10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B11" t="s">
+        <v>387</v>
+      </c>
+      <c r="C11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D11" t="s">
+        <v>263</v>
+      </c>
+      <c r="E11" t="s">
+        <v>178</v>
+      </c>
+      <c r="F11" t="s">
+        <v>368</v>
+      </c>
+      <c r="G11" t="s">
+        <v>178</v>
+      </c>
+      <c r="H11" t="s">
+        <v>179</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>"Computadoras / Notebooks":"Notebooks",</v>
+      </c>
+      <c r="L11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B12" t="s">
+        <v>388</v>
+      </c>
+      <c r="C12" t="s">
+        <v>178</v>
+      </c>
+      <c r="D12" t="s">
+        <v>263</v>
+      </c>
+      <c r="E12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F12" t="s">
+        <v>359</v>
+      </c>
+      <c r="G12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H12" t="s">
+        <v>179</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v>"Computadoras / PC":"Computadoras",</v>
+      </c>
+      <c r="L12" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13" t="s">
+        <v>389</v>
+      </c>
+      <c r="C13" t="s">
+        <v>178</v>
+      </c>
+      <c r="D13" t="s">
+        <v>263</v>
+      </c>
+      <c r="E13" t="s">
+        <v>178</v>
+      </c>
+      <c r="F13" t="s">
+        <v>264</v>
+      </c>
+      <c r="G13" t="s">
+        <v>178</v>
+      </c>
+      <c r="H13" t="s">
+        <v>179</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v>"Conectividad / Accesorios Bluetooth":"Accesorios",</v>
+      </c>
+      <c r="L13" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B14" t="s">
+        <v>390</v>
+      </c>
+      <c r="C14" t="s">
+        <v>178</v>
+      </c>
+      <c r="D14" t="s">
+        <v>263</v>
+      </c>
+      <c r="E14" t="s">
+        <v>178</v>
+      </c>
+      <c r="F14" t="s">
+        <v>360</v>
+      </c>
+      <c r="G14" t="s">
+        <v>178</v>
+      </c>
+      <c r="H14" t="s">
+        <v>179</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
+        <v>"Conectividad / Access Point y Extensores de Rango":"Conectividad",</v>
+      </c>
+      <c r="L14" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B15" t="s">
+        <v>391</v>
+      </c>
+      <c r="C15" t="s">
+        <v>178</v>
+      </c>
+      <c r="D15" t="s">
+        <v>263</v>
+      </c>
+      <c r="E15" t="s">
+        <v>178</v>
+      </c>
+      <c r="F15" t="s">
+        <v>358</v>
+      </c>
+      <c r="G15" t="s">
+        <v>178</v>
+      </c>
+      <c r="H15" t="s">
+        <v>179</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Conectividad / Cable de Red UTP":"Cables y Adaptadores",</v>
+      </c>
+      <c r="L15" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" t="s">
+        <v>392</v>
+      </c>
+      <c r="C16" t="s">
+        <v>178</v>
+      </c>
+      <c r="D16" t="s">
+        <v>263</v>
+      </c>
+      <c r="E16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" t="s">
+        <v>362</v>
+      </c>
+      <c r="G16" t="s">
+        <v>178</v>
+      </c>
+      <c r="H16" t="s">
+        <v>179</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="0"/>
+        <v>"Conectividad / Luces":"Electro",</v>
+      </c>
+      <c r="L16" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>178</v>
+      </c>
+      <c r="B17" t="s">
+        <v>393</v>
+      </c>
+      <c r="C17" t="s">
+        <v>178</v>
+      </c>
+      <c r="D17" t="s">
+        <v>263</v>
+      </c>
+      <c r="E17" t="s">
+        <v>178</v>
+      </c>
+      <c r="F17" t="s">
+        <v>360</v>
+      </c>
+      <c r="G17" t="s">
+        <v>178</v>
+      </c>
+      <c r="H17" t="s">
+        <v>179</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="0"/>
+        <v>"Conectividad / Modem ADSL y GPON":"Conectividad",</v>
+      </c>
+      <c r="L17" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>178</v>
+      </c>
+      <c r="B18" t="s">
+        <v>394</v>
+      </c>
+      <c r="C18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D18" t="s">
+        <v>263</v>
+      </c>
+      <c r="E18" t="s">
+        <v>178</v>
+      </c>
+      <c r="F18" t="s">
+        <v>360</v>
+      </c>
+      <c r="G18" t="s">
+        <v>178</v>
+      </c>
+      <c r="H18" t="s">
+        <v>179</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="0"/>
+        <v>"Conectividad / Placas de Red Ethernet y Adaptadores USB":"Conectividad",</v>
+      </c>
+      <c r="L18" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>178</v>
+      </c>
+      <c r="B19" t="s">
+        <v>395</v>
+      </c>
+      <c r="C19" t="s">
+        <v>178</v>
+      </c>
+      <c r="D19" t="s">
+        <v>263</v>
+      </c>
+      <c r="E19" t="s">
+        <v>178</v>
+      </c>
+      <c r="F19" t="s">
+        <v>360</v>
+      </c>
+      <c r="G19" t="s">
+        <v>178</v>
+      </c>
+      <c r="H19" t="s">
+        <v>179</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="0"/>
+        <v>"Conectividad / Placas de Red WiFi PCI":"Conectividad",</v>
+      </c>
+      <c r="L19" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>178</v>
+      </c>
+      <c r="B20" t="s">
+        <v>396</v>
+      </c>
+      <c r="C20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D20" t="s">
+        <v>263</v>
+      </c>
+      <c r="E20" t="s">
+        <v>178</v>
+      </c>
+      <c r="F20" t="s">
+        <v>360</v>
+      </c>
+      <c r="G20" t="s">
+        <v>178</v>
+      </c>
+      <c r="H20" t="s">
+        <v>179</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="0"/>
+        <v>"Conectividad / Placas de Red WiFi USB":"Conectividad",</v>
+      </c>
+      <c r="L20" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>178</v>
+      </c>
+      <c r="B21" t="s">
+        <v>397</v>
+      </c>
+      <c r="C21" t="s">
+        <v>178</v>
+      </c>
+      <c r="D21" t="s">
+        <v>263</v>
+      </c>
+      <c r="E21" t="s">
+        <v>178</v>
+      </c>
+      <c r="F21" t="s">
+        <v>360</v>
+      </c>
+      <c r="G21" t="s">
+        <v>178</v>
+      </c>
+      <c r="H21" t="s">
+        <v>179</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="0"/>
+        <v>"Conectividad / Router":"Conectividad",</v>
+      </c>
+      <c r="L21" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>178</v>
+      </c>
+      <c r="B22" t="s">
+        <v>398</v>
+      </c>
+      <c r="C22" t="s">
+        <v>178</v>
+      </c>
+      <c r="D22" t="s">
+        <v>263</v>
+      </c>
+      <c r="E22" t="s">
+        <v>178</v>
+      </c>
+      <c r="F22" t="s">
+        <v>360</v>
+      </c>
+      <c r="G22" t="s">
+        <v>178</v>
+      </c>
+      <c r="H22" t="s">
+        <v>179</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="0"/>
+        <v>"Conectividad / Router Wireless":"Conectividad",</v>
+      </c>
+      <c r="L22" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>178</v>
+      </c>
+      <c r="B23" t="s">
+        <v>399</v>
+      </c>
+      <c r="C23" t="s">
+        <v>178</v>
+      </c>
+      <c r="D23" t="s">
+        <v>263</v>
+      </c>
+      <c r="E23" t="s">
+        <v>178</v>
+      </c>
+      <c r="F23" t="s">
+        <v>360</v>
+      </c>
+      <c r="G23" t="s">
+        <v>178</v>
+      </c>
+      <c r="H23" t="s">
+        <v>179</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="0"/>
+        <v>"Conectividad / Switches Administrables":"Conectividad",</v>
+      </c>
+      <c r="L23" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>178</v>
+      </c>
+      <c r="B24" t="s">
+        <v>400</v>
+      </c>
+      <c r="C24" t="s">
+        <v>178</v>
+      </c>
+      <c r="D24" t="s">
+        <v>263</v>
+      </c>
+      <c r="E24" t="s">
+        <v>178</v>
+      </c>
+      <c r="F24" t="s">
+        <v>360</v>
+      </c>
+      <c r="G24" t="s">
+        <v>178</v>
+      </c>
+      <c r="H24" t="s">
+        <v>179</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="0"/>
+        <v>"Conectividad / Switches No Administrables":"Conectividad",</v>
+      </c>
+      <c r="L24" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>178</v>
+      </c>
+      <c r="B25" t="s">
+        <v>401</v>
+      </c>
+      <c r="C25" t="s">
+        <v>178</v>
+      </c>
+      <c r="D25" t="s">
+        <v>263</v>
+      </c>
+      <c r="E25" t="s">
+        <v>178</v>
+      </c>
+      <c r="F25" t="s">
+        <v>365</v>
+      </c>
+      <c r="G25" t="s">
+        <v>178</v>
+      </c>
+      <c r="H25" t="s">
+        <v>179</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="0"/>
+        <v>"Consumibles / Cartuchos":"Impresoras e Insumos",</v>
+      </c>
+      <c r="L25" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>178</v>
+      </c>
+      <c r="B26" t="s">
+        <v>402</v>
+      </c>
+      <c r="C26" t="s">
+        <v>178</v>
+      </c>
+      <c r="D26" t="s">
+        <v>263</v>
+      </c>
+      <c r="E26" t="s">
+        <v>178</v>
+      </c>
+      <c r="F26" t="s">
+        <v>365</v>
+      </c>
+      <c r="G26" t="s">
+        <v>178</v>
+      </c>
+      <c r="H26" t="s">
+        <v>179</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="0"/>
+        <v>"Consumibles / Tintas":"Impresoras e Insumos",</v>
+      </c>
+      <c r="L26" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>178</v>
+      </c>
+      <c r="B27" t="s">
+        <v>403</v>
+      </c>
+      <c r="C27" t="s">
+        <v>178</v>
+      </c>
+      <c r="D27" t="s">
+        <v>263</v>
+      </c>
+      <c r="E27" t="s">
+        <v>178</v>
+      </c>
+      <c r="F27" t="s">
+        <v>367</v>
+      </c>
+      <c r="G27" t="s">
+        <v>178</v>
+      </c>
+      <c r="H27" t="s">
+        <v>179</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="0"/>
+        <v>"Discos Rígidos / SSD / Disco Rígido Externo":"Almacenamiento Portatil",</v>
+      </c>
+      <c r="L27" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B28" t="s">
+        <v>404</v>
+      </c>
+      <c r="C28" t="s">
+        <v>178</v>
+      </c>
+      <c r="D28" t="s">
+        <v>263</v>
+      </c>
+      <c r="E28" t="s">
+        <v>178</v>
+      </c>
+      <c r="F28" t="s">
+        <v>361</v>
+      </c>
+      <c r="G28" t="s">
+        <v>178</v>
+      </c>
+      <c r="H28" t="s">
+        <v>179</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="0"/>
+        <v>"Discos Rígidos / SSD / Disco Rígido SATA":"Discos",</v>
+      </c>
+      <c r="L28" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>178</v>
+      </c>
+      <c r="B29" t="s">
+        <v>405</v>
+      </c>
+      <c r="C29" t="s">
+        <v>178</v>
+      </c>
+      <c r="D29" t="s">
+        <v>263</v>
+      </c>
+      <c r="E29" t="s">
+        <v>178</v>
+      </c>
+      <c r="F29" t="s">
+        <v>361</v>
+      </c>
+      <c r="G29" t="s">
+        <v>178</v>
+      </c>
+      <c r="H29" t="s">
+        <v>179</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="0"/>
+        <v>"Discos Rígidos / SSD / Disco SSD":"Discos",</v>
+      </c>
+      <c r="L29" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>178</v>
+      </c>
+      <c r="B30" t="s">
+        <v>406</v>
+      </c>
+      <c r="C30" t="s">
+        <v>178</v>
+      </c>
+      <c r="D30" t="s">
+        <v>263</v>
+      </c>
+      <c r="E30" t="s">
+        <v>178</v>
+      </c>
+      <c r="F30" t="s">
+        <v>361</v>
+      </c>
+      <c r="G30" t="s">
+        <v>178</v>
+      </c>
+      <c r="H30" t="s">
+        <v>179</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="0"/>
+        <v>"Discos Rígidos / SSD / Disco SSD M2":"Discos",</v>
+      </c>
+      <c r="L30" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>178</v>
+      </c>
+      <c r="B31" t="s">
+        <v>407</v>
+      </c>
+      <c r="C31" t="s">
+        <v>178</v>
+      </c>
+      <c r="D31" t="s">
+        <v>263</v>
+      </c>
+      <c r="E31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F31" t="s">
+        <v>363</v>
+      </c>
+      <c r="G31" t="s">
+        <v>178</v>
+      </c>
+      <c r="H31" t="s">
+        <v>179</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="0"/>
+        <v>"Energía / Estabilizadores":"Estabilizadores y UPS",</v>
+      </c>
+      <c r="L31" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>178</v>
+      </c>
+      <c r="B32" t="s">
+        <v>408</v>
+      </c>
+      <c r="C32" t="s">
+        <v>178</v>
+      </c>
+      <c r="D32" t="s">
+        <v>263</v>
+      </c>
+      <c r="E32" t="s">
+        <v>178</v>
+      </c>
+      <c r="F32" t="s">
+        <v>371</v>
+      </c>
+      <c r="G32" t="s">
+        <v>178</v>
+      </c>
+      <c r="H32" t="s">
+        <v>179</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="0"/>
+        <v>"Fans, Coolers":"Refrigeracion",</v>
+      </c>
+      <c r="L32" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" t="s">
+        <v>178</v>
+      </c>
+      <c r="B33" t="s">
+        <v>409</v>
+      </c>
+      <c r="C33" t="s">
+        <v>178</v>
+      </c>
+      <c r="D33" t="s">
+        <v>263</v>
+      </c>
+      <c r="E33" t="s">
+        <v>178</v>
+      </c>
+      <c r="F33" t="s">
+        <v>283</v>
+      </c>
+      <c r="G33" t="s">
+        <v>178</v>
+      </c>
+      <c r="H33" t="s">
+        <v>179</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="0"/>
+        <v>"Gabinetes y fuentes / Fuentes de Alimentación":"Fuentes",</v>
+      </c>
+      <c r="L33" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" t="s">
+        <v>178</v>
+      </c>
+      <c r="B34" t="s">
+        <v>410</v>
+      </c>
+      <c r="C34" t="s">
+        <v>178</v>
+      </c>
+      <c r="D34" t="s">
+        <v>263</v>
+      </c>
+      <c r="E34" t="s">
+        <v>178</v>
+      </c>
+      <c r="F34" t="s">
+        <v>285</v>
+      </c>
+      <c r="G34" t="s">
+        <v>178</v>
+      </c>
+      <c r="H34" t="s">
+        <v>179</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="0"/>
+        <v>"Gabinetes y fuentes / Gabinetes con Fuente":"Gabinetes",</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" t="s">
+        <v>178</v>
+      </c>
+      <c r="B35" t="s">
+        <v>411</v>
+      </c>
+      <c r="C35" t="s">
+        <v>178</v>
+      </c>
+      <c r="D35" t="s">
+        <v>263</v>
+      </c>
+      <c r="E35" t="s">
+        <v>178</v>
+      </c>
+      <c r="F35" t="s">
+        <v>285</v>
+      </c>
+      <c r="G35" t="s">
+        <v>178</v>
+      </c>
+      <c r="H35" t="s">
+        <v>179</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="0"/>
+        <v>"Gabinetes y fuentes / Gabinetes sin Fuente":"Gabinetes",</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" t="s">
+        <v>178</v>
+      </c>
+      <c r="B36" t="s">
+        <v>412</v>
+      </c>
+      <c r="C36" t="s">
+        <v>178</v>
+      </c>
+      <c r="D36" t="s">
+        <v>263</v>
+      </c>
+      <c r="E36" t="s">
+        <v>178</v>
+      </c>
+      <c r="F36" t="s">
+        <v>285</v>
+      </c>
+      <c r="G36" t="s">
+        <v>178</v>
+      </c>
+      <c r="H36" t="s">
+        <v>179</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="0"/>
+        <v>"Gabinetes y fuentes / Kit Gabinete, teclado, mouse y parlante":"Gabinetes",</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" t="s">
+        <v>178</v>
+      </c>
+      <c r="B37" t="s">
+        <v>413</v>
+      </c>
+      <c r="C37" t="s">
+        <v>178</v>
+      </c>
+      <c r="D37" t="s">
+        <v>263</v>
+      </c>
+      <c r="E37" t="s">
+        <v>178</v>
+      </c>
+      <c r="F37" t="s">
+        <v>267</v>
+      </c>
+      <c r="G37" t="s">
+        <v>178</v>
+      </c>
+      <c r="H37" t="s">
+        <v>179</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="0"/>
+        <v>"Gamers / Auriculares":"Auriculares",</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" t="s">
+        <v>178</v>
+      </c>
+      <c r="B38" t="s">
+        <v>414</v>
+      </c>
+      <c r="C38" t="s">
+        <v>178</v>
+      </c>
+      <c r="D38" t="s">
+        <v>263</v>
+      </c>
+      <c r="E38" t="s">
+        <v>178</v>
+      </c>
+      <c r="F38" t="s">
+        <v>295</v>
+      </c>
+      <c r="G38" t="s">
+        <v>178</v>
+      </c>
+      <c r="H38" t="s">
+        <v>179</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="0"/>
+        <v>"Gamers / Mouse y Mousepads":"Mouses",</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" t="s">
+        <v>178</v>
+      </c>
+      <c r="B39" t="s">
+        <v>415</v>
+      </c>
+      <c r="C39" t="s">
+        <v>178</v>
+      </c>
+      <c r="D39" t="s">
+        <v>263</v>
+      </c>
+      <c r="E39" t="s">
+        <v>178</v>
+      </c>
+      <c r="F39" t="s">
+        <v>298</v>
+      </c>
+      <c r="G39" t="s">
+        <v>178</v>
+      </c>
+      <c r="H39" t="s">
+        <v>179</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="0"/>
+        <v>"Gamers / Parlantes":"Parlantes",</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" t="s">
+        <v>178</v>
+      </c>
+      <c r="B40" t="s">
+        <v>416</v>
+      </c>
+      <c r="C40" t="s">
+        <v>178</v>
+      </c>
+      <c r="D40" t="s">
+        <v>263</v>
+      </c>
+      <c r="E40" t="s">
+        <v>178</v>
+      </c>
+      <c r="F40" t="s">
+        <v>364</v>
+      </c>
+      <c r="G40" t="s">
+        <v>178</v>
+      </c>
+      <c r="H40" t="s">
+        <v>179</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="0"/>
+        <v>"Gamers / Streaming":"Gamer",</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" t="s">
+        <v>178</v>
+      </c>
+      <c r="B41" t="s">
+        <v>417</v>
+      </c>
+      <c r="C41" t="s">
+        <v>178</v>
+      </c>
+      <c r="D41" t="s">
+        <v>263</v>
+      </c>
+      <c r="E41" t="s">
+        <v>178</v>
+      </c>
+      <c r="F41" t="s">
+        <v>311</v>
+      </c>
+      <c r="G41" t="s">
+        <v>178</v>
+      </c>
+      <c r="H41" t="s">
+        <v>179</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="0"/>
+        <v>"Gamers / Teclados":"Teclados",</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" t="s">
+        <v>178</v>
+      </c>
+      <c r="B42" t="s">
+        <v>418</v>
+      </c>
+      <c r="C42" t="s">
+        <v>178</v>
+      </c>
+      <c r="D42" t="s">
+        <v>263</v>
+      </c>
+      <c r="E42" t="s">
+        <v>178</v>
+      </c>
+      <c r="F42" t="s">
+        <v>365</v>
+      </c>
+      <c r="G42" t="s">
+        <v>178</v>
+      </c>
+      <c r="H42" t="s">
+        <v>179</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="0"/>
+        <v>"Impresoras / Ink Jet":"Impresoras e Insumos",</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" t="s">
+        <v>178</v>
+      </c>
+      <c r="B43" t="s">
+        <v>419</v>
+      </c>
+      <c r="C43" t="s">
+        <v>178</v>
+      </c>
+      <c r="D43" t="s">
+        <v>263</v>
+      </c>
+      <c r="E43" t="s">
+        <v>178</v>
+      </c>
+      <c r="F43" t="s">
+        <v>366</v>
+      </c>
+      <c r="G43" t="s">
+        <v>178</v>
+      </c>
+      <c r="H43" t="s">
+        <v>179</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="0"/>
+        <v>"Impresoras / Multifunción":"Memorias RAM",</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" t="s">
+        <v>178</v>
+      </c>
+      <c r="B44" t="s">
+        <v>420</v>
+      </c>
+      <c r="C44" t="s">
+        <v>178</v>
+      </c>
+      <c r="D44" t="s">
+        <v>263</v>
+      </c>
+      <c r="E44" t="s">
+        <v>178</v>
+      </c>
+      <c r="F44" t="s">
+        <v>366</v>
+      </c>
+      <c r="G44" t="s">
+        <v>178</v>
+      </c>
+      <c r="H44" t="s">
+        <v>179</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="0"/>
+        <v>"Memorias RAM / Memoria DDR2":"Memorias RAM",</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" t="s">
+        <v>178</v>
+      </c>
+      <c r="B45" t="s">
+        <v>421</v>
+      </c>
+      <c r="C45" t="s">
+        <v>178</v>
+      </c>
+      <c r="D45" t="s">
+        <v>263</v>
+      </c>
+      <c r="E45" t="s">
+        <v>178</v>
+      </c>
+      <c r="F45" t="s">
+        <v>366</v>
+      </c>
+      <c r="G45" t="s">
+        <v>178</v>
+      </c>
+      <c r="H45" t="s">
+        <v>179</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="0"/>
+        <v>"Memorias RAM / Memoria DDR3":"Memorias RAM",</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" t="s">
+        <v>178</v>
+      </c>
+      <c r="B46" t="s">
+        <v>422</v>
+      </c>
+      <c r="C46" t="s">
+        <v>178</v>
+      </c>
+      <c r="D46" t="s">
+        <v>263</v>
+      </c>
+      <c r="E46" t="s">
+        <v>178</v>
+      </c>
+      <c r="F46" t="s">
+        <v>366</v>
+      </c>
+      <c r="G46" t="s">
+        <v>178</v>
+      </c>
+      <c r="H46" t="s">
+        <v>179</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="0"/>
+        <v>"Memorias RAM / Memoria DDR4":"Memorias RAM",</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" t="s">
+        <v>178</v>
+      </c>
+      <c r="B47" t="s">
+        <v>423</v>
+      </c>
+      <c r="C47" t="s">
+        <v>178</v>
+      </c>
+      <c r="D47" t="s">
+        <v>263</v>
+      </c>
+      <c r="E47" t="s">
+        <v>178</v>
+      </c>
+      <c r="F47" t="s">
+        <v>366</v>
+      </c>
+      <c r="G47" t="s">
+        <v>178</v>
+      </c>
+      <c r="H47" t="s">
+        <v>179</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="0"/>
+        <v>"Memorias RAM / Memoria Sodimm":"Memorias RAM",</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" t="s">
+        <v>178</v>
+      </c>
+      <c r="B48" t="s">
+        <v>424</v>
+      </c>
+      <c r="C48" t="s">
+        <v>178</v>
+      </c>
+      <c r="D48" t="s">
+        <v>263</v>
+      </c>
+      <c r="E48" t="s">
+        <v>178</v>
+      </c>
+      <c r="F48" t="s">
+        <v>302</v>
+      </c>
+      <c r="G48" t="s">
+        <v>178</v>
+      </c>
+      <c r="H48" t="s">
+        <v>179</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="0"/>
+        <v>"Microprocesadores / AMD":"Procesadores",</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>178</v>
+      </c>
+      <c r="B49" t="s">
+        <v>425</v>
+      </c>
+      <c r="C49" t="s">
+        <v>178</v>
+      </c>
+      <c r="D49" t="s">
+        <v>263</v>
+      </c>
+      <c r="E49" t="s">
+        <v>178</v>
+      </c>
+      <c r="F49" t="s">
+        <v>302</v>
+      </c>
+      <c r="G49" t="s">
+        <v>178</v>
+      </c>
+      <c r="H49" t="s">
+        <v>179</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="0"/>
+        <v>"Microprocesadores / Intel":"Procesadores",</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>178</v>
+      </c>
+      <c r="B50" t="s">
+        <v>426</v>
+      </c>
+      <c r="C50" t="s">
+        <v>178</v>
+      </c>
+      <c r="D50" t="s">
+        <v>263</v>
+      </c>
+      <c r="E50" t="s">
+        <v>178</v>
+      </c>
+      <c r="F50" t="s">
+        <v>375</v>
+      </c>
+      <c r="G50" t="s">
+        <v>178</v>
+      </c>
+      <c r="H50" t="s">
+        <v>179</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="0"/>
+        <v>"Mobile / Celulares":"Telefonia",</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>178</v>
+      </c>
+      <c r="B51" t="s">
+        <v>427</v>
+      </c>
+      <c r="C51" t="s">
+        <v>178</v>
+      </c>
+      <c r="D51" t="s">
+        <v>263</v>
+      </c>
+      <c r="E51" t="s">
+        <v>178</v>
+      </c>
+      <c r="F51" t="s">
+        <v>374</v>
+      </c>
+      <c r="G51" t="s">
+        <v>178</v>
+      </c>
+      <c r="H51" t="s">
+        <v>179</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="0"/>
+        <v>"Mobile / Tablet":"Tablets",</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>178</v>
+      </c>
+      <c r="B52" t="s">
+        <v>428</v>
+      </c>
+      <c r="C52" t="s">
+        <v>178</v>
+      </c>
+      <c r="D52" t="s">
+        <v>263</v>
+      </c>
+      <c r="E52" t="s">
+        <v>178</v>
+      </c>
+      <c r="F52" t="s">
+        <v>293</v>
+      </c>
+      <c r="G52" t="s">
+        <v>178</v>
+      </c>
+      <c r="H52" t="s">
+        <v>179</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" si="0"/>
+        <v>"Monitores / Monitor Consumo":"Monitores",</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>178</v>
+      </c>
+      <c r="B53" t="s">
+        <v>429</v>
+      </c>
+      <c r="C53" t="s">
+        <v>178</v>
+      </c>
+      <c r="D53" t="s">
+        <v>263</v>
+      </c>
+      <c r="E53" t="s">
+        <v>178</v>
+      </c>
+      <c r="F53" t="s">
+        <v>293</v>
+      </c>
+      <c r="G53" t="s">
+        <v>178</v>
+      </c>
+      <c r="H53" t="s">
+        <v>179</v>
+      </c>
+      <c r="I53" t="str">
+        <f t="shared" si="0"/>
+        <v>"Monitores / Monitor Corporativo":"Monitores",</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>178</v>
+      </c>
+      <c r="B54" t="s">
+        <v>430</v>
+      </c>
+      <c r="C54" t="s">
+        <v>178</v>
+      </c>
+      <c r="D54" t="s">
+        <v>263</v>
+      </c>
+      <c r="E54" t="s">
+        <v>178</v>
+      </c>
+      <c r="F54" t="s">
+        <v>293</v>
+      </c>
+      <c r="G54" t="s">
+        <v>178</v>
+      </c>
+      <c r="H54" t="s">
+        <v>179</v>
+      </c>
+      <c r="I54" t="str">
+        <f t="shared" si="0"/>
+        <v>"Monitores / Monitor Gamer":"Monitores",</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>178</v>
+      </c>
+      <c r="B55" t="s">
+        <v>431</v>
+      </c>
+      <c r="C55" t="s">
+        <v>178</v>
+      </c>
+      <c r="D55" t="s">
+        <v>263</v>
+      </c>
+      <c r="E55" t="s">
+        <v>178</v>
+      </c>
+      <c r="F55" t="s">
+        <v>294</v>
+      </c>
+      <c r="G55" t="s">
+        <v>178</v>
+      </c>
+      <c r="H55" t="s">
+        <v>179</v>
+      </c>
+      <c r="I55" t="str">
+        <f t="shared" si="0"/>
+        <v>"Mothers / Plataforma AMD":"Motherboards",</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>178</v>
+      </c>
+      <c r="B56" t="s">
+        <v>432</v>
+      </c>
+      <c r="C56" t="s">
+        <v>178</v>
+      </c>
+      <c r="D56" t="s">
+        <v>263</v>
+      </c>
+      <c r="E56" t="s">
+        <v>178</v>
+      </c>
+      <c r="F56" t="s">
+        <v>294</v>
+      </c>
+      <c r="G56" t="s">
+        <v>178</v>
+      </c>
+      <c r="H56" t="s">
+        <v>179</v>
+      </c>
+      <c r="I56" t="str">
+        <f t="shared" si="0"/>
+        <v>"Mothers / Plataforma Intel":"Motherboards",</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>178</v>
+      </c>
+      <c r="B57" t="s">
+        <v>433</v>
+      </c>
+      <c r="C57" t="s">
+        <v>178</v>
+      </c>
+      <c r="D57" t="s">
+        <v>263</v>
+      </c>
+      <c r="E57" t="s">
+        <v>178</v>
+      </c>
+      <c r="F57" t="s">
+        <v>368</v>
+      </c>
+      <c r="G57" t="s">
+        <v>178</v>
+      </c>
+      <c r="H57" t="s">
+        <v>179</v>
+      </c>
+      <c r="I57" t="str">
+        <f t="shared" si="0"/>
+        <v>"Notebooks / Consumo":"Notebooks",</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>178</v>
+      </c>
+      <c r="B58" t="s">
+        <v>434</v>
+      </c>
+      <c r="C58" t="s">
+        <v>178</v>
+      </c>
+      <c r="D58" t="s">
+        <v>263</v>
+      </c>
+      <c r="E58" t="s">
+        <v>178</v>
+      </c>
+      <c r="F58" t="s">
+        <v>368</v>
+      </c>
+      <c r="G58" t="s">
+        <v>178</v>
+      </c>
+      <c r="H58" t="s">
+        <v>179</v>
+      </c>
+      <c r="I58" t="str">
+        <f t="shared" si="0"/>
+        <v>"Notebooks / Gamer":"Notebooks",</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>178</v>
+      </c>
+      <c r="B59" t="s">
+        <v>435</v>
+      </c>
+      <c r="C59" t="s">
+        <v>178</v>
+      </c>
+      <c r="D59" t="s">
+        <v>263</v>
+      </c>
+      <c r="E59" t="s">
+        <v>178</v>
+      </c>
+      <c r="F59" t="s">
+        <v>369</v>
+      </c>
+      <c r="G59" t="s">
+        <v>178</v>
+      </c>
+      <c r="H59" t="s">
+        <v>179</v>
+      </c>
+      <c r="I59" t="str">
+        <f t="shared" si="0"/>
+        <v>"Placas de video / Línea AMD RADEON":"Placas de video",</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>178</v>
+      </c>
+      <c r="B60" t="s">
+        <v>436</v>
+      </c>
+      <c r="C60" t="s">
+        <v>178</v>
+      </c>
+      <c r="D60" t="s">
+        <v>263</v>
+      </c>
+      <c r="E60" t="s">
+        <v>178</v>
+      </c>
+      <c r="F60" t="s">
+        <v>369</v>
+      </c>
+      <c r="G60" t="s">
+        <v>178</v>
+      </c>
+      <c r="H60" t="s">
+        <v>179</v>
+      </c>
+      <c r="I60" t="str">
+        <f t="shared" si="0"/>
+        <v>"Placas de video / Línea NVIDIA GEFORCE":"Placas de video",</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>178</v>
+      </c>
+      <c r="B61" t="s">
+        <v>437</v>
+      </c>
+      <c r="C61" t="s">
+        <v>178</v>
+      </c>
+      <c r="D61" t="s">
+        <v>263</v>
+      </c>
+      <c r="E61" t="s">
+        <v>178</v>
+      </c>
+      <c r="F61" t="s">
+        <v>360</v>
+      </c>
+      <c r="G61" t="s">
+        <v>178</v>
+      </c>
+      <c r="H61" t="s">
+        <v>179</v>
+      </c>
+      <c r="I61" t="str">
+        <f t="shared" si="0"/>
+        <v>"Seguridad / Accesorios":"Conectividad",</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>178</v>
+      </c>
+      <c r="B62" t="s">
+        <v>438</v>
+      </c>
+      <c r="C62" t="s">
+        <v>178</v>
+      </c>
+      <c r="D62" t="s">
+        <v>263</v>
+      </c>
+      <c r="E62" t="s">
+        <v>178</v>
+      </c>
+      <c r="F62" t="s">
+        <v>362</v>
+      </c>
+      <c r="G62" t="s">
+        <v>178</v>
+      </c>
+      <c r="H62" t="s">
+        <v>179</v>
+      </c>
+      <c r="I62" t="str">
+        <f t="shared" si="0"/>
+        <v>"Seguridad / Alarmas":"Electro",</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>178</v>
+      </c>
+      <c r="B63" t="s">
+        <v>439</v>
+      </c>
+      <c r="C63" t="s">
+        <v>178</v>
+      </c>
+      <c r="D63" t="s">
+        <v>263</v>
+      </c>
+      <c r="E63" t="s">
+        <v>178</v>
+      </c>
+      <c r="F63" t="s">
+        <v>360</v>
+      </c>
+      <c r="G63" t="s">
+        <v>178</v>
+      </c>
+      <c r="H63" t="s">
+        <v>179</v>
+      </c>
+      <c r="I63" t="str">
+        <f t="shared" si="0"/>
+        <v>"Seguridad / Cámaras Analógicas":"Conectividad",</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" t="s">
+        <v>178</v>
+      </c>
+      <c r="B64" t="s">
+        <v>440</v>
+      </c>
+      <c r="C64" t="s">
+        <v>178</v>
+      </c>
+      <c r="D64" t="s">
+        <v>263</v>
+      </c>
+      <c r="E64" t="s">
+        <v>178</v>
+      </c>
+      <c r="F64" t="s">
+        <v>360</v>
+      </c>
+      <c r="G64" t="s">
+        <v>178</v>
+      </c>
+      <c r="H64" t="s">
+        <v>179</v>
+      </c>
+      <c r="I64" t="str">
+        <f t="shared" si="0"/>
+        <v>"Seguridad / Cámaras Especiales":"Conectividad",</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" t="s">
+        <v>178</v>
+      </c>
+      <c r="B65" t="s">
+        <v>441</v>
+      </c>
+      <c r="C65" t="s">
+        <v>178</v>
+      </c>
+      <c r="D65" t="s">
+        <v>263</v>
+      </c>
+      <c r="E65" t="s">
+        <v>178</v>
+      </c>
+      <c r="F65" t="s">
+        <v>360</v>
+      </c>
+      <c r="G65" t="s">
+        <v>178</v>
+      </c>
+      <c r="H65" t="s">
+        <v>179</v>
+      </c>
+      <c r="I65" t="str">
+        <f t="shared" si="0"/>
+        <v>"Seguridad / Cámaras IP":"Conectividad",</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" t="s">
+        <v>178</v>
+      </c>
+      <c r="B66" t="s">
+        <v>442</v>
+      </c>
+      <c r="C66" t="s">
+        <v>178</v>
+      </c>
+      <c r="D66" t="s">
+        <v>263</v>
+      </c>
+      <c r="E66" t="s">
+        <v>178</v>
+      </c>
+      <c r="F66" t="s">
+        <v>360</v>
+      </c>
+      <c r="G66" t="s">
+        <v>178</v>
+      </c>
+      <c r="H66" t="s">
+        <v>179</v>
+      </c>
+      <c r="I66" t="str">
+        <f t="shared" ref="I66:I74" si="1">_xlfn.CONCAT(A66:H66)</f>
+        <v>"Seguridad / Cámaras PTZ":"Conectividad",</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>178</v>
+      </c>
+      <c r="B67" t="s">
+        <v>443</v>
+      </c>
+      <c r="C67" t="s">
+        <v>178</v>
+      </c>
+      <c r="D67" t="s">
+        <v>263</v>
+      </c>
+      <c r="E67" t="s">
+        <v>178</v>
+      </c>
+      <c r="F67" t="s">
+        <v>360</v>
+      </c>
+      <c r="G67" t="s">
+        <v>178</v>
+      </c>
+      <c r="H67" t="s">
+        <v>179</v>
+      </c>
+      <c r="I67" t="str">
+        <f t="shared" si="1"/>
+        <v>"Seguridad / Controles de Acceso":"Conectividad",</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>178</v>
+      </c>
+      <c r="B68" t="s">
+        <v>444</v>
+      </c>
+      <c r="C68" t="s">
+        <v>178</v>
+      </c>
+      <c r="D68" t="s">
+        <v>263</v>
+      </c>
+      <c r="E68" t="s">
+        <v>178</v>
+      </c>
+      <c r="F68" t="s">
+        <v>360</v>
+      </c>
+      <c r="G68" t="s">
+        <v>178</v>
+      </c>
+      <c r="H68" t="s">
+        <v>179</v>
+      </c>
+      <c r="I68" t="str">
+        <f t="shared" si="1"/>
+        <v>"Seguridad / DVR":"Conectividad",</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" t="s">
+        <v>178</v>
+      </c>
+      <c r="B69" t="s">
+        <v>445</v>
+      </c>
+      <c r="C69" t="s">
+        <v>178</v>
+      </c>
+      <c r="D69" t="s">
+        <v>263</v>
+      </c>
+      <c r="E69" t="s">
+        <v>178</v>
+      </c>
+      <c r="F69" t="s">
+        <v>360</v>
+      </c>
+      <c r="G69" t="s">
+        <v>178</v>
+      </c>
+      <c r="H69" t="s">
+        <v>179</v>
+      </c>
+      <c r="I69" t="str">
+        <f t="shared" si="1"/>
+        <v>"Seguridad / NVR":"Conectividad",</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" t="s">
+        <v>178</v>
+      </c>
+      <c r="B70" t="s">
+        <v>446</v>
+      </c>
+      <c r="C70" t="s">
+        <v>178</v>
+      </c>
+      <c r="D70" t="s">
+        <v>263</v>
+      </c>
+      <c r="E70" t="s">
+        <v>178</v>
+      </c>
+      <c r="F70" t="s">
+        <v>362</v>
+      </c>
+      <c r="G70" t="s">
+        <v>178</v>
+      </c>
+      <c r="H70" t="s">
+        <v>179</v>
+      </c>
+      <c r="I70" t="str">
+        <f t="shared" si="1"/>
+        <v>"Seguridad / Porteros":"Electro",</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" t="s">
+        <v>178</v>
+      </c>
+      <c r="B71" t="s">
+        <v>447</v>
+      </c>
+      <c r="C71" t="s">
+        <v>178</v>
+      </c>
+      <c r="D71" t="s">
+        <v>263</v>
+      </c>
+      <c r="E71" t="s">
+        <v>178</v>
+      </c>
+      <c r="F71" t="s">
+        <v>368</v>
+      </c>
+      <c r="G71" t="s">
+        <v>178</v>
+      </c>
+      <c r="H71" t="s">
+        <v>179</v>
+      </c>
+      <c r="I71" t="str">
+        <f t="shared" si="1"/>
+        <v>"Notebooks / Corporativa":"Notebooks",</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" t="s">
+        <v>178</v>
+      </c>
+      <c r="B72" t="s">
+        <v>448</v>
+      </c>
+      <c r="C72" t="s">
+        <v>178</v>
+      </c>
+      <c r="D72" t="s">
+        <v>263</v>
+      </c>
+      <c r="E72" t="s">
+        <v>178</v>
+      </c>
+      <c r="F72" t="s">
+        <v>365</v>
+      </c>
+      <c r="G72" t="s">
+        <v>178</v>
+      </c>
+      <c r="H72" t="s">
+        <v>179</v>
+      </c>
+      <c r="I72" t="str">
+        <f t="shared" si="1"/>
+        <v>"Varios / Papel Resma":"Impresoras e Insumos",</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" t="s">
+        <v>178</v>
+      </c>
+      <c r="B73" t="s">
+        <v>449</v>
+      </c>
+      <c r="C73" t="s">
+        <v>178</v>
+      </c>
+      <c r="D73" t="s">
+        <v>263</v>
+      </c>
+      <c r="E73" t="s">
+        <v>178</v>
+      </c>
+      <c r="F73" t="s">
+        <v>363</v>
+      </c>
+      <c r="G73" t="s">
+        <v>178</v>
+      </c>
+      <c r="H73" t="s">
+        <v>179</v>
+      </c>
+      <c r="I73" t="str">
+        <f t="shared" si="1"/>
+        <v>"Energía / UPS":"Estabilizadores y UPS",</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" t="s">
+        <v>178</v>
+      </c>
+      <c r="B74" t="s">
+        <v>450</v>
+      </c>
+      <c r="C74" t="s">
+        <v>178</v>
+      </c>
+      <c r="D74" t="s">
+        <v>263</v>
+      </c>
+      <c r="E74" t="s">
+        <v>178</v>
+      </c>
+      <c r="F74" t="s">
+        <v>365</v>
+      </c>
+      <c r="G74" t="s">
+        <v>178</v>
+      </c>
+      <c r="H74" t="s">
+        <v>179</v>
+      </c>
+      <c r="I74" t="str">
+        <f t="shared" si="1"/>
+        <v>"Impresoras":"Impresoras e Insumos",</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" t="s">
+        <v>178</v>
+      </c>
+      <c r="B75" t="s">
+        <v>576</v>
+      </c>
+      <c r="C75" t="s">
+        <v>178</v>
+      </c>
+      <c r="D75" t="s">
+        <v>263</v>
+      </c>
+      <c r="E75" t="s">
+        <v>178</v>
+      </c>
+      <c r="F75" t="s">
+        <v>361</v>
+      </c>
+      <c r="G75" t="s">
+        <v>178</v>
+      </c>
+      <c r="H75" t="s">
+        <v>179</v>
+      </c>
+      <c r="I75" t="str">
+        <f t="shared" ref="I75" si="2">_xlfn.CONCAT(A75:H75)</f>
+        <v>"Discos Rígidos / SSD / Disco Rígido Notebook":"Discos",</v>
+      </c>
+    </row>
+    <row r="81" spans="6:6">
+      <c r="F81" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC37D85-05AB-4705-A6FD-F8425FE0B657}">
+  <dimension ref="A1:I141"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="50" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I1" t="str">
+        <f>_xlfn.CONCAT(A1:H1)</f>
+        <v>"Accesorios":"Accesorios",</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="C2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H2" t="s">
+        <v>179</v>
+      </c>
+      <c r="I2" t="str">
+        <f t="shared" ref="I2:I65" si="0">_xlfn.CONCAT(A2:H2)</f>
+        <v>"Accesorios Celulares":"Accesorios",</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="C3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" si="0"/>
+        <v>"Accesorios para GPS":"Accesorios",</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="C4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F4" t="s">
+        <v>264</v>
+      </c>
+      <c r="G4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="0"/>
+        <v>"Accesorios para Redes":"Accesorios",</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="C5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F5" t="s">
+        <v>264</v>
+      </c>
+      <c r="G5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H5" t="s">
+        <v>179</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>"Accesorios PS2":"Accesorios",</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" t="s">
+        <v>263</v>
+      </c>
+      <c r="E6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F6" t="s">
+        <v>264</v>
+      </c>
+      <c r="G6" t="s">
+        <v>178</v>
+      </c>
+      <c r="H6" t="s">
+        <v>179</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>"Accesorios PS3-PS4":"Accesorios",</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="C7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" t="s">
+        <v>263</v>
+      </c>
+      <c r="E7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H7" t="s">
+        <v>179</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>"Accesorios TV":"Accesorios",</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="C8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" t="s">
+        <v>263</v>
+      </c>
+      <c r="E8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F8" t="s">
+        <v>264</v>
+      </c>
+      <c r="G8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H8" t="s">
+        <v>179</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>"Accesorios WII":"Accesorios",</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="C9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E9" t="s">
+        <v>178</v>
+      </c>
+      <c r="F9" t="s">
+        <v>264</v>
+      </c>
+      <c r="G9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H9" t="s">
+        <v>179</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>"Accesorios XBOX":"Accesorios",</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="C10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" t="s">
+        <v>263</v>
+      </c>
+      <c r="E10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F10" t="s">
+        <v>360</v>
+      </c>
+      <c r="G10" t="s">
+        <v>178</v>
+      </c>
+      <c r="H10" t="s">
+        <v>179</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>"Access Point":"Conectividad",</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="C11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D11" t="s">
+        <v>263</v>
+      </c>
+      <c r="E11" t="s">
+        <v>178</v>
+      </c>
+      <c r="F11" t="s">
+        <v>358</v>
+      </c>
+      <c r="G11" t="s">
+        <v>178</v>
+      </c>
+      <c r="H11" t="s">
+        <v>179</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>"Adaptadores":"Cables y Adaptadores",</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="C12" t="s">
+        <v>178</v>
+      </c>
+      <c r="D12" t="s">
+        <v>263</v>
+      </c>
+      <c r="E12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F12" t="s">
+        <v>360</v>
+      </c>
+      <c r="G12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H12" t="s">
+        <v>179</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v>"Adaptadores de Red":"Conectividad",</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C13" t="s">
+        <v>178</v>
+      </c>
+      <c r="D13" t="s">
+        <v>263</v>
+      </c>
+      <c r="E13" t="s">
+        <v>178</v>
+      </c>
+      <c r="F13" t="s">
+        <v>358</v>
+      </c>
+      <c r="G13" t="s">
+        <v>178</v>
+      </c>
+      <c r="H13" t="s">
+        <v>179</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v>"Alargues":"Cables y Adaptadores",</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="C14" t="s">
+        <v>178</v>
+      </c>
+      <c r="D14" t="s">
+        <v>263</v>
+      </c>
+      <c r="E14" t="s">
+        <v>178</v>
+      </c>
+      <c r="F14" t="s">
+        <v>363</v>
+      </c>
+      <c r="G14" t="s">
+        <v>178</v>
+      </c>
+      <c r="H14" t="s">
+        <v>179</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
+        <v>"Alimentacion":"Estabilizadores y UPS",</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C15" t="s">
+        <v>178</v>
+      </c>
+      <c r="D15" t="s">
+        <v>263</v>
+      </c>
+      <c r="E15" t="s">
+        <v>178</v>
+      </c>
+      <c r="F15" t="s">
+        <v>264</v>
+      </c>
+      <c r="G15" t="s">
+        <v>178</v>
+      </c>
+      <c r="H15" t="s">
+        <v>179</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Antenas":"Accesorios",</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="C16" t="s">
+        <v>178</v>
+      </c>
+      <c r="D16" t="s">
+        <v>263</v>
+      </c>
+      <c r="E16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" t="s">
+        <v>362</v>
+      </c>
+      <c r="G16" t="s">
+        <v>178</v>
+      </c>
+      <c r="H16" t="s">
+        <v>179</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="0"/>
+        <v>"Audio":"Electro",</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>178</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C17" t="s">
+        <v>178</v>
+      </c>
+      <c r="D17" t="s">
+        <v>263</v>
+      </c>
+      <c r="E17" t="s">
+        <v>178</v>
+      </c>
+      <c r="F17" t="s">
+        <v>267</v>
+      </c>
+      <c r="G17" t="s">
+        <v>178</v>
+      </c>
+      <c r="H17" t="s">
+        <v>179</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="0"/>
+        <v>"Auriculares":"Auriculares",</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>178</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="C18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D18" t="s">
+        <v>263</v>
+      </c>
+      <c r="E18" t="s">
+        <v>178</v>
+      </c>
+      <c r="F18" t="s">
+        <v>362</v>
+      </c>
+      <c r="G18" t="s">
+        <v>178</v>
+      </c>
+      <c r="H18" t="s">
+        <v>179</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="0"/>
+        <v>"Bicicletas":"Electro",</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>178</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="C19" t="s">
+        <v>178</v>
+      </c>
+      <c r="D19" t="s">
+        <v>263</v>
+      </c>
+      <c r="E19" t="s">
+        <v>178</v>
+      </c>
+      <c r="F19" t="s">
+        <v>362</v>
+      </c>
+      <c r="G19" t="s">
+        <v>178</v>
+      </c>
+      <c r="H19" t="s">
+        <v>179</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="0"/>
+        <v>"Binoculares":"Electro",</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>178</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="C20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D20" t="s">
+        <v>263</v>
+      </c>
+      <c r="E20" t="s">
+        <v>178</v>
+      </c>
+      <c r="F20" t="s">
+        <v>362</v>
+      </c>
+      <c r="G20" t="s">
+        <v>178</v>
+      </c>
+      <c r="H20" t="s">
+        <v>179</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="0"/>
+        <v>"Bolsos":"Electro",</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>178</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="C21" t="s">
+        <v>178</v>
+      </c>
+      <c r="D21" t="s">
+        <v>263</v>
+      </c>
+      <c r="E21" t="s">
+        <v>178</v>
+      </c>
+      <c r="F21" t="s">
+        <v>264</v>
+      </c>
+      <c r="G21" t="s">
+        <v>178</v>
+      </c>
+      <c r="H21" t="s">
+        <v>179</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="0"/>
+        <v>"Cajas p/ CD-DVD":"Accesorios",</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>178</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="C22" t="s">
+        <v>178</v>
+      </c>
+      <c r="D22" t="s">
+        <v>263</v>
+      </c>
+      <c r="E22" t="s">
+        <v>178</v>
+      </c>
+      <c r="F22" t="s">
+        <v>362</v>
+      </c>
+      <c r="G22" t="s">
+        <v>178</v>
+      </c>
+      <c r="H22" t="s">
+        <v>179</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="0"/>
+        <v>"Calculadoras":"Electro",</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>178</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="C23" t="s">
+        <v>178</v>
+      </c>
+      <c r="D23" t="s">
+        <v>263</v>
+      </c>
+      <c r="E23" t="s">
+        <v>178</v>
+      </c>
+      <c r="F23" t="s">
+        <v>360</v>
+      </c>
+      <c r="G23" t="s">
+        <v>178</v>
+      </c>
+      <c r="H23" t="s">
+        <v>179</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="0"/>
+        <v>"CAMARAS - VIDEO CAMARAS":"Conectividad",</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>178</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="C24" t="s">
+        <v>178</v>
+      </c>
+      <c r="D24" t="s">
+        <v>263</v>
+      </c>
+      <c r="E24" t="s">
+        <v>178</v>
+      </c>
+      <c r="F24" t="s">
+        <v>362</v>
+      </c>
+      <c r="G24" t="s">
+        <v>178</v>
+      </c>
+      <c r="H24" t="s">
+        <v>179</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="0"/>
+        <v>"Camaras Digitales":"Electro",</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>178</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="C25" t="s">
+        <v>178</v>
+      </c>
+      <c r="D25" t="s">
+        <v>263</v>
+      </c>
+      <c r="E25" t="s">
+        <v>178</v>
+      </c>
+      <c r="F25" t="s">
+        <v>360</v>
+      </c>
+      <c r="G25" t="s">
+        <v>178</v>
+      </c>
+      <c r="H25" t="s">
+        <v>179</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="0"/>
+        <v>"Camaras Domo y Bullet":"Conectividad",</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>178</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C26" t="s">
+        <v>178</v>
+      </c>
+      <c r="D26" t="s">
+        <v>263</v>
+      </c>
+      <c r="E26" t="s">
+        <v>178</v>
+      </c>
+      <c r="F26" t="s">
+        <v>360</v>
+      </c>
+      <c r="G26" t="s">
+        <v>178</v>
+      </c>
+      <c r="H26" t="s">
+        <v>179</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="0"/>
+        <v>"Camaras IP":"Conectividad",</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>178</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="C27" t="s">
+        <v>178</v>
+      </c>
+      <c r="D27" t="s">
+        <v>263</v>
+      </c>
+      <c r="E27" t="s">
+        <v>178</v>
+      </c>
+      <c r="F27" t="s">
+        <v>376</v>
+      </c>
+      <c r="G27" t="s">
+        <v>178</v>
+      </c>
+      <c r="H27" t="s">
+        <v>179</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="0"/>
+        <v>"Camaras WEB":"Webcams",</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="C28" t="s">
+        <v>178</v>
+      </c>
+      <c r="D28" t="s">
+        <v>263</v>
+      </c>
+      <c r="E28" t="s">
+        <v>178</v>
+      </c>
+      <c r="F28" t="s">
+        <v>264</v>
+      </c>
+      <c r="G28" t="s">
+        <v>178</v>
+      </c>
+      <c r="H28" t="s">
+        <v>179</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="0"/>
+        <v>"Cargadores":"Accesorios",</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>178</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="C29" t="s">
+        <v>178</v>
+      </c>
+      <c r="D29" t="s">
+        <v>263</v>
+      </c>
+      <c r="E29" t="s">
+        <v>178</v>
+      </c>
+      <c r="F29" t="s">
+        <v>365</v>
+      </c>
+      <c r="G29" t="s">
+        <v>178</v>
+      </c>
+      <c r="H29" t="s">
+        <v>179</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="0"/>
+        <v>"Cartuchos Alternativos":"Impresoras e Insumos",</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>178</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="C30" t="s">
+        <v>178</v>
+      </c>
+      <c r="D30" t="s">
+        <v>263</v>
+      </c>
+      <c r="E30" t="s">
+        <v>178</v>
+      </c>
+      <c r="F30" t="s">
+        <v>365</v>
+      </c>
+      <c r="G30" t="s">
+        <v>178</v>
+      </c>
+      <c r="H30" t="s">
+        <v>179</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="0"/>
+        <v>"Cartuchos Originales":"Impresoras e Insumos",</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>178</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="C31" t="s">
+        <v>178</v>
+      </c>
+      <c r="D31" t="s">
+        <v>263</v>
+      </c>
+      <c r="E31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F31" t="s">
+        <v>375</v>
+      </c>
+      <c r="G31" t="s">
+        <v>178</v>
+      </c>
+      <c r="H31" t="s">
+        <v>179</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="0"/>
+        <v>"Celulares":"Telefonia",</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>178</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="C32" t="s">
+        <v>178</v>
+      </c>
+      <c r="D32" t="s">
+        <v>263</v>
+      </c>
+      <c r="E32" t="s">
+        <v>178</v>
+      </c>
+      <c r="F32" t="s">
+        <v>375</v>
+      </c>
+      <c r="G32" t="s">
+        <v>178</v>
+      </c>
+      <c r="H32" t="s">
+        <v>179</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="0"/>
+        <v>"Celulares - Repuestos":"Telefonia",</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>178</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="C33" t="s">
+        <v>178</v>
+      </c>
+      <c r="D33" t="s">
+        <v>263</v>
+      </c>
+      <c r="E33" t="s">
+        <v>178</v>
+      </c>
+      <c r="F33" t="s">
+        <v>365</v>
+      </c>
+      <c r="G33" t="s">
+        <v>178</v>
+      </c>
+      <c r="H33" t="s">
+        <v>179</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="0"/>
+        <v>"Cintas Matriciales":"Impresoras e Insumos",</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>178</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="C34" t="s">
+        <v>178</v>
+      </c>
+      <c r="D34" t="s">
+        <v>263</v>
+      </c>
+      <c r="E34" t="s">
+        <v>178</v>
+      </c>
+      <c r="F34" t="s">
+        <v>362</v>
+      </c>
+      <c r="G34" t="s">
+        <v>178</v>
+      </c>
+      <c r="H34" t="s">
+        <v>179</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="0"/>
+        <v>"Climatizacion":"Electro",</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>178</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="C35" t="s">
+        <v>178</v>
+      </c>
+      <c r="D35" t="s">
+        <v>263</v>
+      </c>
+      <c r="E35" t="s">
+        <v>178</v>
+      </c>
+      <c r="F35" t="s">
+        <v>362</v>
+      </c>
+      <c r="G35" t="s">
+        <v>178</v>
+      </c>
+      <c r="H35" t="s">
+        <v>179</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="0"/>
+        <v>"Cocina":"Electro",</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>178</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="C36" t="s">
+        <v>178</v>
+      </c>
+      <c r="D36" t="s">
+        <v>263</v>
+      </c>
+      <c r="E36" t="s">
+        <v>178</v>
+      </c>
+      <c r="F36" t="s">
+        <v>359</v>
+      </c>
+      <c r="G36" t="s">
+        <v>178</v>
+      </c>
+      <c r="H36" t="s">
+        <v>179</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="0"/>
+        <v>"Computadoras PC":"Computadoras",</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>178</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="C37" t="s">
+        <v>178</v>
+      </c>
+      <c r="D37" t="s">
+        <v>263</v>
+      </c>
+      <c r="E37" t="s">
+        <v>178</v>
+      </c>
+      <c r="F37" t="s">
+        <v>358</v>
+      </c>
+      <c r="G37" t="s">
+        <v>178</v>
+      </c>
+      <c r="H37" t="s">
+        <v>179</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="0"/>
+        <v>"Conectores":"Cables y Adaptadores",</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>178</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="C38" t="s">
+        <v>178</v>
+      </c>
+      <c r="D38" t="s">
+        <v>263</v>
+      </c>
+      <c r="E38" t="s">
+        <v>178</v>
+      </c>
+      <c r="F38" t="s">
+        <v>364</v>
+      </c>
+      <c r="G38" t="s">
+        <v>178</v>
+      </c>
+      <c r="H38" t="s">
+        <v>179</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="0"/>
+        <v>"Consolas":"Gamer",</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>178</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="C39" t="s">
+        <v>178</v>
+      </c>
+      <c r="D39" t="s">
+        <v>263</v>
+      </c>
+      <c r="E39" t="s">
+        <v>178</v>
+      </c>
+      <c r="F39" t="s">
+        <v>364</v>
+      </c>
+      <c r="G39" t="s">
+        <v>178</v>
+      </c>
+      <c r="H39" t="s">
+        <v>179</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="0"/>
+        <v>"Controladores":"Gamer",</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>178</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="C40" t="s">
+        <v>178</v>
+      </c>
+      <c r="D40" t="s">
+        <v>263</v>
+      </c>
+      <c r="E40" t="s">
+        <v>178</v>
+      </c>
+      <c r="F40" t="s">
+        <v>362</v>
+      </c>
+      <c r="G40" t="s">
+        <v>178</v>
+      </c>
+      <c r="H40" t="s">
+        <v>179</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="0"/>
+        <v>"Cuidado Personal":"Electro",</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>178</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="C41" t="s">
+        <v>178</v>
+      </c>
+      <c r="D41" t="s">
+        <v>263</v>
+      </c>
+      <c r="E41" t="s">
+        <v>178</v>
+      </c>
+      <c r="F41" t="s">
+        <v>358</v>
+      </c>
+      <c r="G41" t="s">
+        <v>178</v>
+      </c>
+      <c r="H41" t="s">
+        <v>179</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="0"/>
+        <v>"Datos":"Cables y Adaptadores",</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>178</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="C42" t="s">
+        <v>178</v>
+      </c>
+      <c r="D42" t="s">
+        <v>263</v>
+      </c>
+      <c r="E42" t="s">
+        <v>178</v>
+      </c>
+      <c r="F42" t="s">
+        <v>362</v>
+      </c>
+      <c r="G42" t="s">
+        <v>178</v>
+      </c>
+      <c r="H42" t="s">
+        <v>179</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="0"/>
+        <v>"De Conduccion (Auto)":"Electro",</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>178</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="C43" t="s">
+        <v>178</v>
+      </c>
+      <c r="D43" t="s">
+        <v>263</v>
+      </c>
+      <c r="E43" t="s">
+        <v>178</v>
+      </c>
+      <c r="F43" t="s">
+        <v>362</v>
+      </c>
+      <c r="G43" t="s">
+        <v>178</v>
+      </c>
+      <c r="H43" t="s">
+        <v>179</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="0"/>
+        <v>"De Conduccion (Bicicletas)":"Electro",</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>178</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="C44" t="s">
+        <v>178</v>
+      </c>
+      <c r="D44" t="s">
+        <v>263</v>
+      </c>
+      <c r="E44" t="s">
+        <v>178</v>
+      </c>
+      <c r="F44" t="s">
+        <v>362</v>
+      </c>
+      <c r="G44" t="s">
+        <v>178</v>
+      </c>
+      <c r="H44" t="s">
+        <v>179</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="0"/>
+        <v>"De Conduccion (Motos)":"Electro",</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>178</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="C45" t="s">
+        <v>178</v>
+      </c>
+      <c r="D45" t="s">
+        <v>263</v>
+      </c>
+      <c r="E45" t="s">
+        <v>178</v>
+      </c>
+      <c r="F45" t="s">
+        <v>362</v>
+      </c>
+      <c r="G45" t="s">
+        <v>178</v>
+      </c>
+      <c r="H45" t="s">
+        <v>179</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="0"/>
+        <v>"De Exploración":"Electro",</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>178</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C46" t="s">
+        <v>178</v>
+      </c>
+      <c r="D46" t="s">
+        <v>263</v>
+      </c>
+      <c r="E46" t="s">
+        <v>178</v>
+      </c>
+      <c r="F46" t="s">
+        <v>362</v>
+      </c>
+      <c r="G46" t="s">
+        <v>178</v>
+      </c>
+      <c r="H46" t="s">
+        <v>179</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="0"/>
+        <v>"De Redes":"Electro",</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>178</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C47" t="s">
+        <v>178</v>
+      </c>
+      <c r="D47" t="s">
+        <v>263</v>
+      </c>
+      <c r="E47" t="s">
+        <v>178</v>
+      </c>
+      <c r="F47" t="s">
+        <v>365</v>
+      </c>
+      <c r="G47" t="s">
+        <v>178</v>
+      </c>
+      <c r="H47" t="s">
+        <v>179</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="0"/>
+        <v>"De Tinta":"Impresoras e Insumos",</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>178</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="C48" t="s">
+        <v>178</v>
+      </c>
+      <c r="D48" t="s">
+        <v>263</v>
+      </c>
+      <c r="E48" t="s">
+        <v>178</v>
+      </c>
+      <c r="F48" t="s">
+        <v>365</v>
+      </c>
+      <c r="G48" t="s">
+        <v>178</v>
+      </c>
+      <c r="H48" t="s">
+        <v>179</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="0"/>
+        <v>"De Tinta Multifuncion":"Impresoras e Insumos",</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>178</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="C49" t="s">
+        <v>178</v>
+      </c>
+      <c r="D49" t="s">
+        <v>263</v>
+      </c>
+      <c r="E49" t="s">
+        <v>178</v>
+      </c>
+      <c r="F49" t="s">
+        <v>365</v>
+      </c>
+      <c r="G49" t="s">
+        <v>178</v>
+      </c>
+      <c r="H49" t="s">
+        <v>179</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="0"/>
+        <v>"De Tinta Sistema Continuo":"Impresoras e Insumos",</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>178</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C50" t="s">
+        <v>178</v>
+      </c>
+      <c r="D50" t="s">
+        <v>263</v>
+      </c>
+      <c r="E50" t="s">
+        <v>178</v>
+      </c>
+      <c r="F50" t="s">
+        <v>362</v>
+      </c>
+      <c r="G50" t="s">
+        <v>178</v>
+      </c>
+      <c r="H50" t="s">
+        <v>179</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="0"/>
+        <v>"Desayuno":"Electro",</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>178</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="C51" t="s">
+        <v>178</v>
+      </c>
+      <c r="D51" t="s">
+        <v>263</v>
+      </c>
+      <c r="E51" t="s">
+        <v>178</v>
+      </c>
+      <c r="F51" t="s">
+        <v>362</v>
+      </c>
+      <c r="G51" t="s">
+        <v>178</v>
+      </c>
+      <c r="H51" t="s">
+        <v>179</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="0"/>
+        <v>"Destructores de Documentos":"Electro",</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>178</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C52" t="s">
+        <v>178</v>
+      </c>
+      <c r="D52" t="s">
+        <v>263</v>
+      </c>
+      <c r="E52" t="s">
+        <v>178</v>
+      </c>
+      <c r="F52" t="s">
+        <v>361</v>
+      </c>
+      <c r="G52" t="s">
+        <v>178</v>
+      </c>
+      <c r="H52" t="s">
+        <v>179</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" si="0"/>
+        <v>"Discos Rigidos":"Discos",</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>178</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="C53" t="s">
+        <v>178</v>
+      </c>
+      <c r="D53" t="s">
+        <v>263</v>
+      </c>
+      <c r="E53" t="s">
+        <v>178</v>
+      </c>
+      <c r="F53" t="s">
+        <v>362</v>
+      </c>
+      <c r="G53" t="s">
+        <v>178</v>
+      </c>
+      <c r="H53" t="s">
+        <v>179</v>
+      </c>
+      <c r="I53" t="str">
+        <f t="shared" si="0"/>
+        <v>"Drones - MiniDrones":"Electro",</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>178</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="C54" t="s">
+        <v>178</v>
+      </c>
+      <c r="D54" t="s">
+        <v>263</v>
+      </c>
+      <c r="E54" t="s">
+        <v>178</v>
+      </c>
+      <c r="F54" t="s">
+        <v>362</v>
+      </c>
+      <c r="G54" t="s">
+        <v>178</v>
+      </c>
+      <c r="H54" t="s">
+        <v>179</v>
+      </c>
+      <c r="I54" t="str">
+        <f t="shared" si="0"/>
+        <v>"DVD - BLURAY - Multimedia":"Electro",</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>178</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="C55" t="s">
+        <v>178</v>
+      </c>
+      <c r="D55" t="s">
+        <v>263</v>
+      </c>
+      <c r="E55" t="s">
+        <v>178</v>
+      </c>
+      <c r="F55" t="s">
+        <v>360</v>
+      </c>
+      <c r="G55" t="s">
+        <v>178</v>
+      </c>
+      <c r="H55" t="s">
+        <v>179</v>
+      </c>
+      <c r="I55" t="str">
+        <f t="shared" si="0"/>
+        <v>"DVR Autonomos":"Conectividad",</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>178</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C56" t="s">
+        <v>178</v>
+      </c>
+      <c r="D56" t="s">
+        <v>263</v>
+      </c>
+      <c r="E56" t="s">
+        <v>178</v>
+      </c>
+      <c r="F56" t="s">
+        <v>363</v>
+      </c>
+      <c r="G56" t="s">
+        <v>178</v>
+      </c>
+      <c r="H56" t="s">
+        <v>179</v>
+      </c>
+      <c r="I56" t="str">
+        <f t="shared" si="0"/>
+        <v>"Estabilizadores":"Estabilizadores y UPS",</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>178</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="C57" t="s">
+        <v>178</v>
+      </c>
+      <c r="D57" t="s">
+        <v>263</v>
+      </c>
+      <c r="E57" t="s">
+        <v>178</v>
+      </c>
+      <c r="F57" t="s">
+        <v>365</v>
+      </c>
+      <c r="G57" t="s">
+        <v>178</v>
+      </c>
+      <c r="H57" t="s">
+        <v>179</v>
+      </c>
+      <c r="I57" t="str">
+        <f t="shared" si="0"/>
+        <v>"Faxes":"Impresoras e Insumos",</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>178</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="C58" t="s">
+        <v>178</v>
+      </c>
+      <c r="D58" t="s">
+        <v>263</v>
+      </c>
+      <c r="E58" t="s">
+        <v>178</v>
+      </c>
+      <c r="F58" t="s">
+        <v>375</v>
+      </c>
+      <c r="G58" t="s">
+        <v>178</v>
+      </c>
+      <c r="H58" t="s">
+        <v>179</v>
+      </c>
+      <c r="I58" t="str">
+        <f t="shared" si="0"/>
+        <v>"Fijos":"Telefonia",</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>178</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C59" t="s">
+        <v>178</v>
+      </c>
+      <c r="D59" t="s">
+        <v>263</v>
+      </c>
+      <c r="E59" t="s">
+        <v>178</v>
+      </c>
+      <c r="F59" t="s">
+        <v>264</v>
+      </c>
+      <c r="G59" t="s">
+        <v>178</v>
+      </c>
+      <c r="H59" t="s">
+        <v>179</v>
+      </c>
+      <c r="I59" t="str">
+        <f t="shared" si="0"/>
+        <v>"Fundas":"Accesorios",</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>178</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="C60" t="s">
+        <v>178</v>
+      </c>
+      <c r="D60" t="s">
+        <v>263</v>
+      </c>
+      <c r="E60" t="s">
+        <v>178</v>
+      </c>
+      <c r="F60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G60" t="s">
+        <v>178</v>
+      </c>
+      <c r="H60" t="s">
+        <v>179</v>
+      </c>
+      <c r="I60" t="str">
+        <f t="shared" si="0"/>
+        <v>"Gabinetes y Fuentes":"Gabinetes",</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>178</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="C61" t="s">
+        <v>178</v>
+      </c>
+      <c r="D61" t="s">
+        <v>263</v>
+      </c>
+      <c r="E61" t="s">
+        <v>178</v>
+      </c>
+      <c r="F61" t="s">
+        <v>364</v>
+      </c>
+      <c r="G61" t="s">
+        <v>178</v>
+      </c>
+      <c r="H61" t="s">
+        <v>179</v>
+      </c>
+      <c r="I61" t="str">
+        <f t="shared" si="0"/>
+        <v>"Game Pad - Joysticks":"Gamer",</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>178</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="C62" t="s">
+        <v>178</v>
+      </c>
+      <c r="D62" t="s">
+        <v>263</v>
+      </c>
+      <c r="E62" t="s">
+        <v>178</v>
+      </c>
+      <c r="F62" t="s">
+        <v>362</v>
+      </c>
+      <c r="G62" t="s">
+        <v>178</v>
+      </c>
+      <c r="H62" t="s">
+        <v>179</v>
+      </c>
+      <c r="I62" t="str">
+        <f t="shared" si="0"/>
+        <v>"Grabadores de Periodista - Radios":"Electro",</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>178</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="C63" t="s">
+        <v>178</v>
+      </c>
+      <c r="D63" t="s">
+        <v>263</v>
+      </c>
+      <c r="E63" t="s">
+        <v>178</v>
+      </c>
+      <c r="F63" t="s">
+        <v>362</v>
+      </c>
+      <c r="G63" t="s">
+        <v>178</v>
+      </c>
+      <c r="H63" t="s">
+        <v>179</v>
+      </c>
+      <c r="I63" t="str">
+        <f t="shared" si="0"/>
+        <v>"Guitarras":"Electro",</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" t="s">
+        <v>178</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="C64" t="s">
+        <v>178</v>
+      </c>
+      <c r="D64" t="s">
+        <v>263</v>
+      </c>
+      <c r="E64" t="s">
+        <v>178</v>
+      </c>
+      <c r="F64" t="s">
+        <v>375</v>
+      </c>
+      <c r="G64" t="s">
+        <v>178</v>
+      </c>
+      <c r="H64" t="s">
+        <v>179</v>
+      </c>
+      <c r="I64" t="str">
+        <f t="shared" si="0"/>
+        <v>"Handies":"Telefonia",</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" t="s">
+        <v>178</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="C65" t="s">
+        <v>178</v>
+      </c>
+      <c r="D65" t="s">
+        <v>263</v>
+      </c>
+      <c r="E65" t="s">
+        <v>178</v>
+      </c>
+      <c r="F65" t="s">
+        <v>362</v>
+      </c>
+      <c r="G65" t="s">
+        <v>178</v>
+      </c>
+      <c r="H65" t="s">
+        <v>179</v>
+      </c>
+      <c r="I65" t="str">
+        <f t="shared" si="0"/>
+        <v>"Herramientas":"Electro",</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" t="s">
+        <v>178</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="C66" t="s">
+        <v>178</v>
+      </c>
+      <c r="D66" t="s">
+        <v>263</v>
+      </c>
+      <c r="E66" t="s">
+        <v>178</v>
+      </c>
+      <c r="F66" t="s">
+        <v>362</v>
+      </c>
+      <c r="G66" t="s">
+        <v>178</v>
+      </c>
+      <c r="H66" t="s">
+        <v>179</v>
+      </c>
+      <c r="I66" t="str">
+        <f t="shared" ref="I66:I129" si="1">_xlfn.CONCAT(A66:H66)</f>
+        <v>"Hidrolavadoras":"Electro",</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>178</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="C67" t="s">
+        <v>178</v>
+      </c>
+      <c r="D67" t="s">
+        <v>263</v>
+      </c>
+      <c r="E67" t="s">
+        <v>178</v>
+      </c>
+      <c r="F67" t="s">
+        <v>362</v>
+      </c>
+      <c r="G67" t="s">
+        <v>178</v>
+      </c>
+      <c r="H67" t="s">
+        <v>179</v>
+      </c>
+      <c r="I67" t="str">
+        <f t="shared" si="1"/>
+        <v>"HOGAR":"Electro",</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>178</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="C68" t="s">
+        <v>178</v>
+      </c>
+      <c r="D68" t="s">
+        <v>263</v>
+      </c>
+      <c r="E68" t="s">
+        <v>178</v>
+      </c>
+      <c r="F68" t="s">
+        <v>362</v>
+      </c>
+      <c r="G68" t="s">
+        <v>178</v>
+      </c>
+      <c r="H68" t="s">
+        <v>179</v>
+      </c>
+      <c r="I68" t="str">
+        <f t="shared" si="1"/>
+        <v>"Hornos - Parillas":"Electro",</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" t="s">
+        <v>178</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="C69" t="s">
+        <v>178</v>
+      </c>
+      <c r="D69" t="s">
+        <v>263</v>
+      </c>
+      <c r="E69" t="s">
+        <v>178</v>
+      </c>
+      <c r="F69" t="s">
+        <v>362</v>
+      </c>
+      <c r="G69" t="s">
+        <v>178</v>
+      </c>
+      <c r="H69" t="s">
+        <v>179</v>
+      </c>
+      <c r="I69" t="str">
+        <f t="shared" si="1"/>
+        <v>"Iluminación":"Electro",</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" t="s">
+        <v>178</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="C70" t="s">
+        <v>178</v>
+      </c>
+      <c r="D70" t="s">
+        <v>263</v>
+      </c>
+      <c r="E70" t="s">
+        <v>178</v>
+      </c>
+      <c r="F70" t="s">
+        <v>362</v>
+      </c>
+      <c r="G70" t="s">
+        <v>178</v>
+      </c>
+      <c r="H70" t="s">
+        <v>179</v>
+      </c>
+      <c r="I70" t="str">
+        <f t="shared" si="1"/>
+        <v>"Jardineria":"Electro",</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" t="s">
+        <v>178</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="C71" t="s">
+        <v>178</v>
+      </c>
+      <c r="D71" t="s">
+        <v>263</v>
+      </c>
+      <c r="E71" t="s">
+        <v>178</v>
+      </c>
+      <c r="F71" t="s">
+        <v>362</v>
+      </c>
+      <c r="G71" t="s">
+        <v>178</v>
+      </c>
+      <c r="H71" t="s">
+        <v>179</v>
+      </c>
+      <c r="I71" t="str">
+        <f t="shared" si="1"/>
+        <v>"Juguetes":"Electro",</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" t="s">
+        <v>178</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="C72" t="s">
+        <v>178</v>
+      </c>
+      <c r="D72" t="s">
+        <v>263</v>
+      </c>
+      <c r="E72" t="s">
+        <v>178</v>
+      </c>
+      <c r="F72" t="s">
+        <v>360</v>
+      </c>
+      <c r="G72" t="s">
+        <v>178</v>
+      </c>
+      <c r="H72" t="s">
+        <v>179</v>
+      </c>
+      <c r="I72" t="str">
+        <f t="shared" si="1"/>
+        <v>"Kit de Seguridad":"Conectividad",</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" t="s">
+        <v>178</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="C73" t="s">
+        <v>178</v>
+      </c>
+      <c r="D73" t="s">
+        <v>263</v>
+      </c>
+      <c r="E73" t="s">
+        <v>178</v>
+      </c>
+      <c r="F73" t="s">
+        <v>365</v>
+      </c>
+      <c r="G73" t="s">
+        <v>178</v>
+      </c>
+      <c r="H73" t="s">
+        <v>179</v>
+      </c>
+      <c r="I73" t="str">
+        <f t="shared" si="1"/>
+        <v>"Laser":"Impresoras e Insumos",</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" t="s">
+        <v>178</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="C74" t="s">
+        <v>178</v>
+      </c>
+      <c r="D74" t="s">
+        <v>263</v>
+      </c>
+      <c r="E74" t="s">
+        <v>178</v>
+      </c>
+      <c r="F74" t="s">
+        <v>365</v>
+      </c>
+      <c r="G74" t="s">
+        <v>178</v>
+      </c>
+      <c r="H74" t="s">
+        <v>179</v>
+      </c>
+      <c r="I74" t="str">
+        <f t="shared" si="1"/>
+        <v>"Laser Multifuncion":"Impresoras e Insumos",</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" t="s">
+        <v>178</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="C75" t="s">
+        <v>178</v>
+      </c>
+      <c r="D75" t="s">
+        <v>263</v>
+      </c>
+      <c r="E75" t="s">
+        <v>178</v>
+      </c>
+      <c r="F75" t="s">
+        <v>374</v>
+      </c>
+      <c r="G75" t="s">
+        <v>178</v>
+      </c>
+      <c r="H75" t="s">
+        <v>179</v>
+      </c>
+      <c r="I75" t="str">
+        <f t="shared" si="1"/>
+        <v>"Lectores de Libros Digitales":"Tablets",</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" t="s">
+        <v>178</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="C76" t="s">
+        <v>178</v>
+      </c>
+      <c r="D76" t="s">
+        <v>263</v>
+      </c>
+      <c r="E76" t="s">
+        <v>178</v>
+      </c>
+      <c r="F76" t="s">
+        <v>367</v>
+      </c>
+      <c r="G76" t="s">
+        <v>178</v>
+      </c>
+      <c r="H76" t="s">
+        <v>179</v>
+      </c>
+      <c r="I76" t="str">
+        <f t="shared" si="1"/>
+        <v>"Lectores de Memorias":"Almacenamiento Portatil",</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" t="s">
+        <v>178</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="C77" t="s">
+        <v>178</v>
+      </c>
+      <c r="D77" t="s">
+        <v>263</v>
+      </c>
+      <c r="E77" t="s">
+        <v>178</v>
+      </c>
+      <c r="F77" t="s">
+        <v>362</v>
+      </c>
+      <c r="G77" t="s">
+        <v>178</v>
+      </c>
+      <c r="H77" t="s">
+        <v>179</v>
+      </c>
+      <c r="I77" t="str">
+        <f t="shared" si="1"/>
+        <v>"Libreria":"Electro",</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" t="s">
+        <v>178</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="C78" t="s">
+        <v>178</v>
+      </c>
+      <c r="D78" t="s">
+        <v>263</v>
+      </c>
+      <c r="E78" t="s">
+        <v>178</v>
+      </c>
+      <c r="F78" t="s">
+        <v>264</v>
+      </c>
+      <c r="G78" t="s">
+        <v>178</v>
+      </c>
+      <c r="H78" t="s">
+        <v>179</v>
+      </c>
+      <c r="I78" t="str">
+        <f t="shared" si="1"/>
+        <v>"Limpieza":"Accesorios",</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" t="s">
+        <v>178</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="C79" t="s">
+        <v>178</v>
+      </c>
+      <c r="D79" t="s">
+        <v>263</v>
+      </c>
+      <c r="E79" t="s">
+        <v>178</v>
+      </c>
+      <c r="F79" t="s">
+        <v>365</v>
+      </c>
+      <c r="G79" t="s">
+        <v>178</v>
+      </c>
+      <c r="H79" t="s">
+        <v>179</v>
+      </c>
+      <c r="I79" t="str">
+        <f t="shared" si="1"/>
+        <v>"Matriciales":"Impresoras e Insumos",</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" t="s">
+        <v>178</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="C80" t="s">
+        <v>178</v>
+      </c>
+      <c r="D80" t="s">
+        <v>263</v>
+      </c>
+      <c r="E80" t="s">
+        <v>178</v>
+      </c>
+      <c r="F80" t="s">
+        <v>362</v>
+      </c>
+      <c r="G80" t="s">
+        <v>178</v>
+      </c>
+      <c r="H80" t="s">
+        <v>179</v>
+      </c>
+      <c r="I80" t="str">
+        <f t="shared" si="1"/>
+        <v>"Mesas para PC":"Electro",</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" t="s">
+        <v>178</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="C81" t="s">
+        <v>178</v>
+      </c>
+      <c r="D81" t="s">
+        <v>263</v>
+      </c>
+      <c r="E81" t="s">
+        <v>178</v>
+      </c>
+      <c r="F81" t="s">
+        <v>362</v>
+      </c>
+      <c r="G81" t="s">
+        <v>178</v>
+      </c>
+      <c r="H81" t="s">
+        <v>179</v>
+      </c>
+      <c r="I81" t="str">
+        <f t="shared" si="1"/>
+        <v>"Mesas para TV":"Electro",</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" t="s">
+        <v>178</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C82" t="s">
+        <v>178</v>
+      </c>
+      <c r="D82" t="s">
+        <v>263</v>
+      </c>
+      <c r="E82" t="s">
+        <v>178</v>
+      </c>
+      <c r="F82" t="s">
+        <v>292</v>
+      </c>
+      <c r="G82" t="s">
+        <v>178</v>
+      </c>
+      <c r="H82" t="s">
+        <v>179</v>
+      </c>
+      <c r="I82" t="str">
+        <f t="shared" si="1"/>
+        <v>"Microfonos":"Microfonos",</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" t="s">
+        <v>178</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="C83" t="s">
+        <v>178</v>
+      </c>
+      <c r="D83" t="s">
+        <v>263</v>
+      </c>
+      <c r="E83" t="s">
+        <v>178</v>
+      </c>
+      <c r="F83" t="s">
+        <v>362</v>
+      </c>
+      <c r="G83" t="s">
+        <v>178</v>
+      </c>
+      <c r="H83" t="s">
+        <v>179</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="1"/>
+        <v>"Microondas":"Electro",</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" t="s">
+        <v>178</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="C84" t="s">
+        <v>178</v>
+      </c>
+      <c r="D84" t="s">
+        <v>263</v>
+      </c>
+      <c r="E84" t="s">
+        <v>178</v>
+      </c>
+      <c r="F84" t="s">
+        <v>302</v>
+      </c>
+      <c r="G84" t="s">
+        <v>178</v>
+      </c>
+      <c r="H84" t="s">
+        <v>179</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="1"/>
+        <v>"Microprocesadores":"Procesadores",</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" t="s">
+        <v>178</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="C85" t="s">
+        <v>178</v>
+      </c>
+      <c r="D85" t="s">
+        <v>263</v>
+      </c>
+      <c r="E85" t="s">
+        <v>178</v>
+      </c>
+      <c r="F85" t="s">
+        <v>369</v>
+      </c>
+      <c r="G85" t="s">
+        <v>178</v>
+      </c>
+      <c r="H85" t="s">
+        <v>179</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="1"/>
+        <v>"Mineria":"Placas de video",</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" t="s">
+        <v>178</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="C86" t="s">
+        <v>178</v>
+      </c>
+      <c r="D86" t="s">
+        <v>263</v>
+      </c>
+      <c r="E86" t="s">
+        <v>178</v>
+      </c>
+      <c r="F86" t="s">
+        <v>359</v>
+      </c>
+      <c r="G86" t="s">
+        <v>178</v>
+      </c>
+      <c r="H86" t="s">
+        <v>179</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="1"/>
+        <v>"Mini PCs":"Computadoras",</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" t="s">
+        <v>178</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="C87" t="s">
+        <v>178</v>
+      </c>
+      <c r="D87" t="s">
+        <v>263</v>
+      </c>
+      <c r="E87" t="s">
+        <v>178</v>
+      </c>
+      <c r="F87" t="s">
+        <v>360</v>
+      </c>
+      <c r="G87" t="s">
+        <v>178</v>
+      </c>
+      <c r="H87" t="s">
+        <v>179</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="1"/>
+        <v>"Modem y ADSL":"Conectividad",</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" t="s">
+        <v>178</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C88" t="s">
+        <v>178</v>
+      </c>
+      <c r="D88" t="s">
+        <v>263</v>
+      </c>
+      <c r="E88" t="s">
+        <v>178</v>
+      </c>
+      <c r="F88" t="s">
+        <v>293</v>
+      </c>
+      <c r="G88" t="s">
+        <v>178</v>
+      </c>
+      <c r="H88" t="s">
+        <v>179</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="1"/>
+        <v>"Monitores":"Monitores",</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" t="s">
+        <v>178</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C89" t="s">
+        <v>178</v>
+      </c>
+      <c r="D89" t="s">
+        <v>263</v>
+      </c>
+      <c r="E89" t="s">
+        <v>178</v>
+      </c>
+      <c r="F89" t="s">
+        <v>295</v>
+      </c>
+      <c r="G89" t="s">
+        <v>178</v>
+      </c>
+      <c r="H89" t="s">
+        <v>179</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="1"/>
+        <v>"Mouses":"Mouses",</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" t="s">
+        <v>178</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="C90" t="s">
+        <v>178</v>
+      </c>
+      <c r="D90" t="s">
+        <v>263</v>
+      </c>
+      <c r="E90" t="s">
+        <v>178</v>
+      </c>
+      <c r="F90" t="s">
+        <v>362</v>
+      </c>
+      <c r="G90" t="s">
+        <v>178</v>
+      </c>
+      <c r="H90" t="s">
+        <v>179</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="1"/>
+        <v>"MP3":"Electro",</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" t="s">
+        <v>178</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="C91" t="s">
+        <v>178</v>
+      </c>
+      <c r="D91" t="s">
+        <v>263</v>
+      </c>
+      <c r="E91" t="s">
+        <v>178</v>
+      </c>
+      <c r="F91" t="s">
+        <v>362</v>
+      </c>
+      <c r="G91" t="s">
+        <v>178</v>
+      </c>
+      <c r="H91" t="s">
+        <v>179</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="1"/>
+        <v>"MP5":"Electro",</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" t="s">
+        <v>178</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C92" t="s">
+        <v>178</v>
+      </c>
+      <c r="D92" t="s">
+        <v>263</v>
+      </c>
+      <c r="E92" t="s">
+        <v>178</v>
+      </c>
+      <c r="F92" t="s">
+        <v>368</v>
+      </c>
+      <c r="G92" t="s">
+        <v>178</v>
+      </c>
+      <c r="H92" t="s">
+        <v>179</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="1"/>
+        <v>"Notebooks":"Notebooks",</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" t="s">
+        <v>178</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="C93" t="s">
+        <v>178</v>
+      </c>
+      <c r="D93" t="s">
+        <v>263</v>
+      </c>
+      <c r="E93" t="s">
+        <v>178</v>
+      </c>
+      <c r="F93" t="s">
+        <v>264</v>
+      </c>
+      <c r="G93" t="s">
+        <v>178</v>
+      </c>
+      <c r="H93" t="s">
+        <v>179</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="1"/>
+        <v>"Opticos":"Accesorios",</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" t="s">
+        <v>178</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="C94" t="s">
+        <v>178</v>
+      </c>
+      <c r="D94" t="s">
+        <v>263</v>
+      </c>
+      <c r="E94" t="s">
+        <v>178</v>
+      </c>
+      <c r="F94" t="s">
+        <v>264</v>
+      </c>
+      <c r="G94" t="s">
+        <v>178</v>
+      </c>
+      <c r="H94" t="s">
+        <v>179</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="1"/>
+        <v>"Opticos (CD-DVD-BD)":"Accesorios",</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" t="s">
+        <v>178</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="C95" t="s">
+        <v>178</v>
+      </c>
+      <c r="D95" t="s">
+        <v>263</v>
+      </c>
+      <c r="E95" t="s">
+        <v>178</v>
+      </c>
+      <c r="F95" t="s">
+        <v>365</v>
+      </c>
+      <c r="G95" t="s">
+        <v>178</v>
+      </c>
+      <c r="H95" t="s">
+        <v>179</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="1"/>
+        <v>"Papel":"Impresoras e Insumos",</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" t="s">
+        <v>178</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="C96" t="s">
+        <v>178</v>
+      </c>
+      <c r="D96" t="s">
+        <v>263</v>
+      </c>
+      <c r="E96" t="s">
+        <v>178</v>
+      </c>
+      <c r="F96" t="s">
+        <v>366</v>
+      </c>
+      <c r="G96" t="s">
+        <v>178</v>
+      </c>
+      <c r="H96" t="s">
+        <v>179</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="1"/>
+        <v>"Para Notebooks":"Memorias RAM",</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" t="s">
+        <v>178</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="C97" t="s">
+        <v>178</v>
+      </c>
+      <c r="D97" t="s">
+        <v>263</v>
+      </c>
+      <c r="E97" t="s">
+        <v>178</v>
+      </c>
+      <c r="F97" t="s">
+        <v>366</v>
+      </c>
+      <c r="G97" t="s">
+        <v>178</v>
+      </c>
+      <c r="H97" t="s">
+        <v>179</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="1"/>
+        <v>"Para PC":"Memorias RAM",</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" t="s">
+        <v>178</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="C98" t="s">
+        <v>178</v>
+      </c>
+      <c r="D98" t="s">
+        <v>263</v>
+      </c>
+      <c r="E98" t="s">
+        <v>178</v>
+      </c>
+      <c r="F98" t="s">
+        <v>358</v>
+      </c>
+      <c r="G98" t="s">
+        <v>178</v>
+      </c>
+      <c r="H98" t="s">
+        <v>179</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="1"/>
+        <v>"Paralelo":"Cables y Adaptadores",</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" t="s">
+        <v>178</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C99" t="s">
+        <v>178</v>
+      </c>
+      <c r="D99" t="s">
+        <v>263</v>
+      </c>
+      <c r="E99" t="s">
+        <v>178</v>
+      </c>
+      <c r="F99" t="s">
+        <v>298</v>
+      </c>
+      <c r="G99" t="s">
+        <v>178</v>
+      </c>
+      <c r="H99" t="s">
+        <v>179</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="1"/>
+        <v>"Parlantes":"Parlantes",</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" t="s">
+        <v>178</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="C100" t="s">
+        <v>178</v>
+      </c>
+      <c r="D100" t="s">
+        <v>263</v>
+      </c>
+      <c r="E100" t="s">
+        <v>178</v>
+      </c>
+      <c r="F100" t="s">
+        <v>298</v>
+      </c>
+      <c r="G100" t="s">
+        <v>178</v>
+      </c>
+      <c r="H100" t="s">
+        <v>179</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="1"/>
+        <v>"Parlantes Activos":"Parlantes",</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" t="s">
+        <v>178</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="C101" t="s">
+        <v>178</v>
+      </c>
+      <c r="D101" t="s">
+        <v>263</v>
+      </c>
+      <c r="E101" t="s">
+        <v>178</v>
+      </c>
+      <c r="F101" t="s">
+        <v>367</v>
+      </c>
+      <c r="G101" t="s">
+        <v>178</v>
+      </c>
+      <c r="H101" t="s">
+        <v>179</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="1"/>
+        <v>"Pen Drive USB":"Almacenamiento Portatil",</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" t="s">
+        <v>178</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="C102" t="s">
+        <v>178</v>
+      </c>
+      <c r="D102" t="s">
+        <v>263</v>
+      </c>
+      <c r="E102" t="s">
+        <v>178</v>
+      </c>
+      <c r="F102" t="s">
+        <v>264</v>
+      </c>
+      <c r="G102" t="s">
+        <v>178</v>
+      </c>
+      <c r="H102" t="s">
+        <v>179</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="1"/>
+        <v>"Pilas":"Accesorios",</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" t="s">
+        <v>178</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="C103" t="s">
+        <v>178</v>
+      </c>
+      <c r="D103" t="s">
+        <v>263</v>
+      </c>
+      <c r="E103" t="s">
+        <v>178</v>
+      </c>
+      <c r="F103" t="s">
+        <v>264</v>
+      </c>
+      <c r="G103" t="s">
+        <v>178</v>
+      </c>
+      <c r="H103" t="s">
+        <v>179</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="1"/>
+        <v>"Placas de Sonido":"Accesorios",</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" t="s">
+        <v>178</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="C104" t="s">
+        <v>178</v>
+      </c>
+      <c r="D104" t="s">
+        <v>263</v>
+      </c>
+      <c r="E104" t="s">
+        <v>178</v>
+      </c>
+      <c r="F104" t="s">
+        <v>369</v>
+      </c>
+      <c r="G104" t="s">
+        <v>178</v>
+      </c>
+      <c r="H104" t="s">
+        <v>179</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="1"/>
+        <v>"Placas de Video y TV":"Placas de video",</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" t="s">
+        <v>178</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="C105" t="s">
+        <v>178</v>
+      </c>
+      <c r="D105" t="s">
+        <v>263</v>
+      </c>
+      <c r="E105" t="s">
+        <v>178</v>
+      </c>
+      <c r="F105" t="s">
+        <v>294</v>
+      </c>
+      <c r="G105" t="s">
+        <v>178</v>
+      </c>
+      <c r="H105" t="s">
+        <v>179</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="1"/>
+        <v>"Placas Madre":"Motherboards",</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" t="s">
+        <v>178</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="C106" t="s">
+        <v>178</v>
+      </c>
+      <c r="D106" t="s">
+        <v>263</v>
+      </c>
+      <c r="E106" t="s">
+        <v>178</v>
+      </c>
+      <c r="F106" t="s">
+        <v>365</v>
+      </c>
+      <c r="G106" t="s">
+        <v>178</v>
+      </c>
+      <c r="H106" t="s">
+        <v>179</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="1"/>
+        <v>"Ploters de Dibujo":"Impresoras e Insumos",</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" t="s">
+        <v>178</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="C107" t="s">
+        <v>178</v>
+      </c>
+      <c r="D107" t="s">
+        <v>263</v>
+      </c>
+      <c r="E107" t="s">
+        <v>178</v>
+      </c>
+      <c r="F107" t="s">
+        <v>264</v>
+      </c>
+      <c r="G107" t="s">
+        <v>178</v>
+      </c>
+      <c r="H107" t="s">
+        <v>179</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="1"/>
+        <v>"Porta CD-DVD":"Accesorios",</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" t="s">
+        <v>178</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="C108" t="s">
+        <v>178</v>
+      </c>
+      <c r="D108" t="s">
+        <v>263</v>
+      </c>
+      <c r="E108" t="s">
+        <v>178</v>
+      </c>
+      <c r="F108" t="s">
+        <v>264</v>
+      </c>
+      <c r="G108" t="s">
+        <v>178</v>
+      </c>
+      <c r="H108" t="s">
+        <v>179</v>
+      </c>
+      <c r="I108" t="str">
+        <f t="shared" si="1"/>
+        <v>"Productos de Limpieza":"Accesorios",</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" t="s">
+        <v>178</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="C109" t="s">
+        <v>178</v>
+      </c>
+      <c r="D109" t="s">
+        <v>263</v>
+      </c>
+      <c r="E109" t="s">
+        <v>178</v>
+      </c>
+      <c r="F109" t="s">
+        <v>370</v>
+      </c>
+      <c r="G109" t="s">
+        <v>178</v>
+      </c>
+      <c r="H109" t="s">
+        <v>179</v>
+      </c>
+      <c r="I109" t="str">
+        <f t="shared" si="1"/>
+        <v>"Proyectores":"Proyectores",</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" t="s">
+        <v>178</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="C110" t="s">
+        <v>178</v>
+      </c>
+      <c r="D110" t="s">
+        <v>263</v>
+      </c>
+      <c r="E110" t="s">
+        <v>178</v>
+      </c>
+      <c r="F110" t="s">
+        <v>362</v>
+      </c>
+      <c r="G110" t="s">
+        <v>178</v>
+      </c>
+      <c r="H110" t="s">
+        <v>179</v>
+      </c>
+      <c r="I110" t="str">
+        <f t="shared" si="1"/>
+        <v>"Radios":"Electro",</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" t="s">
+        <v>178</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="C111" t="s">
+        <v>178</v>
+      </c>
+      <c r="D111" t="s">
+        <v>263</v>
+      </c>
+      <c r="E111" t="s">
+        <v>178</v>
+      </c>
+      <c r="F111" t="s">
+        <v>372</v>
+      </c>
+      <c r="G111" t="s">
+        <v>178</v>
+      </c>
+      <c r="H111" t="s">
+        <v>179</v>
+      </c>
+      <c r="I111" t="str">
+        <f t="shared" si="1"/>
+        <v>"Relojes Digitales - Fitness":"Smartwatch",</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" t="s">
+        <v>178</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="C112" t="s">
+        <v>178</v>
+      </c>
+      <c r="D112" t="s">
+        <v>263</v>
+      </c>
+      <c r="E112" t="s">
+        <v>178</v>
+      </c>
+      <c r="F112" t="s">
+        <v>264</v>
+      </c>
+      <c r="G112" t="s">
+        <v>178</v>
+      </c>
+      <c r="H112" t="s">
+        <v>179</v>
+      </c>
+      <c r="I112" t="str">
+        <f t="shared" si="1"/>
+        <v>"Repuestos":"Accesorios",</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" t="s">
+        <v>178</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="C113" t="s">
+        <v>178</v>
+      </c>
+      <c r="D113" t="s">
+        <v>263</v>
+      </c>
+      <c r="E113" t="s">
+        <v>178</v>
+      </c>
+      <c r="F113" t="s">
+        <v>365</v>
+      </c>
+      <c r="G113" t="s">
+        <v>178</v>
+      </c>
+      <c r="H113" t="s">
+        <v>179</v>
+      </c>
+      <c r="I113" t="str">
+        <f t="shared" si="1"/>
+        <v>"Rotuladoras - Termicas":"Impresoras e Insumos",</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" t="s">
+        <v>178</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="C114" t="s">
+        <v>178</v>
+      </c>
+      <c r="D114" t="s">
+        <v>263</v>
+      </c>
+      <c r="E114" t="s">
+        <v>178</v>
+      </c>
+      <c r="F114" t="s">
+        <v>360</v>
+      </c>
+      <c r="G114" t="s">
+        <v>178</v>
+      </c>
+      <c r="H114" t="s">
+        <v>179</v>
+      </c>
+      <c r="I114" t="str">
+        <f t="shared" si="1"/>
+        <v>"Routers de Cable":"Conectividad",</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" t="s">
+        <v>178</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="C115" t="s">
+        <v>178</v>
+      </c>
+      <c r="D115" t="s">
+        <v>263</v>
+      </c>
+      <c r="E115" t="s">
+        <v>178</v>
+      </c>
+      <c r="F115" t="s">
+        <v>360</v>
+      </c>
+      <c r="G115" t="s">
+        <v>178</v>
+      </c>
+      <c r="H115" t="s">
+        <v>179</v>
+      </c>
+      <c r="I115" t="str">
+        <f t="shared" si="1"/>
+        <v>"Routers Inalambricos":"Conectividad",</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" t="s">
+        <v>178</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="C116" t="s">
+        <v>178</v>
+      </c>
+      <c r="D116" t="s">
+        <v>263</v>
+      </c>
+      <c r="E116" t="s">
+        <v>178</v>
+      </c>
+      <c r="F116" t="s">
+        <v>365</v>
+      </c>
+      <c r="G116" t="s">
+        <v>178</v>
+      </c>
+      <c r="H116" t="s">
+        <v>179</v>
+      </c>
+      <c r="I116" t="str">
+        <f t="shared" si="1"/>
+        <v>"Scanners":"Impresoras e Insumos",</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" t="s">
+        <v>178</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="C117" t="s">
+        <v>178</v>
+      </c>
+      <c r="D117" t="s">
+        <v>263</v>
+      </c>
+      <c r="E117" t="s">
+        <v>178</v>
+      </c>
+      <c r="F117" t="s">
+        <v>367</v>
+      </c>
+      <c r="G117" t="s">
+        <v>178</v>
+      </c>
+      <c r="H117" t="s">
+        <v>179</v>
+      </c>
+      <c r="I117" t="str">
+        <f t="shared" si="1"/>
+        <v>"SD - MicroSD - CF - MS":"Almacenamiento Portatil",</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" t="s">
+        <v>178</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="C118" t="s">
+        <v>178</v>
+      </c>
+      <c r="D118" t="s">
+        <v>263</v>
+      </c>
+      <c r="E118" t="s">
+        <v>178</v>
+      </c>
+      <c r="F118" t="s">
+        <v>359</v>
+      </c>
+      <c r="G118" t="s">
+        <v>178</v>
+      </c>
+      <c r="H118" t="s">
+        <v>179</v>
+      </c>
+      <c r="I118" t="str">
+        <f t="shared" si="1"/>
+        <v>"Servidores":"Computadoras",</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" t="s">
+        <v>178</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="C119" t="s">
+        <v>178</v>
+      </c>
+      <c r="D119" t="s">
+        <v>263</v>
+      </c>
+      <c r="E119" t="s">
+        <v>178</v>
+      </c>
+      <c r="F119" t="s">
+        <v>365</v>
+      </c>
+      <c r="G119" t="s">
+        <v>178</v>
+      </c>
+      <c r="H119" t="s">
+        <v>179</v>
+      </c>
+      <c r="I119" t="str">
+        <f t="shared" si="1"/>
+        <v>"Servidores de Impresion":"Impresoras e Insumos",</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" t="s">
+        <v>178</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C120" t="s">
+        <v>178</v>
+      </c>
+      <c r="D120" t="s">
+        <v>263</v>
+      </c>
+      <c r="E120" t="s">
+        <v>178</v>
+      </c>
+      <c r="F120" t="s">
+        <v>306</v>
+      </c>
+      <c r="G120" t="s">
+        <v>178</v>
+      </c>
+      <c r="H120" t="s">
+        <v>179</v>
+      </c>
+      <c r="I120" t="str">
+        <f t="shared" si="1"/>
+        <v>"Sillas":"Sillas",</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" t="s">
+        <v>178</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="C121" t="s">
+        <v>178</v>
+      </c>
+      <c r="D121" t="s">
+        <v>263</v>
+      </c>
+      <c r="E121" t="s">
+        <v>178</v>
+      </c>
+      <c r="F121" t="s">
+        <v>306</v>
+      </c>
+      <c r="G121" t="s">
+        <v>178</v>
+      </c>
+      <c r="H121" t="s">
+        <v>179</v>
+      </c>
+      <c r="I121" t="str">
+        <f t="shared" si="1"/>
+        <v>"Sillones y Sillas Gamer":"Sillas",</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" t="s">
+        <v>178</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="C122" t="s">
+        <v>178</v>
+      </c>
+      <c r="D122" t="s">
+        <v>263</v>
+      </c>
+      <c r="E122" t="s">
+        <v>178</v>
+      </c>
+      <c r="F122" t="s">
+        <v>298</v>
+      </c>
+      <c r="G122" t="s">
+        <v>178</v>
+      </c>
+      <c r="H122" t="s">
+        <v>179</v>
+      </c>
+      <c r="I122" t="str">
+        <f t="shared" si="1"/>
+        <v>"Sistemas de Audio y Video":"Parlantes",</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" t="s">
+        <v>178</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="C123" t="s">
+        <v>178</v>
+      </c>
+      <c r="D123" t="s">
+        <v>263</v>
+      </c>
+      <c r="E123" t="s">
+        <v>178</v>
+      </c>
+      <c r="F123" t="s">
+        <v>373</v>
+      </c>
+      <c r="G123" t="s">
+        <v>178</v>
+      </c>
+      <c r="H123" t="s">
+        <v>179</v>
+      </c>
+      <c r="I123" t="str">
+        <f t="shared" si="1"/>
+        <v>"Software":"Software",</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" t="s">
+        <v>178</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="C124" t="s">
+        <v>178</v>
+      </c>
+      <c r="D124" t="s">
+        <v>263</v>
+      </c>
+      <c r="E124" t="s">
+        <v>178</v>
+      </c>
+      <c r="F124" t="s">
+        <v>362</v>
+      </c>
+      <c r="G124" t="s">
+        <v>178</v>
+      </c>
+      <c r="H124" t="s">
+        <v>179</v>
+      </c>
+      <c r="I124" t="str">
+        <f t="shared" si="1"/>
+        <v>"Stereos":"Electro",</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" t="s">
+        <v>178</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="C125" t="s">
+        <v>178</v>
+      </c>
+      <c r="D125" t="s">
+        <v>263</v>
+      </c>
+      <c r="E125" t="s">
+        <v>178</v>
+      </c>
+      <c r="F125" t="s">
+        <v>360</v>
+      </c>
+      <c r="G125" t="s">
+        <v>178</v>
+      </c>
+      <c r="H125" t="s">
+        <v>179</v>
+      </c>
+      <c r="I125" t="str">
+        <f t="shared" si="1"/>
+        <v>"Switchs":"Conectividad",</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" t="s">
+        <v>178</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="C126" t="s">
+        <v>178</v>
+      </c>
+      <c r="D126" t="s">
+        <v>263</v>
+      </c>
+      <c r="E126" t="s">
+        <v>178</v>
+      </c>
+      <c r="F126" t="s">
+        <v>374</v>
+      </c>
+      <c r="G126" t="s">
+        <v>178</v>
+      </c>
+      <c r="H126" t="s">
+        <v>179</v>
+      </c>
+      <c r="I126" t="str">
+        <f t="shared" si="1"/>
+        <v>"TABLETS":"Tablets",</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" t="s">
+        <v>178</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C127" t="s">
+        <v>178</v>
+      </c>
+      <c r="D127" t="s">
+        <v>263</v>
+      </c>
+      <c r="E127" t="s">
+        <v>178</v>
+      </c>
+      <c r="F127" t="s">
+        <v>311</v>
+      </c>
+      <c r="G127" t="s">
+        <v>178</v>
+      </c>
+      <c r="H127" t="s">
+        <v>179</v>
+      </c>
+      <c r="I127" t="str">
+        <f t="shared" si="1"/>
+        <v>"Teclados":"Teclados",</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" t="s">
+        <v>178</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="C128" t="s">
+        <v>178</v>
+      </c>
+      <c r="D128" t="s">
+        <v>263</v>
+      </c>
+      <c r="E128" t="s">
+        <v>178</v>
+      </c>
+      <c r="F128" t="s">
+        <v>362</v>
+      </c>
+      <c r="G128" t="s">
+        <v>178</v>
+      </c>
+      <c r="H128" t="s">
+        <v>179</v>
+      </c>
+      <c r="I128" t="str">
+        <f t="shared" si="1"/>
+        <v>"Termotanques":"Electro",</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" t="s">
+        <v>178</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="C129" t="s">
+        <v>178</v>
+      </c>
+      <c r="D129" t="s">
+        <v>263</v>
+      </c>
+      <c r="E129" t="s">
+        <v>178</v>
+      </c>
+      <c r="F129" t="s">
+        <v>365</v>
+      </c>
+      <c r="G129" t="s">
+        <v>178</v>
+      </c>
+      <c r="H129" t="s">
+        <v>179</v>
+      </c>
+      <c r="I129" t="str">
+        <f t="shared" si="1"/>
+        <v>"Tinta Alternativa Continuos":"Impresoras e Insumos",</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" t="s">
+        <v>178</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="C130" t="s">
+        <v>178</v>
+      </c>
+      <c r="D130" t="s">
+        <v>263</v>
+      </c>
+      <c r="E130" t="s">
+        <v>178</v>
+      </c>
+      <c r="F130" t="s">
+        <v>359</v>
+      </c>
+      <c r="G130" t="s">
+        <v>178</v>
+      </c>
+      <c r="H130" t="s">
+        <v>179</v>
+      </c>
+      <c r="I130" t="str">
+        <f t="shared" ref="I130:I141" si="2">_xlfn.CONCAT(A130:H130)</f>
+        <v>"Todo en Uno (AIO)":"Computadoras",</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" t="s">
+        <v>178</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="C131" t="s">
+        <v>178</v>
+      </c>
+      <c r="D131" t="s">
+        <v>263</v>
+      </c>
+      <c r="E131" t="s">
+        <v>178</v>
+      </c>
+      <c r="F131" t="s">
+        <v>365</v>
+      </c>
+      <c r="G131" t="s">
+        <v>178</v>
+      </c>
+      <c r="H131" t="s">
+        <v>179</v>
+      </c>
+      <c r="I131" t="str">
+        <f t="shared" si="2"/>
+        <v>"Toner y Drum Alternativos":"Impresoras e Insumos",</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" t="s">
+        <v>178</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="C132" t="s">
+        <v>178</v>
+      </c>
+      <c r="D132" t="s">
+        <v>263</v>
+      </c>
+      <c r="E132" t="s">
+        <v>178</v>
+      </c>
+      <c r="F132" t="s">
+        <v>365</v>
+      </c>
+      <c r="G132" t="s">
+        <v>178</v>
+      </c>
+      <c r="H132" t="s">
+        <v>179</v>
+      </c>
+      <c r="I132" t="str">
+        <f t="shared" si="2"/>
+        <v>"Toner y Drum Originales":"Impresoras e Insumos",</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" t="s">
+        <v>178</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="C133" t="s">
+        <v>178</v>
+      </c>
+      <c r="D133" t="s">
+        <v>263</v>
+      </c>
+      <c r="E133" t="s">
+        <v>178</v>
+      </c>
+      <c r="F133" t="s">
+        <v>362</v>
+      </c>
+      <c r="G133" t="s">
+        <v>178</v>
+      </c>
+      <c r="H133" t="s">
+        <v>179</v>
+      </c>
+      <c r="I133" t="str">
+        <f t="shared" si="2"/>
+        <v>"TV - Smart TV":"Electro",</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" t="s">
+        <v>178</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="C134" t="s">
+        <v>178</v>
+      </c>
+      <c r="D134" t="s">
+        <v>263</v>
+      </c>
+      <c r="E134" t="s">
+        <v>178</v>
+      </c>
+      <c r="F134" t="s">
+        <v>363</v>
+      </c>
+      <c r="G134" t="s">
+        <v>178</v>
+      </c>
+      <c r="H134" t="s">
+        <v>179</v>
+      </c>
+      <c r="I134" t="str">
+        <f t="shared" si="2"/>
+        <v>"U.P.S.":"Estabilizadores y UPS",</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" t="s">
+        <v>178</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="C135" t="s">
+        <v>178</v>
+      </c>
+      <c r="D135" t="s">
+        <v>263</v>
+      </c>
+      <c r="E135" t="s">
+        <v>178</v>
+      </c>
+      <c r="F135" t="s">
+        <v>368</v>
+      </c>
+      <c r="G135" t="s">
+        <v>178</v>
+      </c>
+      <c r="H135" t="s">
+        <v>179</v>
+      </c>
+      <c r="I135" t="str">
+        <f t="shared" si="2"/>
+        <v>"ULTRABOOKS":"Notebooks",</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" t="s">
+        <v>178</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="C136" t="s">
+        <v>178</v>
+      </c>
+      <c r="D136" t="s">
+        <v>263</v>
+      </c>
+      <c r="E136" t="s">
+        <v>178</v>
+      </c>
+      <c r="F136" t="s">
+        <v>358</v>
+      </c>
+      <c r="G136" t="s">
+        <v>178</v>
+      </c>
+      <c r="H136" t="s">
+        <v>179</v>
+      </c>
+      <c r="I136" t="str">
+        <f t="shared" si="2"/>
+        <v>"USB y Celulares":"Cables y Adaptadores",</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" t="s">
+        <v>178</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="C137" t="s">
+        <v>178</v>
+      </c>
+      <c r="D137" t="s">
+        <v>263</v>
+      </c>
+      <c r="E137" t="s">
+        <v>178</v>
+      </c>
+      <c r="F137" t="s">
+        <v>358</v>
+      </c>
+      <c r="G137" t="s">
+        <v>178</v>
+      </c>
+      <c r="H137" t="s">
+        <v>179</v>
+      </c>
+      <c r="I137" t="str">
+        <f t="shared" si="2"/>
+        <v>"Video":"Cables y Adaptadores",</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" t="s">
+        <v>178</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="C138" t="s">
+        <v>178</v>
+      </c>
+      <c r="D138" t="s">
+        <v>263</v>
+      </c>
+      <c r="E138" t="s">
+        <v>178</v>
+      </c>
+      <c r="F138" t="s">
+        <v>362</v>
+      </c>
+      <c r="G138" t="s">
+        <v>178</v>
+      </c>
+      <c r="H138" t="s">
+        <v>179</v>
+      </c>
+      <c r="I138" t="str">
+        <f t="shared" si="2"/>
+        <v>"Video Camaras Digitales":"Electro",</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" t="s">
+        <v>178</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="C139" t="s">
+        <v>178</v>
+      </c>
+      <c r="D139" t="s">
+        <v>263</v>
+      </c>
+      <c r="E139" t="s">
+        <v>178</v>
+      </c>
+      <c r="F139" t="s">
+        <v>360</v>
+      </c>
+      <c r="G139" t="s">
+        <v>178</v>
+      </c>
+      <c r="H139" t="s">
+        <v>179</v>
+      </c>
+      <c r="I139" t="str">
+        <f t="shared" si="2"/>
+        <v>"VOIP SKYPE":"Conectividad",</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" t="s">
+        <v>178</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C140" t="s">
+        <v>178</v>
+      </c>
+      <c r="D140" t="s">
+        <v>263</v>
+      </c>
+      <c r="E140" t="s">
+        <v>178</v>
+      </c>
+      <c r="F140" t="s">
+        <v>364</v>
+      </c>
+      <c r="G140" t="s">
+        <v>178</v>
+      </c>
+      <c r="H140" t="s">
+        <v>179</v>
+      </c>
+      <c r="I140" t="str">
+        <f t="shared" si="2"/>
+        <v>"Volantes":"Gamer",</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" t="s">
+        <v>178</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="C141" t="s">
+        <v>178</v>
+      </c>
+      <c r="D141" t="s">
+        <v>263</v>
+      </c>
+      <c r="E141" t="s">
+        <v>178</v>
+      </c>
+      <c r="F141" t="s">
+        <v>363</v>
+      </c>
+      <c r="G141" t="s">
+        <v>178</v>
+      </c>
+      <c r="H141" t="s">
+        <v>179</v>
+      </c>
+      <c r="I141" t="str">
+        <f t="shared" si="2"/>
+        <v>"Zapatillas Eléctricas":"Estabilizadores y UPS",</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C9A83B5-C2A8-42F3-A50B-B65DA1F9C1BC}">
   <dimension ref="A1:I45"/>
   <sheetViews>
@@ -11846,11 +19082,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A23AC8-0680-4338-8F9B-085C30FD02CA}">
   <dimension ref="A1:A33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A33"/>
     </sheetView>
   </sheetViews>

--- a/nuevosScripts/diccionarios/diccionarios.xlsx
+++ b/nuevosScripts/diccionarios/diccionarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mis proyectos\Test\Repo-Python-DB-DottAPI\nuevosScripts\diccionarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BAD95A8-CEDB-4E01-9EF8-B661CD780DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB16F52B-46BD-4D73-9661-18E3349F910E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{907ADB49-8BB7-4046-9511-7212E4DA76A7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17205" windowHeight="15600" activeTab="5" xr2:uid="{907ADB49-8BB7-4046-9511-7212E4DA76A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Air" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="Elit" sheetId="3" r:id="rId3"/>
     <sheet name="Invid" sheetId="6" r:id="rId4"/>
     <sheet name="Megacom" sheetId="7" r:id="rId5"/>
-    <sheet name="NB" sheetId="4" r:id="rId6"/>
-    <sheet name="Categorias" sheetId="5" r:id="rId7"/>
+    <sheet name="Hdc" sheetId="8" r:id="rId6"/>
+    <sheet name="NB" sheetId="4" r:id="rId7"/>
+    <sheet name="Categorias" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4465" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4977" uniqueCount="630">
   <si>
     <t>electro</t>
   </si>
@@ -1762,6 +1763,165 @@
   </si>
   <si>
     <t>Discos Rígidos / SSD / Disco Rígido Notebook</t>
+  </si>
+  <si>
+    <t>10"</t>
+  </si>
+  <si>
+    <t>12"</t>
+  </si>
+  <si>
+    <t>2 Canales</t>
+  </si>
+  <si>
+    <t>4"</t>
+  </si>
+  <si>
+    <t>6.5"</t>
+  </si>
+  <si>
+    <t>6x9"</t>
+  </si>
+  <si>
+    <t>8"</t>
+  </si>
+  <si>
+    <t>Accesorios Gaming</t>
+  </si>
+  <si>
+    <t>Amplificador</t>
+  </si>
+  <si>
+    <t>Audio Home</t>
+  </si>
+  <si>
+    <t>Barbijos</t>
+  </si>
+  <si>
+    <t>Barras de Sonido</t>
+  </si>
+  <si>
+    <t>Baterías</t>
+  </si>
+  <si>
+    <t>Camaras de Seguridad</t>
+  </si>
+  <si>
+    <t>Cascos</t>
+  </si>
+  <si>
+    <t>Combo</t>
+  </si>
+  <si>
+    <t>Cooler</t>
+  </si>
+  <si>
+    <t>Din</t>
+  </si>
+  <si>
+    <t>Din-Doble</t>
+  </si>
+  <si>
+    <t>Disco Rigido Interno</t>
+  </si>
+  <si>
+    <t>DVR</t>
+  </si>
+  <si>
+    <t>Earbud</t>
+  </si>
+  <si>
+    <t>Ebook</t>
+  </si>
+  <si>
+    <t>Fuente de Poder</t>
+  </si>
+  <si>
+    <t>Gabinete Sin Fuente</t>
+  </si>
+  <si>
+    <t>Gabinetes KIT</t>
+  </si>
+  <si>
+    <t>Hogar</t>
+  </si>
+  <si>
+    <t>In Ear</t>
+  </si>
+  <si>
+    <t>Kit Teclado Y Mouse</t>
+  </si>
+  <si>
+    <t>Memoria Notebooks</t>
+  </si>
+  <si>
+    <t>Microfono</t>
+  </si>
+  <si>
+    <t>Microprocesador Intel</t>
+  </si>
+  <si>
+    <t>Monoblock</t>
+  </si>
+  <si>
+    <t>Notebook</t>
+  </si>
+  <si>
+    <t>On Ear</t>
+  </si>
+  <si>
+    <t>Pad Mouse</t>
+  </si>
+  <si>
+    <t>Parlante Bluetooth</t>
+  </si>
+  <si>
+    <t>Parlante Portátil</t>
+  </si>
+  <si>
+    <t>Parlantes Pc</t>
+  </si>
+  <si>
+    <t>Party Speaker</t>
+  </si>
+  <si>
+    <t>Pc De Escritorio</t>
+  </si>
+  <si>
+    <t>Productos</t>
+  </si>
+  <si>
+    <t>Salud</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>SSD Externo</t>
+  </si>
+  <si>
+    <t>Stereo</t>
+  </si>
+  <si>
+    <t>Subwoofer</t>
+  </si>
+  <si>
+    <t>Tablet</t>
+  </si>
+  <si>
+    <t>Torre de Sonido</t>
+  </si>
+  <si>
+    <t>TV</t>
+  </si>
+  <si>
+    <t>Varios</t>
+  </si>
+  <si>
+    <t>WEBCAM</t>
+  </si>
+  <si>
+    <t>Monitoress</t>
   </si>
 </sst>
 </file>
@@ -13465,7 +13625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC37D85-05AB-4705-A6FD-F8425FE0B657}">
   <dimension ref="A1:I141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -17713,6 +17873,1947 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2BA0658-C126-4173-B7A6-ED504D386D93}">
+  <dimension ref="A1:I64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I1" t="str">
+        <f>_xlfn.CONCAT(A1:H1)</f>
+        <v>"10"":"Parlantes",</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H2" t="s">
+        <v>179</v>
+      </c>
+      <c r="I2" t="str">
+        <f t="shared" ref="I2:I64" si="0">_xlfn.CONCAT(A2:H2)</f>
+        <v>"12"":"Parlantes",</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" t="s">
+        <v>579</v>
+      </c>
+      <c r="C3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F3" t="s">
+        <v>298</v>
+      </c>
+      <c r="G3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" si="0"/>
+        <v>"2 Canales":"Parlantes",</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F4" t="s">
+        <v>298</v>
+      </c>
+      <c r="G4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="0"/>
+        <v>"4"":"Parlantes",</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" t="s">
+        <v>581</v>
+      </c>
+      <c r="C5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F5" t="s">
+        <v>298</v>
+      </c>
+      <c r="G5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H5" t="s">
+        <v>179</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>"6.5"":"Parlantes",</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" t="s">
+        <v>582</v>
+      </c>
+      <c r="C6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" t="s">
+        <v>263</v>
+      </c>
+      <c r="E6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G6" t="s">
+        <v>178</v>
+      </c>
+      <c r="H6" t="s">
+        <v>179</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>"6x9"":"Parlantes",</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" t="s">
+        <v>583</v>
+      </c>
+      <c r="C7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" t="s">
+        <v>263</v>
+      </c>
+      <c r="E7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H7" t="s">
+        <v>179</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>"8"":"Parlantes",</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" t="s">
+        <v>263</v>
+      </c>
+      <c r="E8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F8" t="s">
+        <v>264</v>
+      </c>
+      <c r="G8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H8" t="s">
+        <v>179</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>"Accesorios":"Accesorios",</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" t="s">
+        <v>584</v>
+      </c>
+      <c r="C9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E9" t="s">
+        <v>178</v>
+      </c>
+      <c r="F9" t="s">
+        <v>264</v>
+      </c>
+      <c r="G9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H9" t="s">
+        <v>179</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>"Accesorios Gaming":"Accesorios",</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" t="s">
+        <v>585</v>
+      </c>
+      <c r="C10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" t="s">
+        <v>263</v>
+      </c>
+      <c r="E10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F10" t="s">
+        <v>298</v>
+      </c>
+      <c r="G10" t="s">
+        <v>178</v>
+      </c>
+      <c r="H10" t="s">
+        <v>179</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>"Amplificador":"Parlantes",</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B11" t="s">
+        <v>586</v>
+      </c>
+      <c r="C11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D11" t="s">
+        <v>263</v>
+      </c>
+      <c r="E11" t="s">
+        <v>178</v>
+      </c>
+      <c r="F11" t="s">
+        <v>362</v>
+      </c>
+      <c r="G11" t="s">
+        <v>178</v>
+      </c>
+      <c r="H11" t="s">
+        <v>179</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>"Audio Home":"Electro",</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C12" t="s">
+        <v>178</v>
+      </c>
+      <c r="D12" t="s">
+        <v>263</v>
+      </c>
+      <c r="E12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F12" t="s">
+        <v>267</v>
+      </c>
+      <c r="G12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H12" t="s">
+        <v>179</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v>"Auriculares":"Auriculares",</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13" t="s">
+        <v>587</v>
+      </c>
+      <c r="C13" t="s">
+        <v>178</v>
+      </c>
+      <c r="D13" t="s">
+        <v>263</v>
+      </c>
+      <c r="E13" t="s">
+        <v>178</v>
+      </c>
+      <c r="F13" t="s">
+        <v>264</v>
+      </c>
+      <c r="G13" t="s">
+        <v>178</v>
+      </c>
+      <c r="H13" t="s">
+        <v>179</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v>"Barbijos":"Accesorios",</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B14" t="s">
+        <v>588</v>
+      </c>
+      <c r="C14" t="s">
+        <v>178</v>
+      </c>
+      <c r="D14" t="s">
+        <v>263</v>
+      </c>
+      <c r="E14" t="s">
+        <v>178</v>
+      </c>
+      <c r="F14" t="s">
+        <v>298</v>
+      </c>
+      <c r="G14" t="s">
+        <v>178</v>
+      </c>
+      <c r="H14" t="s">
+        <v>179</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
+        <v>"Barras de Sonido":"Parlantes",</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B15" t="s">
+        <v>589</v>
+      </c>
+      <c r="C15" t="s">
+        <v>178</v>
+      </c>
+      <c r="D15" t="s">
+        <v>263</v>
+      </c>
+      <c r="E15" t="s">
+        <v>178</v>
+      </c>
+      <c r="F15" t="s">
+        <v>264</v>
+      </c>
+      <c r="G15" t="s">
+        <v>178</v>
+      </c>
+      <c r="H15" t="s">
+        <v>179</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Baterías":"Accesorios",</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" t="s">
+        <v>590</v>
+      </c>
+      <c r="C16" t="s">
+        <v>178</v>
+      </c>
+      <c r="D16" t="s">
+        <v>263</v>
+      </c>
+      <c r="E16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" t="s">
+        <v>360</v>
+      </c>
+      <c r="G16" t="s">
+        <v>178</v>
+      </c>
+      <c r="H16" t="s">
+        <v>179</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="0"/>
+        <v>"Camaras de Seguridad":"Conectividad",</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>178</v>
+      </c>
+      <c r="B17" t="s">
+        <v>591</v>
+      </c>
+      <c r="C17" t="s">
+        <v>178</v>
+      </c>
+      <c r="D17" t="s">
+        <v>263</v>
+      </c>
+      <c r="E17" t="s">
+        <v>178</v>
+      </c>
+      <c r="F17" t="s">
+        <v>362</v>
+      </c>
+      <c r="G17" t="s">
+        <v>178</v>
+      </c>
+      <c r="H17" t="s">
+        <v>179</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="0"/>
+        <v>"Cascos":"Electro",</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>178</v>
+      </c>
+      <c r="B18" t="s">
+        <v>478</v>
+      </c>
+      <c r="C18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D18" t="s">
+        <v>263</v>
+      </c>
+      <c r="E18" t="s">
+        <v>178</v>
+      </c>
+      <c r="F18" t="s">
+        <v>375</v>
+      </c>
+      <c r="G18" t="s">
+        <v>178</v>
+      </c>
+      <c r="H18" t="s">
+        <v>179</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="0"/>
+        <v>"Celulares":"Telefonia",</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>178</v>
+      </c>
+      <c r="B19" t="s">
+        <v>592</v>
+      </c>
+      <c r="C19" t="s">
+        <v>178</v>
+      </c>
+      <c r="D19" t="s">
+        <v>263</v>
+      </c>
+      <c r="E19" t="s">
+        <v>178</v>
+      </c>
+      <c r="F19" t="s">
+        <v>364</v>
+      </c>
+      <c r="G19" t="s">
+        <v>178</v>
+      </c>
+      <c r="H19" t="s">
+        <v>179</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="0"/>
+        <v>"Combo":"Gamer",</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>178</v>
+      </c>
+      <c r="B20" t="s">
+        <v>593</v>
+      </c>
+      <c r="C20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D20" t="s">
+        <v>263</v>
+      </c>
+      <c r="E20" t="s">
+        <v>178</v>
+      </c>
+      <c r="F20" t="s">
+        <v>371</v>
+      </c>
+      <c r="G20" t="s">
+        <v>178</v>
+      </c>
+      <c r="H20" t="s">
+        <v>179</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="0"/>
+        <v>"Cooler":"Refrigeracion",</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>178</v>
+      </c>
+      <c r="B21" t="s">
+        <v>594</v>
+      </c>
+      <c r="C21" t="s">
+        <v>178</v>
+      </c>
+      <c r="D21" t="s">
+        <v>263</v>
+      </c>
+      <c r="E21" t="s">
+        <v>178</v>
+      </c>
+      <c r="F21" t="s">
+        <v>362</v>
+      </c>
+      <c r="G21" t="s">
+        <v>178</v>
+      </c>
+      <c r="H21" t="s">
+        <v>179</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="0"/>
+        <v>"Din":"Electro",</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>178</v>
+      </c>
+      <c r="B22" t="s">
+        <v>595</v>
+      </c>
+      <c r="C22" t="s">
+        <v>178</v>
+      </c>
+      <c r="D22" t="s">
+        <v>263</v>
+      </c>
+      <c r="E22" t="s">
+        <v>178</v>
+      </c>
+      <c r="F22" t="s">
+        <v>362</v>
+      </c>
+      <c r="G22" t="s">
+        <v>178</v>
+      </c>
+      <c r="H22" t="s">
+        <v>179</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="0"/>
+        <v>"Din-Doble":"Electro",</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>178</v>
+      </c>
+      <c r="B23" t="s">
+        <v>596</v>
+      </c>
+      <c r="C23" t="s">
+        <v>178</v>
+      </c>
+      <c r="D23" t="s">
+        <v>263</v>
+      </c>
+      <c r="E23" t="s">
+        <v>178</v>
+      </c>
+      <c r="F23" t="s">
+        <v>361</v>
+      </c>
+      <c r="G23" t="s">
+        <v>178</v>
+      </c>
+      <c r="H23" t="s">
+        <v>179</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="0"/>
+        <v>"Disco Rigido Interno":"Discos",</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>178</v>
+      </c>
+      <c r="B24" t="s">
+        <v>597</v>
+      </c>
+      <c r="C24" t="s">
+        <v>178</v>
+      </c>
+      <c r="D24" t="s">
+        <v>263</v>
+      </c>
+      <c r="E24" t="s">
+        <v>178</v>
+      </c>
+      <c r="F24" t="s">
+        <v>360</v>
+      </c>
+      <c r="G24" t="s">
+        <v>178</v>
+      </c>
+      <c r="H24" t="s">
+        <v>179</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="0"/>
+        <v>"DVR":"Conectividad",</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>178</v>
+      </c>
+      <c r="B25" t="s">
+        <v>598</v>
+      </c>
+      <c r="C25" t="s">
+        <v>178</v>
+      </c>
+      <c r="D25" t="s">
+        <v>263</v>
+      </c>
+      <c r="E25" t="s">
+        <v>178</v>
+      </c>
+      <c r="F25" t="s">
+        <v>267</v>
+      </c>
+      <c r="G25" t="s">
+        <v>178</v>
+      </c>
+      <c r="H25" t="s">
+        <v>179</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="0"/>
+        <v>"Earbud":"Auriculares",</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>178</v>
+      </c>
+      <c r="B26" t="s">
+        <v>599</v>
+      </c>
+      <c r="C26" t="s">
+        <v>178</v>
+      </c>
+      <c r="D26" t="s">
+        <v>263</v>
+      </c>
+      <c r="E26" t="s">
+        <v>178</v>
+      </c>
+      <c r="F26" t="s">
+        <v>362</v>
+      </c>
+      <c r="G26" t="s">
+        <v>178</v>
+      </c>
+      <c r="H26" t="s">
+        <v>179</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="0"/>
+        <v>"Ebook":"Electro",</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>178</v>
+      </c>
+      <c r="B27" t="s">
+        <v>600</v>
+      </c>
+      <c r="C27" t="s">
+        <v>178</v>
+      </c>
+      <c r="D27" t="s">
+        <v>263</v>
+      </c>
+      <c r="E27" t="s">
+        <v>178</v>
+      </c>
+      <c r="F27" t="s">
+        <v>283</v>
+      </c>
+      <c r="G27" t="s">
+        <v>178</v>
+      </c>
+      <c r="H27" t="s">
+        <v>179</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="0"/>
+        <v>"Fuente de Poder":"Fuentes",</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B28" t="s">
+        <v>601</v>
+      </c>
+      <c r="C28" t="s">
+        <v>178</v>
+      </c>
+      <c r="D28" t="s">
+        <v>263</v>
+      </c>
+      <c r="E28" t="s">
+        <v>178</v>
+      </c>
+      <c r="F28" t="s">
+        <v>285</v>
+      </c>
+      <c r="G28" t="s">
+        <v>178</v>
+      </c>
+      <c r="H28" t="s">
+        <v>179</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="0"/>
+        <v>"Gabinete Sin Fuente":"Gabinetes",</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>178</v>
+      </c>
+      <c r="B29" t="s">
+        <v>602</v>
+      </c>
+      <c r="C29" t="s">
+        <v>178</v>
+      </c>
+      <c r="D29" t="s">
+        <v>263</v>
+      </c>
+      <c r="E29" t="s">
+        <v>178</v>
+      </c>
+      <c r="F29" t="s">
+        <v>285</v>
+      </c>
+      <c r="G29" t="s">
+        <v>178</v>
+      </c>
+      <c r="H29" t="s">
+        <v>179</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="0"/>
+        <v>"Gabinetes KIT":"Gabinetes",</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>178</v>
+      </c>
+      <c r="B30" t="s">
+        <v>603</v>
+      </c>
+      <c r="C30" t="s">
+        <v>178</v>
+      </c>
+      <c r="D30" t="s">
+        <v>263</v>
+      </c>
+      <c r="E30" t="s">
+        <v>178</v>
+      </c>
+      <c r="F30" t="s">
+        <v>362</v>
+      </c>
+      <c r="G30" t="s">
+        <v>178</v>
+      </c>
+      <c r="H30" t="s">
+        <v>179</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="0"/>
+        <v>"Hogar":"Electro",</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>178</v>
+      </c>
+      <c r="B31" t="s">
+        <v>604</v>
+      </c>
+      <c r="C31" t="s">
+        <v>178</v>
+      </c>
+      <c r="D31" t="s">
+        <v>263</v>
+      </c>
+      <c r="E31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F31" t="s">
+        <v>267</v>
+      </c>
+      <c r="G31" t="s">
+        <v>178</v>
+      </c>
+      <c r="H31" t="s">
+        <v>179</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="0"/>
+        <v>"In Ear":"Auriculares",</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>178</v>
+      </c>
+      <c r="B32" t="s">
+        <v>605</v>
+      </c>
+      <c r="C32" t="s">
+        <v>178</v>
+      </c>
+      <c r="D32" t="s">
+        <v>263</v>
+      </c>
+      <c r="E32" t="s">
+        <v>178</v>
+      </c>
+      <c r="F32" t="s">
+        <v>311</v>
+      </c>
+      <c r="G32" t="s">
+        <v>178</v>
+      </c>
+      <c r="H32" t="s">
+        <v>179</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="0"/>
+        <v>"Kit Teclado Y Mouse":"Teclados",</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>178</v>
+      </c>
+      <c r="B33" t="s">
+        <v>606</v>
+      </c>
+      <c r="C33" t="s">
+        <v>178</v>
+      </c>
+      <c r="D33" t="s">
+        <v>263</v>
+      </c>
+      <c r="E33" t="s">
+        <v>178</v>
+      </c>
+      <c r="F33" t="s">
+        <v>366</v>
+      </c>
+      <c r="G33" t="s">
+        <v>178</v>
+      </c>
+      <c r="H33" t="s">
+        <v>179</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="0"/>
+        <v>"Memoria Notebooks":"Memorias RAM",</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>178</v>
+      </c>
+      <c r="B34" t="s">
+        <v>291</v>
+      </c>
+      <c r="C34" t="s">
+        <v>178</v>
+      </c>
+      <c r="D34" t="s">
+        <v>263</v>
+      </c>
+      <c r="E34" t="s">
+        <v>178</v>
+      </c>
+      <c r="F34" t="s">
+        <v>366</v>
+      </c>
+      <c r="G34" t="s">
+        <v>178</v>
+      </c>
+      <c r="H34" t="s">
+        <v>179</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="0"/>
+        <v>"Memorias PC":"Memorias RAM",</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>178</v>
+      </c>
+      <c r="B35" t="s">
+        <v>607</v>
+      </c>
+      <c r="C35" t="s">
+        <v>178</v>
+      </c>
+      <c r="D35" t="s">
+        <v>263</v>
+      </c>
+      <c r="E35" t="s">
+        <v>178</v>
+      </c>
+      <c r="F35" t="s">
+        <v>292</v>
+      </c>
+      <c r="G35" t="s">
+        <v>178</v>
+      </c>
+      <c r="H35" t="s">
+        <v>179</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="0"/>
+        <v>"Microfono":"Microfonos",</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>178</v>
+      </c>
+      <c r="B36" t="s">
+        <v>608</v>
+      </c>
+      <c r="C36" t="s">
+        <v>178</v>
+      </c>
+      <c r="D36" t="s">
+        <v>263</v>
+      </c>
+      <c r="E36" t="s">
+        <v>178</v>
+      </c>
+      <c r="F36" t="s">
+        <v>302</v>
+      </c>
+      <c r="G36" t="s">
+        <v>178</v>
+      </c>
+      <c r="H36" t="s">
+        <v>179</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="0"/>
+        <v>"Microprocesador Intel":"Procesadores",</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>178</v>
+      </c>
+      <c r="B37" t="s">
+        <v>293</v>
+      </c>
+      <c r="C37" t="s">
+        <v>178</v>
+      </c>
+      <c r="D37" t="s">
+        <v>263</v>
+      </c>
+      <c r="E37" t="s">
+        <v>178</v>
+      </c>
+      <c r="F37" t="s">
+        <v>629</v>
+      </c>
+      <c r="G37" t="s">
+        <v>178</v>
+      </c>
+      <c r="H37" t="s">
+        <v>179</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="0"/>
+        <v>"Monitores":"Monitoress",</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>178</v>
+      </c>
+      <c r="B38" t="s">
+        <v>609</v>
+      </c>
+      <c r="C38" t="s">
+        <v>178</v>
+      </c>
+      <c r="D38" t="s">
+        <v>263</v>
+      </c>
+      <c r="E38" t="s">
+        <v>178</v>
+      </c>
+      <c r="F38" t="s">
+        <v>362</v>
+      </c>
+      <c r="G38" t="s">
+        <v>178</v>
+      </c>
+      <c r="H38" t="s">
+        <v>179</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="0"/>
+        <v>"Monoblock":"Electro",</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>178</v>
+      </c>
+      <c r="B39" t="s">
+        <v>295</v>
+      </c>
+      <c r="C39" t="s">
+        <v>178</v>
+      </c>
+      <c r="D39" t="s">
+        <v>263</v>
+      </c>
+      <c r="E39" t="s">
+        <v>178</v>
+      </c>
+      <c r="F39" t="s">
+        <v>295</v>
+      </c>
+      <c r="G39" t="s">
+        <v>178</v>
+      </c>
+      <c r="H39" t="s">
+        <v>179</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="0"/>
+        <v>"Mouses":"Mouses",</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>178</v>
+      </c>
+      <c r="B40" t="s">
+        <v>610</v>
+      </c>
+      <c r="C40" t="s">
+        <v>178</v>
+      </c>
+      <c r="D40" t="s">
+        <v>263</v>
+      </c>
+      <c r="E40" t="s">
+        <v>178</v>
+      </c>
+      <c r="F40" t="s">
+        <v>368</v>
+      </c>
+      <c r="G40" t="s">
+        <v>178</v>
+      </c>
+      <c r="H40" t="s">
+        <v>179</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="0"/>
+        <v>"Notebook":"Notebooks",</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>178</v>
+      </c>
+      <c r="B41" t="s">
+        <v>611</v>
+      </c>
+      <c r="C41" t="s">
+        <v>178</v>
+      </c>
+      <c r="D41" t="s">
+        <v>263</v>
+      </c>
+      <c r="E41" t="s">
+        <v>178</v>
+      </c>
+      <c r="F41" t="s">
+        <v>267</v>
+      </c>
+      <c r="G41" t="s">
+        <v>178</v>
+      </c>
+      <c r="H41" t="s">
+        <v>179</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="0"/>
+        <v>"On Ear":"Auriculares",</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>178</v>
+      </c>
+      <c r="B42" t="s">
+        <v>612</v>
+      </c>
+      <c r="C42" t="s">
+        <v>178</v>
+      </c>
+      <c r="D42" t="s">
+        <v>263</v>
+      </c>
+      <c r="E42" t="s">
+        <v>178</v>
+      </c>
+      <c r="F42" t="s">
+        <v>295</v>
+      </c>
+      <c r="G42" t="s">
+        <v>178</v>
+      </c>
+      <c r="H42" t="s">
+        <v>179</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="0"/>
+        <v>"Pad Mouse":"Mouses",</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>178</v>
+      </c>
+      <c r="B43" t="s">
+        <v>613</v>
+      </c>
+      <c r="C43" t="s">
+        <v>178</v>
+      </c>
+      <c r="D43" t="s">
+        <v>263</v>
+      </c>
+      <c r="E43" t="s">
+        <v>178</v>
+      </c>
+      <c r="F43" t="s">
+        <v>298</v>
+      </c>
+      <c r="G43" t="s">
+        <v>178</v>
+      </c>
+      <c r="H43" t="s">
+        <v>179</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="0"/>
+        <v>"Parlante Bluetooth":"Parlantes",</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>178</v>
+      </c>
+      <c r="B44" t="s">
+        <v>614</v>
+      </c>
+      <c r="C44" t="s">
+        <v>178</v>
+      </c>
+      <c r="D44" t="s">
+        <v>263</v>
+      </c>
+      <c r="E44" t="s">
+        <v>178</v>
+      </c>
+      <c r="F44" t="s">
+        <v>298</v>
+      </c>
+      <c r="G44" t="s">
+        <v>178</v>
+      </c>
+      <c r="H44" t="s">
+        <v>179</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="0"/>
+        <v>"Parlante Portátil":"Parlantes",</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>178</v>
+      </c>
+      <c r="B45" t="s">
+        <v>298</v>
+      </c>
+      <c r="C45" t="s">
+        <v>178</v>
+      </c>
+      <c r="D45" t="s">
+        <v>263</v>
+      </c>
+      <c r="E45" t="s">
+        <v>178</v>
+      </c>
+      <c r="F45" t="s">
+        <v>298</v>
+      </c>
+      <c r="G45" t="s">
+        <v>178</v>
+      </c>
+      <c r="H45" t="s">
+        <v>179</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="0"/>
+        <v>"Parlantes":"Parlantes",</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>178</v>
+      </c>
+      <c r="B46" t="s">
+        <v>615</v>
+      </c>
+      <c r="C46" t="s">
+        <v>178</v>
+      </c>
+      <c r="D46" t="s">
+        <v>263</v>
+      </c>
+      <c r="E46" t="s">
+        <v>178</v>
+      </c>
+      <c r="F46" t="s">
+        <v>298</v>
+      </c>
+      <c r="G46" t="s">
+        <v>178</v>
+      </c>
+      <c r="H46" t="s">
+        <v>179</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="0"/>
+        <v>"Parlantes Pc":"Parlantes",</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>178</v>
+      </c>
+      <c r="B47" t="s">
+        <v>616</v>
+      </c>
+      <c r="C47" t="s">
+        <v>178</v>
+      </c>
+      <c r="D47" t="s">
+        <v>263</v>
+      </c>
+      <c r="E47" t="s">
+        <v>178</v>
+      </c>
+      <c r="F47" t="s">
+        <v>298</v>
+      </c>
+      <c r="G47" t="s">
+        <v>178</v>
+      </c>
+      <c r="H47" t="s">
+        <v>179</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="0"/>
+        <v>"Party Speaker":"Parlantes",</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>178</v>
+      </c>
+      <c r="B48" t="s">
+        <v>617</v>
+      </c>
+      <c r="C48" t="s">
+        <v>178</v>
+      </c>
+      <c r="D48" t="s">
+        <v>263</v>
+      </c>
+      <c r="E48" t="s">
+        <v>178</v>
+      </c>
+      <c r="F48" t="s">
+        <v>359</v>
+      </c>
+      <c r="G48" t="s">
+        <v>178</v>
+      </c>
+      <c r="H48" t="s">
+        <v>179</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="0"/>
+        <v>"Pc De Escritorio":"Computadoras",</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>178</v>
+      </c>
+      <c r="B49" t="s">
+        <v>318</v>
+      </c>
+      <c r="C49" t="s">
+        <v>178</v>
+      </c>
+      <c r="D49" t="s">
+        <v>263</v>
+      </c>
+      <c r="E49" t="s">
+        <v>178</v>
+      </c>
+      <c r="F49" t="s">
+        <v>369</v>
+      </c>
+      <c r="G49" t="s">
+        <v>178</v>
+      </c>
+      <c r="H49" t="s">
+        <v>179</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="0"/>
+        <v>"Placas de Video":"Placas de video",</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>178</v>
+      </c>
+      <c r="B50" t="s">
+        <v>618</v>
+      </c>
+      <c r="C50" t="s">
+        <v>178</v>
+      </c>
+      <c r="D50" t="s">
+        <v>263</v>
+      </c>
+      <c r="E50" t="s">
+        <v>178</v>
+      </c>
+      <c r="F50" t="s">
+        <v>374</v>
+      </c>
+      <c r="G50" t="s">
+        <v>178</v>
+      </c>
+      <c r="H50" t="s">
+        <v>179</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="0"/>
+        <v>"Productos":"Tablets",</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>178</v>
+      </c>
+      <c r="B51" t="s">
+        <v>550</v>
+      </c>
+      <c r="C51" t="s">
+        <v>178</v>
+      </c>
+      <c r="D51" t="s">
+        <v>263</v>
+      </c>
+      <c r="E51" t="s">
+        <v>178</v>
+      </c>
+      <c r="F51" t="s">
+        <v>362</v>
+      </c>
+      <c r="G51" t="s">
+        <v>178</v>
+      </c>
+      <c r="H51" t="s">
+        <v>179</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="0"/>
+        <v>"Repuestos":"Electro",</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>178</v>
+      </c>
+      <c r="B52" t="s">
+        <v>305</v>
+      </c>
+      <c r="C52" t="s">
+        <v>178</v>
+      </c>
+      <c r="D52" t="s">
+        <v>263</v>
+      </c>
+      <c r="E52" t="s">
+        <v>178</v>
+      </c>
+      <c r="F52" t="s">
+        <v>360</v>
+      </c>
+      <c r="G52" t="s">
+        <v>178</v>
+      </c>
+      <c r="H52" t="s">
+        <v>179</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" si="0"/>
+        <v>"Routers":"Conectividad",</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>178</v>
+      </c>
+      <c r="B53" t="s">
+        <v>619</v>
+      </c>
+      <c r="C53" t="s">
+        <v>178</v>
+      </c>
+      <c r="D53" t="s">
+        <v>263</v>
+      </c>
+      <c r="E53" t="s">
+        <v>178</v>
+      </c>
+      <c r="F53" t="s">
+        <v>362</v>
+      </c>
+      <c r="G53" t="s">
+        <v>178</v>
+      </c>
+      <c r="H53" t="s">
+        <v>179</v>
+      </c>
+      <c r="I53" t="str">
+        <f t="shared" si="0"/>
+        <v>"Salud":"Electro",</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>178</v>
+      </c>
+      <c r="B54" t="s">
+        <v>306</v>
+      </c>
+      <c r="C54" t="s">
+        <v>178</v>
+      </c>
+      <c r="D54" t="s">
+        <v>263</v>
+      </c>
+      <c r="E54" t="s">
+        <v>178</v>
+      </c>
+      <c r="F54" t="s">
+        <v>306</v>
+      </c>
+      <c r="G54" t="s">
+        <v>178</v>
+      </c>
+      <c r="H54" t="s">
+        <v>179</v>
+      </c>
+      <c r="I54" t="str">
+        <f t="shared" si="0"/>
+        <v>"Sillas":"Sillas",</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>178</v>
+      </c>
+      <c r="B55" t="s">
+        <v>620</v>
+      </c>
+      <c r="C55" t="s">
+        <v>178</v>
+      </c>
+      <c r="D55" t="s">
+        <v>263</v>
+      </c>
+      <c r="E55" t="s">
+        <v>178</v>
+      </c>
+      <c r="F55" t="s">
+        <v>361</v>
+      </c>
+      <c r="G55" t="s">
+        <v>178</v>
+      </c>
+      <c r="H55" t="s">
+        <v>179</v>
+      </c>
+      <c r="I55" t="str">
+        <f t="shared" si="0"/>
+        <v>"SSD":"Discos",</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>178</v>
+      </c>
+      <c r="B56" t="s">
+        <v>621</v>
+      </c>
+      <c r="C56" t="s">
+        <v>178</v>
+      </c>
+      <c r="D56" t="s">
+        <v>263</v>
+      </c>
+      <c r="E56" t="s">
+        <v>178</v>
+      </c>
+      <c r="F56" t="s">
+        <v>367</v>
+      </c>
+      <c r="G56" t="s">
+        <v>178</v>
+      </c>
+      <c r="H56" t="s">
+        <v>179</v>
+      </c>
+      <c r="I56" t="str">
+        <f t="shared" si="0"/>
+        <v>"SSD Externo":"Almacenamiento Portatil",</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>178</v>
+      </c>
+      <c r="B57" t="s">
+        <v>622</v>
+      </c>
+      <c r="C57" t="s">
+        <v>178</v>
+      </c>
+      <c r="D57" t="s">
+        <v>263</v>
+      </c>
+      <c r="E57" t="s">
+        <v>178</v>
+      </c>
+      <c r="F57" t="s">
+        <v>362</v>
+      </c>
+      <c r="G57" t="s">
+        <v>178</v>
+      </c>
+      <c r="H57" t="s">
+        <v>179</v>
+      </c>
+      <c r="I57" t="str">
+        <f t="shared" si="0"/>
+        <v>"Stereo":"Electro",</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>178</v>
+      </c>
+      <c r="B58" t="s">
+        <v>623</v>
+      </c>
+      <c r="C58" t="s">
+        <v>178</v>
+      </c>
+      <c r="D58" t="s">
+        <v>263</v>
+      </c>
+      <c r="E58" t="s">
+        <v>178</v>
+      </c>
+      <c r="F58" t="s">
+        <v>298</v>
+      </c>
+      <c r="G58" t="s">
+        <v>178</v>
+      </c>
+      <c r="H58" t="s">
+        <v>179</v>
+      </c>
+      <c r="I58" t="str">
+        <f t="shared" si="0"/>
+        <v>"Subwoofer":"Parlantes",</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>178</v>
+      </c>
+      <c r="B59" t="s">
+        <v>624</v>
+      </c>
+      <c r="C59" t="s">
+        <v>178</v>
+      </c>
+      <c r="D59" t="s">
+        <v>263</v>
+      </c>
+      <c r="E59" t="s">
+        <v>178</v>
+      </c>
+      <c r="F59" t="s">
+        <v>374</v>
+      </c>
+      <c r="G59" t="s">
+        <v>178</v>
+      </c>
+      <c r="H59" t="s">
+        <v>179</v>
+      </c>
+      <c r="I59" t="str">
+        <f t="shared" si="0"/>
+        <v>"Tablet":"Tablets",</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>178</v>
+      </c>
+      <c r="B60" t="s">
+        <v>311</v>
+      </c>
+      <c r="C60" t="s">
+        <v>178</v>
+      </c>
+      <c r="D60" t="s">
+        <v>263</v>
+      </c>
+      <c r="E60" t="s">
+        <v>178</v>
+      </c>
+      <c r="F60" t="s">
+        <v>311</v>
+      </c>
+      <c r="G60" t="s">
+        <v>178</v>
+      </c>
+      <c r="H60" t="s">
+        <v>179</v>
+      </c>
+      <c r="I60" t="str">
+        <f t="shared" si="0"/>
+        <v>"Teclados":"Teclados",</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>178</v>
+      </c>
+      <c r="B61" t="s">
+        <v>625</v>
+      </c>
+      <c r="C61" t="s">
+        <v>178</v>
+      </c>
+      <c r="D61" t="s">
+        <v>263</v>
+      </c>
+      <c r="E61" t="s">
+        <v>178</v>
+      </c>
+      <c r="F61" t="s">
+        <v>298</v>
+      </c>
+      <c r="G61" t="s">
+        <v>178</v>
+      </c>
+      <c r="H61" t="s">
+        <v>179</v>
+      </c>
+      <c r="I61" t="str">
+        <f t="shared" si="0"/>
+        <v>"Torre de Sonido":"Parlantes",</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>178</v>
+      </c>
+      <c r="B62" t="s">
+        <v>626</v>
+      </c>
+      <c r="C62" t="s">
+        <v>178</v>
+      </c>
+      <c r="D62" t="s">
+        <v>263</v>
+      </c>
+      <c r="E62" t="s">
+        <v>178</v>
+      </c>
+      <c r="F62" t="s">
+        <v>362</v>
+      </c>
+      <c r="G62" t="s">
+        <v>178</v>
+      </c>
+      <c r="H62" t="s">
+        <v>179</v>
+      </c>
+      <c r="I62" t="str">
+        <f t="shared" si="0"/>
+        <v>"TV":"Electro",</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>178</v>
+      </c>
+      <c r="B63" t="s">
+        <v>627</v>
+      </c>
+      <c r="C63" t="s">
+        <v>178</v>
+      </c>
+      <c r="D63" t="s">
+        <v>263</v>
+      </c>
+      <c r="E63" t="s">
+        <v>178</v>
+      </c>
+      <c r="F63" t="s">
+        <v>358</v>
+      </c>
+      <c r="G63" t="s">
+        <v>178</v>
+      </c>
+      <c r="H63" t="s">
+        <v>179</v>
+      </c>
+      <c r="I63" t="str">
+        <f t="shared" si="0"/>
+        <v>"Varios":"Cables y Adaptadores",</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" t="s">
+        <v>178</v>
+      </c>
+      <c r="B64" t="s">
+        <v>628</v>
+      </c>
+      <c r="C64" t="s">
+        <v>178</v>
+      </c>
+      <c r="D64" t="s">
+        <v>263</v>
+      </c>
+      <c r="E64" t="s">
+        <v>178</v>
+      </c>
+      <c r="F64" t="s">
+        <v>376</v>
+      </c>
+      <c r="G64" t="s">
+        <v>178</v>
+      </c>
+      <c r="H64" t="s">
+        <v>179</v>
+      </c>
+      <c r="I64" t="str">
+        <f t="shared" si="0"/>
+        <v>"WEBCAM":"Webcams",</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C9A83B5-C2A8-42F3-A50B-B65DA1F9C1BC}">
   <dimension ref="A1:I45"/>
   <sheetViews>
@@ -19082,7 +21183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A23AC8-0680-4338-8F9B-085C30FD02CA}">
   <dimension ref="A1:A33"/>
   <sheetViews>

--- a/nuevosScripts/diccionarios/diccionarios.xlsx
+++ b/nuevosScripts/diccionarios/diccionarios.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mis proyectos\Test\Repo-Python-DB-DottAPI\nuevosScripts\diccionarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nano\repos\DottAPI\Repo-Python-DB-DottAPI\nuevosScripts\diccionarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB16F52B-46BD-4D73-9661-18E3349F910E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E1B890-E159-4352-B92C-C54EA0C4FDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17205" windowHeight="15600" activeTab="5" xr2:uid="{907ADB49-8BB7-4046-9511-7212E4DA76A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{907ADB49-8BB7-4046-9511-7212E4DA76A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Air" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4977" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5009" uniqueCount="652">
   <si>
     <t>electro</t>
   </si>
@@ -1387,381 +1398,12 @@
     <t>Impresoras</t>
   </si>
   <si>
-    <t>Accesorios Celulares</t>
-  </si>
-  <si>
-    <t>Accesorios para GPS</t>
-  </si>
-  <si>
-    <t>Accesorios para Redes</t>
-  </si>
-  <si>
-    <t>Accesorios PS2</t>
-  </si>
-  <si>
-    <t>Accesorios PS3-PS4</t>
-  </si>
-  <si>
-    <t>Accesorios TV</t>
-  </si>
-  <si>
-    <t>Accesorios WII</t>
-  </si>
-  <si>
-    <t>Accesorios XBOX</t>
-  </si>
-  <si>
-    <t>Access Point</t>
-  </si>
-  <si>
-    <t>Adaptadores</t>
-  </si>
-  <si>
-    <t>Adaptadores de Red</t>
-  </si>
-  <si>
-    <t>Alargues</t>
-  </si>
-  <si>
-    <t>Alimentacion</t>
-  </si>
-  <si>
-    <t>Antenas</t>
-  </si>
-  <si>
-    <t>Audio</t>
-  </si>
-  <si>
-    <t>Bicicletas</t>
-  </si>
-  <si>
-    <t>Binoculares</t>
-  </si>
-  <si>
-    <t>Bolsos</t>
-  </si>
-  <si>
-    <t>Cajas p/ CD-DVD</t>
-  </si>
-  <si>
-    <t>Calculadoras</t>
-  </si>
-  <si>
-    <t>CAMARAS - VIDEO CAMARAS</t>
-  </si>
-  <si>
-    <t>Camaras Digitales</t>
-  </si>
-  <si>
-    <t>Camaras Domo y Bullet</t>
-  </si>
-  <si>
-    <t>Camaras WEB</t>
-  </si>
-  <si>
-    <t>Cargadores</t>
-  </si>
-  <si>
-    <t>Cartuchos Alternativos</t>
-  </si>
-  <si>
-    <t>Cartuchos Originales</t>
-  </si>
-  <si>
     <t>Celulares</t>
   </si>
   <si>
-    <t>Celulares - Repuestos</t>
-  </si>
-  <si>
-    <t>Cintas Matriciales</t>
-  </si>
-  <si>
-    <t>Climatizacion</t>
-  </si>
-  <si>
-    <t>Cocina</t>
-  </si>
-  <si>
-    <t>Computadoras PC</t>
-  </si>
-  <si>
-    <t>Conectores</t>
-  </si>
-  <si>
-    <t>Consolas</t>
-  </si>
-  <si>
-    <t>Controladores</t>
-  </si>
-  <si>
-    <t>Cuidado Personal</t>
-  </si>
-  <si>
-    <t>Datos</t>
-  </si>
-  <si>
-    <t>De Conduccion (Auto)</t>
-  </si>
-  <si>
-    <t>De Conduccion (Bicicletas)</t>
-  </si>
-  <si>
-    <t>De Conduccion (Motos)</t>
-  </si>
-  <si>
-    <t>De Exploración</t>
-  </si>
-  <si>
-    <t>De Redes</t>
-  </si>
-  <si>
-    <t>De Tinta</t>
-  </si>
-  <si>
-    <t>De Tinta Multifuncion</t>
-  </si>
-  <si>
-    <t>De Tinta Sistema Continuo</t>
-  </si>
-  <si>
-    <t>Desayuno</t>
-  </si>
-  <si>
-    <t>Destructores de Documentos</t>
-  </si>
-  <si>
-    <t>Discos Rigidos</t>
-  </si>
-  <si>
-    <t>Drones - MiniDrones</t>
-  </si>
-  <si>
-    <t>DVD - BLURAY - Multimedia</t>
-  </si>
-  <si>
-    <t>DVR Autonomos</t>
-  </si>
-  <si>
-    <t>Faxes</t>
-  </si>
-  <si>
-    <t>Fijos</t>
-  </si>
-  <si>
-    <t>Gabinetes y Fuentes</t>
-  </si>
-  <si>
-    <t>Game Pad - Joysticks</t>
-  </si>
-  <si>
-    <t>Grabadores de Periodista - Radios</t>
-  </si>
-  <si>
-    <t>Guitarras</t>
-  </si>
-  <si>
-    <t>Handies</t>
-  </si>
-  <si>
-    <t>Herramientas</t>
-  </si>
-  <si>
-    <t>Hidrolavadoras</t>
-  </si>
-  <si>
-    <t>HOGAR</t>
-  </si>
-  <si>
-    <t>Hornos - Parillas</t>
-  </si>
-  <si>
-    <t>Iluminación</t>
-  </si>
-  <si>
-    <t>Jardineria</t>
-  </si>
-  <si>
-    <t>Juguetes</t>
-  </si>
-  <si>
-    <t>Kit de Seguridad</t>
-  </si>
-  <si>
-    <t>Laser</t>
-  </si>
-  <si>
-    <t>Laser Multifuncion</t>
-  </si>
-  <si>
-    <t>Lectores de Libros Digitales</t>
-  </si>
-  <si>
-    <t>Lectores de Memorias</t>
-  </si>
-  <si>
-    <t>Libreria</t>
-  </si>
-  <si>
-    <t>Limpieza</t>
-  </si>
-  <si>
-    <t>Matriciales</t>
-  </si>
-  <si>
-    <t>Mesas para PC</t>
-  </si>
-  <si>
-    <t>Mesas para TV</t>
-  </si>
-  <si>
-    <t>Microondas</t>
-  </si>
-  <si>
-    <t>Microprocesadores</t>
-  </si>
-  <si>
-    <t>Mineria</t>
-  </si>
-  <si>
-    <t>Modem y ADSL</t>
-  </si>
-  <si>
-    <t>MP3</t>
-  </si>
-  <si>
-    <t>MP5</t>
-  </si>
-  <si>
-    <t>Opticos</t>
-  </si>
-  <si>
-    <t>Opticos (CD-DVD-BD)</t>
-  </si>
-  <si>
-    <t>Papel</t>
-  </si>
-  <si>
-    <t>Para Notebooks</t>
-  </si>
-  <si>
-    <t>Para PC</t>
-  </si>
-  <si>
-    <t>Paralelo</t>
-  </si>
-  <si>
-    <t>Parlantes Activos</t>
-  </si>
-  <si>
-    <t>Pen Drive USB</t>
-  </si>
-  <si>
-    <t>Pilas</t>
-  </si>
-  <si>
-    <t>Placas de Sonido</t>
-  </si>
-  <si>
-    <t>Placas de Video y TV</t>
-  </si>
-  <si>
-    <t>Placas Madre</t>
-  </si>
-  <si>
-    <t>Ploters de Dibujo</t>
-  </si>
-  <si>
-    <t>Porta CD-DVD</t>
-  </si>
-  <si>
-    <t>Productos de Limpieza</t>
-  </si>
-  <si>
-    <t>Radios</t>
-  </si>
-  <si>
-    <t>Relojes Digitales - Fitness</t>
-  </si>
-  <si>
     <t>Repuestos</t>
   </si>
   <si>
-    <t>Rotuladoras - Termicas</t>
-  </si>
-  <si>
-    <t>Routers de Cable</t>
-  </si>
-  <si>
-    <t>Routers Inalambricos</t>
-  </si>
-  <si>
-    <t>Scanners</t>
-  </si>
-  <si>
-    <t>SD - MicroSD - CF - MS</t>
-  </si>
-  <si>
-    <t>Servidores</t>
-  </si>
-  <si>
-    <t>Servidores de Impresion</t>
-  </si>
-  <si>
-    <t>Sillones y Sillas Gamer</t>
-  </si>
-  <si>
-    <t>Sistemas de Audio y Video</t>
-  </si>
-  <si>
-    <t>Stereos</t>
-  </si>
-  <si>
-    <t>Switchs</t>
-  </si>
-  <si>
-    <t>Termotanques</t>
-  </si>
-  <si>
-    <t>Tinta Alternativa Continuos</t>
-  </si>
-  <si>
-    <t>Todo en Uno (AIO)</t>
-  </si>
-  <si>
-    <t>Toner y Drum Alternativos</t>
-  </si>
-  <si>
-    <t>Toner y Drum Originales</t>
-  </si>
-  <si>
-    <t>TV - Smart TV</t>
-  </si>
-  <si>
-    <t>U.P.S.</t>
-  </si>
-  <si>
-    <t>ULTRABOOKS</t>
-  </si>
-  <si>
-    <t>USB y Celulares</t>
-  </si>
-  <si>
-    <t>Video</t>
-  </si>
-  <si>
-    <t>Video Camaras Digitales</t>
-  </si>
-  <si>
-    <t>VOIP SKYPE</t>
-  </si>
-  <si>
-    <t>Zapatillas Eléctricas</t>
-  </si>
-  <si>
-    <t>Mini PCs</t>
-  </si>
-  <si>
     <t>Discos Rígidos / SSD / Disco Rígido Notebook</t>
   </si>
   <si>
@@ -1922,6 +1564,441 @@
   </si>
   <si>
     <t>Monitoress</t>
+  </si>
+  <si>
+    <t>ACCESORIOS - Auriculares</t>
+  </si>
+  <si>
+    <t>ACCESORIOS - Cargadores</t>
+  </si>
+  <si>
+    <t>ACCESORIOS - Lectores de Memorias</t>
+  </si>
+  <si>
+    <t>ACCESORIOS - Microfonos</t>
+  </si>
+  <si>
+    <t>ACCESORIOS - Pilas</t>
+  </si>
+  <si>
+    <t>ACCESORIOS - Porta CD-DVD</t>
+  </si>
+  <si>
+    <t>AUDIO - DVD - BLURAY - Multimedia</t>
+  </si>
+  <si>
+    <t>AUDIO - Parlantes</t>
+  </si>
+  <si>
+    <t>AUDIO - Parlantes Activos</t>
+  </si>
+  <si>
+    <t>AUDIO - Sistemas de Audio y Video</t>
+  </si>
+  <si>
+    <t>AUDIO - Stereos</t>
+  </si>
+  <si>
+    <t>AUDIO - VIDEO - Radios</t>
+  </si>
+  <si>
+    <t>CABLES y CONECTORES - Adaptadores</t>
+  </si>
+  <si>
+    <t>CABLES y CONECTORES - Alargues</t>
+  </si>
+  <si>
+    <t>CABLES y CONECTORES - Alimentacion</t>
+  </si>
+  <si>
+    <t>CABLES y CONECTORES - Audio</t>
+  </si>
+  <si>
+    <t>CABLES y CONECTORES - Conectores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CABLES y CONECTORES - Datos </t>
+  </si>
+  <si>
+    <t>CABLES y CONECTORES - De Redes</t>
+  </si>
+  <si>
+    <t>CABLES y CONECTORES - Paralelo</t>
+  </si>
+  <si>
+    <t>CABLES y CONECTORES - USB y Celulares</t>
+  </si>
+  <si>
+    <t>CABLES y CONECTORES - Video</t>
+  </si>
+  <si>
+    <t>CELULARES - Accesorios Celulares</t>
+  </si>
+  <si>
+    <t>CELULARES - Celulares</t>
+  </si>
+  <si>
+    <t>CELULARES - Celulares - Repuestos</t>
+  </si>
+  <si>
+    <t>COMPUTADORAS - Computadoras PC</t>
+  </si>
+  <si>
+    <t>COMPUTADORAS - Mini PCs</t>
+  </si>
+  <si>
+    <t>COMPUTADORAS - Servidores</t>
+  </si>
+  <si>
+    <t>COMPUTADORAS - Todo en Uno (AIO)</t>
+  </si>
+  <si>
+    <t>DEPORTES - Bicicletas</t>
+  </si>
+  <si>
+    <t>ELECTRONICA DE CONSUMO - Calculadoras</t>
+  </si>
+  <si>
+    <t>ELECTRONICA DE CONSUMO - Destructores de Documentos</t>
+  </si>
+  <si>
+    <t>ELECTRONICA DE CONSUMO - Drones - MiniDrones</t>
+  </si>
+  <si>
+    <t>ELECTRONICA DE CONSUMO - Grabadores de Periodista - Radios</t>
+  </si>
+  <si>
+    <t>ELECTRONICA DE CONSUMO - Juguetes</t>
+  </si>
+  <si>
+    <t>ELECTRONICA DE CONSUMO - Lectores de Libros Digitales</t>
+  </si>
+  <si>
+    <t>ELECTRONICA DE CONSUMO - MP3</t>
+  </si>
+  <si>
+    <t>ELECTRONICA DE CONSUMO - MP5</t>
+  </si>
+  <si>
+    <t>ELECTRONICA DE CONSUMO - Relojes Digitales - Fitness</t>
+  </si>
+  <si>
+    <t>ESTABILIZADORES - Estabilizadores</t>
+  </si>
+  <si>
+    <t>ESTABILIZADORES - U.P.S.</t>
+  </si>
+  <si>
+    <t>ESTABILIZADORES - UPS - Zapatillas Eléctricas</t>
+  </si>
+  <si>
+    <t>GAMMING - Accesorios PS2</t>
+  </si>
+  <si>
+    <t>GAMMING - Accesorios PS3-PS4</t>
+  </si>
+  <si>
+    <t>GAMMING - Accesorios WII</t>
+  </si>
+  <si>
+    <t>GAMMING - Accesorios XBOX</t>
+  </si>
+  <si>
+    <t>GAMMING - Consolas</t>
+  </si>
+  <si>
+    <t>GAMMING - Game Pad - Joysticks</t>
+  </si>
+  <si>
+    <t>GAMMING - Guitarras</t>
+  </si>
+  <si>
+    <t>GAMMING - Sillones y Sillas Gamer</t>
+  </si>
+  <si>
+    <t>GAMMING - Volantes</t>
+  </si>
+  <si>
+    <t>GPS - Accesorios para GPS</t>
+  </si>
+  <si>
+    <t>GPS - De Conduccion (Auto)</t>
+  </si>
+  <si>
+    <t>GPS - De Conduccion (Bicicletas)</t>
+  </si>
+  <si>
+    <t>GPS - De Conduccion (Motos)</t>
+  </si>
+  <si>
+    <t>GPS - De Exploración</t>
+  </si>
+  <si>
+    <t>IMPRESORAS - De Tinta Multifuncion</t>
+  </si>
+  <si>
+    <t>IMPRESORAS - De Tinta Sistema Continuo</t>
+  </si>
+  <si>
+    <t>IMPRESORAS - Laser</t>
+  </si>
+  <si>
+    <t>IMPRESORAS - Laser Multifuncion</t>
+  </si>
+  <si>
+    <t>IMPRESORAS - Matriciales</t>
+  </si>
+  <si>
+    <t>IMPRESORAS - PLOTERS - De Tinta</t>
+  </si>
+  <si>
+    <t>IMPRESORAS - Ploters de Dibujo</t>
+  </si>
+  <si>
+    <t>IMPRESORAS - Repuestos</t>
+  </si>
+  <si>
+    <t>IMPRESORAS - Rotuladoras - Termicas</t>
+  </si>
+  <si>
+    <t>IMPRESORAS - Scanners</t>
+  </si>
+  <si>
+    <t>INFORMATICA - Adaptadores</t>
+  </si>
+  <si>
+    <t>INFORMATICA - Camaras WEB</t>
+  </si>
+  <si>
+    <t>INFORMATICA - Controladores</t>
+  </si>
+  <si>
+    <t>INFORMATICA - Discos Rigidos</t>
+  </si>
+  <si>
+    <t>INFORMATICA - Gabinetes y Fuentes</t>
+  </si>
+  <si>
+    <t>INFORMATICA - Microprocesadores</t>
+  </si>
+  <si>
+    <t>INFORMATICA - Mineria</t>
+  </si>
+  <si>
+    <t>INFORMATICA - Monitores</t>
+  </si>
+  <si>
+    <t>INFORMATICA - Mouses</t>
+  </si>
+  <si>
+    <t>INFORMATICA - Opticos</t>
+  </si>
+  <si>
+    <t>INFORMATICA - Placas de Sonido</t>
+  </si>
+  <si>
+    <t>INFORMATICA - Placas de Video y TV</t>
+  </si>
+  <si>
+    <t>INFORMATICA - Placas Madre</t>
+  </si>
+  <si>
+    <t>INFORMATICA - Productos de Limpieza</t>
+  </si>
+  <si>
+    <t>INFORMATICA - Software</t>
+  </si>
+  <si>
+    <t>INFORMATICA - Teclados</t>
+  </si>
+  <si>
+    <t>INSUMOS - Cajas p/ CD-DVD</t>
+  </si>
+  <si>
+    <t>INSUMOS - Cartuchos Alternativos</t>
+  </si>
+  <si>
+    <t>INSUMOS - Cartuchos Originales</t>
+  </si>
+  <si>
+    <t>INSUMOS - Cintas Matriciales</t>
+  </si>
+  <si>
+    <t>INSUMOS - Libreria</t>
+  </si>
+  <si>
+    <t>INSUMOS - Opticos (CD-DVD-BD)</t>
+  </si>
+  <si>
+    <t>INSUMOS - Papel</t>
+  </si>
+  <si>
+    <t>INSUMOS - Tinta Alternativa Continuos</t>
+  </si>
+  <si>
+    <t>INSUMOS - Toner y Drum Alternativos</t>
+  </si>
+  <si>
+    <t>INSUMOS - Toner y Drum Originales</t>
+  </si>
+  <si>
+    <t>MEMORIAS - Accesorios</t>
+  </si>
+  <si>
+    <t>MEMORIAS - Binoculares</t>
+  </si>
+  <si>
+    <t>MEMORIAS - CAMARAS - VIDEO CAMARAS</t>
+  </si>
+  <si>
+    <t>MEMORIAS - Camaras Digitales</t>
+  </si>
+  <si>
+    <t>MEMORIAS - Para Notebooks</t>
+  </si>
+  <si>
+    <t>MEMORIAS - Para PC</t>
+  </si>
+  <si>
+    <t>MEMORIAS - Pen Drive USB</t>
+  </si>
+  <si>
+    <t>MEMORIAS - SD - MicroSD - CF - MS</t>
+  </si>
+  <si>
+    <t>MEMORIAS - Video Camaras Digitales</t>
+  </si>
+  <si>
+    <t>MOBILIARIO - Mesas para PC</t>
+  </si>
+  <si>
+    <t>MOBILIARIO - Mesas para TV</t>
+  </si>
+  <si>
+    <t>NOTEBOOKS - Accesorios</t>
+  </si>
+  <si>
+    <t>NOTEBOOKS - Bolsos</t>
+  </si>
+  <si>
+    <t>NOTEBOOKS - Fundas</t>
+  </si>
+  <si>
+    <t>NOTEBOOKS - Notebooks</t>
+  </si>
+  <si>
+    <t>NOTEBOOKS - TABLETS - TABLETS</t>
+  </si>
+  <si>
+    <t>NOTEBOOKS - ULTRABOOKS</t>
+  </si>
+  <si>
+    <t>REDES - Accesorios para Redes</t>
+  </si>
+  <si>
+    <t>REDES - Access Point</t>
+  </si>
+  <si>
+    <t>REDES - Adaptadores de Red</t>
+  </si>
+  <si>
+    <t>REDES - Antenas</t>
+  </si>
+  <si>
+    <t>REDES - Camaras IP</t>
+  </si>
+  <si>
+    <t>REDES - Modem y ADSL</t>
+  </si>
+  <si>
+    <t>REDES - Routers de Cable</t>
+  </si>
+  <si>
+    <t>REDES - Routers Inalambricos</t>
+  </si>
+  <si>
+    <t>REDES - Servidores de Impresion</t>
+  </si>
+  <si>
+    <t>REDES - Switchs</t>
+  </si>
+  <si>
+    <t>SEGURIDAD - Accesorios</t>
+  </si>
+  <si>
+    <t>SEGURIDAD - CCTV - Camaras Domo y Bullet</t>
+  </si>
+  <si>
+    <t>SEGURIDAD - DVR Autonomos</t>
+  </si>
+  <si>
+    <t>SEGURIDAD - Kit de Seguridad</t>
+  </si>
+  <si>
+    <t>TELEFONOS - Faxes</t>
+  </si>
+  <si>
+    <t>TELEFONOS - Fijos</t>
+  </si>
+  <si>
+    <t>TELEFONOS - Handies</t>
+  </si>
+  <si>
+    <t>TELEFONOS - VOIP SKYPE</t>
+  </si>
+  <si>
+    <t>TV - CINE - Accesorios TV</t>
+  </si>
+  <si>
+    <t>TV - Climatizacion</t>
+  </si>
+  <si>
+    <t>TV - Cocina</t>
+  </si>
+  <si>
+    <t>TV - Cuidado Personal</t>
+  </si>
+  <si>
+    <t>TV - Desayuno</t>
+  </si>
+  <si>
+    <t>TV - Herramientas</t>
+  </si>
+  <si>
+    <t>TV - Hidrolavadoras</t>
+  </si>
+  <si>
+    <t>TV - HOGAR</t>
+  </si>
+  <si>
+    <t>TV - Hornos - Parillas</t>
+  </si>
+  <si>
+    <t>TV - Iluminación</t>
+  </si>
+  <si>
+    <t>TV - Jardineria</t>
+  </si>
+  <si>
+    <t>TV - Limpieza</t>
+  </si>
+  <si>
+    <t>TV - Microondas</t>
+  </si>
+  <si>
+    <t>TV - Proyectores</t>
+  </si>
+  <si>
+    <t>TV - Sillas</t>
+  </si>
+  <si>
+    <t>TV - Termos y Mates</t>
+  </si>
+  <si>
+    <t>TV - Termotanques</t>
+  </si>
+  <si>
+    <t>TV - TV - Smart TV</t>
   </si>
 </sst>
 </file>
@@ -2197,7 +2274,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2499,7 +2576,7 @@
       <selection activeCell="N148" sqref="N148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
@@ -7059,7 +7136,7 @@
       <selection activeCell="N57" sqref="N57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="1.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
@@ -9544,11 +9621,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72783A94-6A44-404F-AA50-4C8BD5EAA672}">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -11249,7 +11326,7 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="1.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56.42578125" bestFit="1" customWidth="1"/>
@@ -13587,7 +13664,7 @@
         <v>178</v>
       </c>
       <c r="B75" t="s">
-        <v>576</v>
+        <v>453</v>
       </c>
       <c r="C75" t="s">
         <v>178</v>
@@ -13623,17 +13700,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC37D85-05AB-4705-A6FD-F8425FE0B657}">
-  <dimension ref="A1:I141"/>
+  <dimension ref="A1:I145"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="50" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="71.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -13641,7 +13724,7 @@
         <v>178</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>264</v>
+        <v>507</v>
       </c>
       <c r="C1" t="s">
         <v>178</v>
@@ -13663,7 +13746,7 @@
       </c>
       <c r="I1" t="str">
         <f>_xlfn.CONCAT(A1:H1)</f>
-        <v>"Accesorios":"Accesorios",</v>
+        <v>"ACCESORIOS - Auriculares":"Accesorios",</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -13671,7 +13754,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>451</v>
+        <v>508</v>
       </c>
       <c r="C2" t="s">
         <v>178</v>
@@ -13693,7 +13776,7 @@
       </c>
       <c r="I2" t="str">
         <f t="shared" ref="I2:I65" si="0">_xlfn.CONCAT(A2:H2)</f>
-        <v>"Accesorios Celulares":"Accesorios",</v>
+        <v>"ACCESORIOS - Cargadores":"Accesorios",</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -13701,7 +13784,7 @@
         <v>178</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>452</v>
+        <v>509</v>
       </c>
       <c r="C3" t="s">
         <v>178</v>
@@ -13723,7 +13806,7 @@
       </c>
       <c r="I3" t="str">
         <f t="shared" si="0"/>
-        <v>"Accesorios para GPS":"Accesorios",</v>
+        <v>"ACCESORIOS - Lectores de Memorias":"Accesorios",</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -13731,7 +13814,7 @@
         <v>178</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>453</v>
+        <v>510</v>
       </c>
       <c r="C4" t="s">
         <v>178</v>
@@ -13753,7 +13836,7 @@
       </c>
       <c r="I4" t="str">
         <f t="shared" si="0"/>
-        <v>"Accesorios para Redes":"Accesorios",</v>
+        <v>"ACCESORIOS - Microfonos":"Accesorios",</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -13761,7 +13844,7 @@
         <v>178</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>454</v>
+        <v>511</v>
       </c>
       <c r="C5" t="s">
         <v>178</v>
@@ -13783,7 +13866,7 @@
       </c>
       <c r="I5" t="str">
         <f t="shared" si="0"/>
-        <v>"Accesorios PS2":"Accesorios",</v>
+        <v>"ACCESORIOS - Pilas":"Accesorios",</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -13791,7 +13874,7 @@
         <v>178</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>455</v>
+        <v>512</v>
       </c>
       <c r="C6" t="s">
         <v>178</v>
@@ -13813,7 +13896,7 @@
       </c>
       <c r="I6" t="str">
         <f t="shared" si="0"/>
-        <v>"Accesorios PS3-PS4":"Accesorios",</v>
+        <v>"ACCESORIOS - Porta CD-DVD":"Accesorios",</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -13821,7 +13904,7 @@
         <v>178</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>456</v>
+        <v>513</v>
       </c>
       <c r="C7" t="s">
         <v>178</v>
@@ -13833,7 +13916,7 @@
         <v>178</v>
       </c>
       <c r="F7" t="s">
-        <v>264</v>
+        <v>362</v>
       </c>
       <c r="G7" t="s">
         <v>178</v>
@@ -13843,7 +13926,7 @@
       </c>
       <c r="I7" t="str">
         <f t="shared" si="0"/>
-        <v>"Accesorios TV":"Accesorios",</v>
+        <v>"AUDIO - DVD - BLURAY - Multimedia":"Electro",</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -13851,7 +13934,7 @@
         <v>178</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>457</v>
+        <v>514</v>
       </c>
       <c r="C8" t="s">
         <v>178</v>
@@ -13863,7 +13946,7 @@
         <v>178</v>
       </c>
       <c r="F8" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="G8" t="s">
         <v>178</v>
@@ -13873,7 +13956,7 @@
       </c>
       <c r="I8" t="str">
         <f t="shared" si="0"/>
-        <v>"Accesorios WII":"Accesorios",</v>
+        <v>"AUDIO - Parlantes":"Parlantes",</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -13881,7 +13964,7 @@
         <v>178</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>458</v>
+        <v>515</v>
       </c>
       <c r="C9" t="s">
         <v>178</v>
@@ -13893,7 +13976,7 @@
         <v>178</v>
       </c>
       <c r="F9" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="G9" t="s">
         <v>178</v>
@@ -13903,7 +13986,7 @@
       </c>
       <c r="I9" t="str">
         <f t="shared" si="0"/>
-        <v>"Accesorios XBOX":"Accesorios",</v>
+        <v>"AUDIO - Parlantes Activos":"Parlantes",</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -13911,7 +13994,7 @@
         <v>178</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>459</v>
+        <v>516</v>
       </c>
       <c r="C10" t="s">
         <v>178</v>
@@ -13923,7 +14006,7 @@
         <v>178</v>
       </c>
       <c r="F10" t="s">
-        <v>360</v>
+        <v>298</v>
       </c>
       <c r="G10" t="s">
         <v>178</v>
@@ -13933,7 +14016,7 @@
       </c>
       <c r="I10" t="str">
         <f t="shared" si="0"/>
-        <v>"Access Point":"Conectividad",</v>
+        <v>"AUDIO - Sistemas de Audio y Video":"Parlantes",</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -13941,7 +14024,7 @@
         <v>178</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>460</v>
+        <v>517</v>
       </c>
       <c r="C11" t="s">
         <v>178</v>
@@ -13953,7 +14036,7 @@
         <v>178</v>
       </c>
       <c r="F11" t="s">
-        <v>358</v>
+        <v>298</v>
       </c>
       <c r="G11" t="s">
         <v>178</v>
@@ -13963,7 +14046,7 @@
       </c>
       <c r="I11" t="str">
         <f t="shared" si="0"/>
-        <v>"Adaptadores":"Cables y Adaptadores",</v>
+        <v>"AUDIO - Stereos":"Parlantes",</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -13971,7 +14054,7 @@
         <v>178</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>461</v>
+        <v>518</v>
       </c>
       <c r="C12" t="s">
         <v>178</v>
@@ -13983,7 +14066,7 @@
         <v>178</v>
       </c>
       <c r="F12" t="s">
-        <v>360</v>
+        <v>298</v>
       </c>
       <c r="G12" t="s">
         <v>178</v>
@@ -13993,7 +14076,7 @@
       </c>
       <c r="I12" t="str">
         <f t="shared" si="0"/>
-        <v>"Adaptadores de Red":"Conectividad",</v>
+        <v>"AUDIO - VIDEO - Radios":"Parlantes",</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -14001,7 +14084,7 @@
         <v>178</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>462</v>
+        <v>519</v>
       </c>
       <c r="C13" t="s">
         <v>178</v>
@@ -14023,7 +14106,7 @@
       </c>
       <c r="I13" t="str">
         <f t="shared" si="0"/>
-        <v>"Alargues":"Cables y Adaptadores",</v>
+        <v>"CABLES y CONECTORES - Adaptadores":"Cables y Adaptadores",</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -14031,7 +14114,7 @@
         <v>178</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>463</v>
+        <v>520</v>
       </c>
       <c r="C14" t="s">
         <v>178</v>
@@ -14043,7 +14126,7 @@
         <v>178</v>
       </c>
       <c r="F14" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="G14" t="s">
         <v>178</v>
@@ -14053,7 +14136,7 @@
       </c>
       <c r="I14" t="str">
         <f t="shared" si="0"/>
-        <v>"Alimentacion":"Estabilizadores y UPS",</v>
+        <v>"CABLES y CONECTORES - Alargues":"Cables y Adaptadores",</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -14061,7 +14144,7 @@
         <v>178</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>464</v>
+        <v>521</v>
       </c>
       <c r="C15" t="s">
         <v>178</v>
@@ -14073,7 +14156,7 @@
         <v>178</v>
       </c>
       <c r="F15" t="s">
-        <v>264</v>
+        <v>358</v>
       </c>
       <c r="G15" t="s">
         <v>178</v>
@@ -14083,7 +14166,7 @@
       </c>
       <c r="I15" t="str">
         <f t="shared" si="0"/>
-        <v>"Antenas":"Accesorios",</v>
+        <v>"CABLES y CONECTORES - Alimentacion":"Cables y Adaptadores",</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -14091,7 +14174,7 @@
         <v>178</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>465</v>
+        <v>522</v>
       </c>
       <c r="C16" t="s">
         <v>178</v>
@@ -14103,7 +14186,7 @@
         <v>178</v>
       </c>
       <c r="F16" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G16" t="s">
         <v>178</v>
@@ -14113,7 +14196,7 @@
       </c>
       <c r="I16" t="str">
         <f t="shared" si="0"/>
-        <v>"Audio":"Electro",</v>
+        <v>"CABLES y CONECTORES - Audio":"Cables y Adaptadores",</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -14121,7 +14204,7 @@
         <v>178</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>267</v>
+        <v>523</v>
       </c>
       <c r="C17" t="s">
         <v>178</v>
@@ -14133,7 +14216,7 @@
         <v>178</v>
       </c>
       <c r="F17" t="s">
-        <v>267</v>
+        <v>358</v>
       </c>
       <c r="G17" t="s">
         <v>178</v>
@@ -14143,7 +14226,7 @@
       </c>
       <c r="I17" t="str">
         <f t="shared" si="0"/>
-        <v>"Auriculares":"Auriculares",</v>
+        <v>"CABLES y CONECTORES - Conectores":"Cables y Adaptadores",</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -14151,7 +14234,7 @@
         <v>178</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>466</v>
+        <v>524</v>
       </c>
       <c r="C18" t="s">
         <v>178</v>
@@ -14163,7 +14246,7 @@
         <v>178</v>
       </c>
       <c r="F18" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G18" t="s">
         <v>178</v>
@@ -14173,7 +14256,7 @@
       </c>
       <c r="I18" t="str">
         <f t="shared" si="0"/>
-        <v>"Bicicletas":"Electro",</v>
+        <v>"CABLES y CONECTORES - Datos ":"Cables y Adaptadores",</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -14181,7 +14264,7 @@
         <v>178</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>467</v>
+        <v>525</v>
       </c>
       <c r="C19" t="s">
         <v>178</v>
@@ -14193,7 +14276,7 @@
         <v>178</v>
       </c>
       <c r="F19" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G19" t="s">
         <v>178</v>
@@ -14203,7 +14286,7 @@
       </c>
       <c r="I19" t="str">
         <f t="shared" si="0"/>
-        <v>"Binoculares":"Electro",</v>
+        <v>"CABLES y CONECTORES - De Redes":"Cables y Adaptadores",</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -14211,7 +14294,7 @@
         <v>178</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>468</v>
+        <v>526</v>
       </c>
       <c r="C20" t="s">
         <v>178</v>
@@ -14223,7 +14306,7 @@
         <v>178</v>
       </c>
       <c r="F20" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G20" t="s">
         <v>178</v>
@@ -14233,7 +14316,7 @@
       </c>
       <c r="I20" t="str">
         <f t="shared" si="0"/>
-        <v>"Bolsos":"Electro",</v>
+        <v>"CABLES y CONECTORES - Paralelo":"Cables y Adaptadores",</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -14241,7 +14324,7 @@
         <v>178</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>469</v>
+        <v>527</v>
       </c>
       <c r="C21" t="s">
         <v>178</v>
@@ -14253,7 +14336,7 @@
         <v>178</v>
       </c>
       <c r="F21" t="s">
-        <v>264</v>
+        <v>358</v>
       </c>
       <c r="G21" t="s">
         <v>178</v>
@@ -14263,7 +14346,7 @@
       </c>
       <c r="I21" t="str">
         <f t="shared" si="0"/>
-        <v>"Cajas p/ CD-DVD":"Accesorios",</v>
+        <v>"CABLES y CONECTORES - USB y Celulares":"Cables y Adaptadores",</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -14271,7 +14354,7 @@
         <v>178</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>470</v>
+        <v>528</v>
       </c>
       <c r="C22" t="s">
         <v>178</v>
@@ -14283,7 +14366,7 @@
         <v>178</v>
       </c>
       <c r="F22" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G22" t="s">
         <v>178</v>
@@ -14293,7 +14376,7 @@
       </c>
       <c r="I22" t="str">
         <f t="shared" si="0"/>
-        <v>"Calculadoras":"Electro",</v>
+        <v>"CABLES y CONECTORES - Video":"Cables y Adaptadores",</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -14301,7 +14384,7 @@
         <v>178</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>471</v>
+        <v>529</v>
       </c>
       <c r="C23" t="s">
         <v>178</v>
@@ -14313,7 +14396,7 @@
         <v>178</v>
       </c>
       <c r="F23" t="s">
-        <v>360</v>
+        <v>264</v>
       </c>
       <c r="G23" t="s">
         <v>178</v>
@@ -14323,7 +14406,7 @@
       </c>
       <c r="I23" t="str">
         <f t="shared" si="0"/>
-        <v>"CAMARAS - VIDEO CAMARAS":"Conectividad",</v>
+        <v>"CELULARES - Accesorios Celulares":"Accesorios",</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -14331,7 +14414,7 @@
         <v>178</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>472</v>
+        <v>530</v>
       </c>
       <c r="C24" t="s">
         <v>178</v>
@@ -14343,7 +14426,7 @@
         <v>178</v>
       </c>
       <c r="F24" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="G24" t="s">
         <v>178</v>
@@ -14353,7 +14436,7 @@
       </c>
       <c r="I24" t="str">
         <f t="shared" si="0"/>
-        <v>"Camaras Digitales":"Electro",</v>
+        <v>"CELULARES - Celulares":"Telefonia",</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -14361,7 +14444,7 @@
         <v>178</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>473</v>
+        <v>531</v>
       </c>
       <c r="C25" t="s">
         <v>178</v>
@@ -14373,7 +14456,7 @@
         <v>178</v>
       </c>
       <c r="F25" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="G25" t="s">
         <v>178</v>
@@ -14383,7 +14466,7 @@
       </c>
       <c r="I25" t="str">
         <f t="shared" si="0"/>
-        <v>"Camaras Domo y Bullet":"Conectividad",</v>
+        <v>"CELULARES - Celulares - Repuestos":"Telefonia",</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -14391,7 +14474,7 @@
         <v>178</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>270</v>
+        <v>532</v>
       </c>
       <c r="C26" t="s">
         <v>178</v>
@@ -14403,7 +14486,7 @@
         <v>178</v>
       </c>
       <c r="F26" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G26" t="s">
         <v>178</v>
@@ -14413,7 +14496,7 @@
       </c>
       <c r="I26" t="str">
         <f t="shared" si="0"/>
-        <v>"Camaras IP":"Conectividad",</v>
+        <v>"COMPUTADORAS - Computadoras PC":"Computadoras",</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -14421,7 +14504,7 @@
         <v>178</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>474</v>
+        <v>533</v>
       </c>
       <c r="C27" t="s">
         <v>178</v>
@@ -14433,7 +14516,7 @@
         <v>178</v>
       </c>
       <c r="F27" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="G27" t="s">
         <v>178</v>
@@ -14443,7 +14526,7 @@
       </c>
       <c r="I27" t="str">
         <f t="shared" si="0"/>
-        <v>"Camaras WEB":"Webcams",</v>
+        <v>"COMPUTADORAS - Mini PCs":"Computadoras",</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -14451,7 +14534,7 @@
         <v>178</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>475</v>
+        <v>534</v>
       </c>
       <c r="C28" t="s">
         <v>178</v>
@@ -14463,7 +14546,7 @@
         <v>178</v>
       </c>
       <c r="F28" t="s">
-        <v>264</v>
+        <v>359</v>
       </c>
       <c r="G28" t="s">
         <v>178</v>
@@ -14473,7 +14556,7 @@
       </c>
       <c r="I28" t="str">
         <f t="shared" si="0"/>
-        <v>"Cargadores":"Accesorios",</v>
+        <v>"COMPUTADORAS - Servidores":"Computadoras",</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -14481,7 +14564,7 @@
         <v>178</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>476</v>
+        <v>535</v>
       </c>
       <c r="C29" t="s">
         <v>178</v>
@@ -14493,7 +14576,7 @@
         <v>178</v>
       </c>
       <c r="F29" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="G29" t="s">
         <v>178</v>
@@ -14503,7 +14586,7 @@
       </c>
       <c r="I29" t="str">
         <f t="shared" si="0"/>
-        <v>"Cartuchos Alternativos":"Impresoras e Insumos",</v>
+        <v>"COMPUTADORAS - Todo en Uno (AIO)":"Computadoras",</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -14511,7 +14594,7 @@
         <v>178</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>477</v>
+        <v>536</v>
       </c>
       <c r="C30" t="s">
         <v>178</v>
@@ -14523,7 +14606,7 @@
         <v>178</v>
       </c>
       <c r="F30" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G30" t="s">
         <v>178</v>
@@ -14533,7 +14616,7 @@
       </c>
       <c r="I30" t="str">
         <f t="shared" si="0"/>
-        <v>"Cartuchos Originales":"Impresoras e Insumos",</v>
+        <v>"DEPORTES - Bicicletas":"Electro",</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -14541,7 +14624,7 @@
         <v>178</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>478</v>
+        <v>537</v>
       </c>
       <c r="C31" t="s">
         <v>178</v>
@@ -14553,7 +14636,7 @@
         <v>178</v>
       </c>
       <c r="F31" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="G31" t="s">
         <v>178</v>
@@ -14563,7 +14646,7 @@
       </c>
       <c r="I31" t="str">
         <f t="shared" si="0"/>
-        <v>"Celulares":"Telefonia",</v>
+        <v>"ELECTRONICA DE CONSUMO - Calculadoras":"Electro",</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -14571,7 +14654,7 @@
         <v>178</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>479</v>
+        <v>538</v>
       </c>
       <c r="C32" t="s">
         <v>178</v>
@@ -14583,7 +14666,7 @@
         <v>178</v>
       </c>
       <c r="F32" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="G32" t="s">
         <v>178</v>
@@ -14593,7 +14676,7 @@
       </c>
       <c r="I32" t="str">
         <f t="shared" si="0"/>
-        <v>"Celulares - Repuestos":"Telefonia",</v>
+        <v>"ELECTRONICA DE CONSUMO - Destructores de Documentos":"Electro",</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -14601,7 +14684,7 @@
         <v>178</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>480</v>
+        <v>539</v>
       </c>
       <c r="C33" t="s">
         <v>178</v>
@@ -14613,7 +14696,7 @@
         <v>178</v>
       </c>
       <c r="F33" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G33" t="s">
         <v>178</v>
@@ -14623,7 +14706,7 @@
       </c>
       <c r="I33" t="str">
         <f t="shared" si="0"/>
-        <v>"Cintas Matriciales":"Impresoras e Insumos",</v>
+        <v>"ELECTRONICA DE CONSUMO - Drones - MiniDrones":"Electro",</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -14631,7 +14714,7 @@
         <v>178</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>481</v>
+        <v>540</v>
       </c>
       <c r="C34" t="s">
         <v>178</v>
@@ -14653,7 +14736,7 @@
       </c>
       <c r="I34" t="str">
         <f t="shared" si="0"/>
-        <v>"Climatizacion":"Electro",</v>
+        <v>"ELECTRONICA DE CONSUMO - Grabadores de Periodista - Radios":"Electro",</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -14661,7 +14744,7 @@
         <v>178</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>482</v>
+        <v>541</v>
       </c>
       <c r="C35" t="s">
         <v>178</v>
@@ -14683,7 +14766,7 @@
       </c>
       <c r="I35" t="str">
         <f t="shared" si="0"/>
-        <v>"Cocina":"Electro",</v>
+        <v>"ELECTRONICA DE CONSUMO - Juguetes":"Electro",</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -14691,7 +14774,7 @@
         <v>178</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>483</v>
+        <v>542</v>
       </c>
       <c r="C36" t="s">
         <v>178</v>
@@ -14703,7 +14786,7 @@
         <v>178</v>
       </c>
       <c r="F36" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="G36" t="s">
         <v>178</v>
@@ -14713,7 +14796,7 @@
       </c>
       <c r="I36" t="str">
         <f t="shared" si="0"/>
-        <v>"Computadoras PC":"Computadoras",</v>
+        <v>"ELECTRONICA DE CONSUMO - Lectores de Libros Digitales":"Tablets",</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -14721,7 +14804,7 @@
         <v>178</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>484</v>
+        <v>543</v>
       </c>
       <c r="C37" t="s">
         <v>178</v>
@@ -14733,7 +14816,7 @@
         <v>178</v>
       </c>
       <c r="F37" t="s">
-        <v>358</v>
+        <v>267</v>
       </c>
       <c r="G37" t="s">
         <v>178</v>
@@ -14743,7 +14826,7 @@
       </c>
       <c r="I37" t="str">
         <f t="shared" si="0"/>
-        <v>"Conectores":"Cables y Adaptadores",</v>
+        <v>"ELECTRONICA DE CONSUMO - MP3":"Auriculares",</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -14751,7 +14834,7 @@
         <v>178</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>485</v>
+        <v>544</v>
       </c>
       <c r="C38" t="s">
         <v>178</v>
@@ -14763,7 +14846,7 @@
         <v>178</v>
       </c>
       <c r="F38" t="s">
-        <v>364</v>
+        <v>267</v>
       </c>
       <c r="G38" t="s">
         <v>178</v>
@@ -14773,7 +14856,7 @@
       </c>
       <c r="I38" t="str">
         <f t="shared" si="0"/>
-        <v>"Consolas":"Gamer",</v>
+        <v>"ELECTRONICA DE CONSUMO - MP5":"Auriculares",</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -14781,7 +14864,7 @@
         <v>178</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>486</v>
+        <v>545</v>
       </c>
       <c r="C39" t="s">
         <v>178</v>
@@ -14793,7 +14876,7 @@
         <v>178</v>
       </c>
       <c r="F39" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="G39" t="s">
         <v>178</v>
@@ -14803,7 +14886,7 @@
       </c>
       <c r="I39" t="str">
         <f t="shared" si="0"/>
-        <v>"Controladores":"Gamer",</v>
+        <v>"ELECTRONICA DE CONSUMO - Relojes Digitales - Fitness":"Smartwatch",</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -14811,7 +14894,7 @@
         <v>178</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>487</v>
+        <v>546</v>
       </c>
       <c r="C40" t="s">
         <v>178</v>
@@ -14823,7 +14906,7 @@
         <v>178</v>
       </c>
       <c r="F40" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G40" t="s">
         <v>178</v>
@@ -14833,7 +14916,7 @@
       </c>
       <c r="I40" t="str">
         <f t="shared" si="0"/>
-        <v>"Cuidado Personal":"Electro",</v>
+        <v>"ESTABILIZADORES - Estabilizadores":"Estabilizadores y UPS",</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -14841,7 +14924,7 @@
         <v>178</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>488</v>
+        <v>547</v>
       </c>
       <c r="C41" t="s">
         <v>178</v>
@@ -14853,7 +14936,7 @@
         <v>178</v>
       </c>
       <c r="F41" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="G41" t="s">
         <v>178</v>
@@ -14863,7 +14946,7 @@
       </c>
       <c r="I41" t="str">
         <f t="shared" si="0"/>
-        <v>"Datos":"Cables y Adaptadores",</v>
+        <v>"ESTABILIZADORES - U.P.S.":"Estabilizadores y UPS",</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -14871,7 +14954,7 @@
         <v>178</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>489</v>
+        <v>548</v>
       </c>
       <c r="C42" t="s">
         <v>178</v>
@@ -14883,7 +14966,7 @@
         <v>178</v>
       </c>
       <c r="F42" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G42" t="s">
         <v>178</v>
@@ -14893,7 +14976,7 @@
       </c>
       <c r="I42" t="str">
         <f t="shared" si="0"/>
-        <v>"De Conduccion (Auto)":"Electro",</v>
+        <v>"ESTABILIZADORES - UPS - Zapatillas Eléctricas":"Estabilizadores y UPS",</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -14901,7 +14984,7 @@
         <v>178</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>490</v>
+        <v>549</v>
       </c>
       <c r="C43" t="s">
         <v>178</v>
@@ -14913,7 +14996,7 @@
         <v>178</v>
       </c>
       <c r="F43" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G43" t="s">
         <v>178</v>
@@ -14923,7 +15006,7 @@
       </c>
       <c r="I43" t="str">
         <f t="shared" si="0"/>
-        <v>"De Conduccion (Bicicletas)":"Electro",</v>
+        <v>"GAMMING - Accesorios PS2":"Gamer",</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -14931,7 +15014,7 @@
         <v>178</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>491</v>
+        <v>550</v>
       </c>
       <c r="C44" t="s">
         <v>178</v>
@@ -14943,7 +15026,7 @@
         <v>178</v>
       </c>
       <c r="F44" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G44" t="s">
         <v>178</v>
@@ -14953,7 +15036,7 @@
       </c>
       <c r="I44" t="str">
         <f t="shared" si="0"/>
-        <v>"De Conduccion (Motos)":"Electro",</v>
+        <v>"GAMMING - Accesorios PS3-PS4":"Gamer",</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -14961,7 +15044,7 @@
         <v>178</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>492</v>
+        <v>551</v>
       </c>
       <c r="C45" t="s">
         <v>178</v>
@@ -14973,7 +15056,7 @@
         <v>178</v>
       </c>
       <c r="F45" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G45" t="s">
         <v>178</v>
@@ -14983,7 +15066,7 @@
       </c>
       <c r="I45" t="str">
         <f t="shared" si="0"/>
-        <v>"De Exploración":"Electro",</v>
+        <v>"GAMMING - Accesorios WII":"Gamer",</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -14991,7 +15074,7 @@
         <v>178</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>493</v>
+        <v>552</v>
       </c>
       <c r="C46" t="s">
         <v>178</v>
@@ -15003,7 +15086,7 @@
         <v>178</v>
       </c>
       <c r="F46" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G46" t="s">
         <v>178</v>
@@ -15013,7 +15096,7 @@
       </c>
       <c r="I46" t="str">
         <f t="shared" si="0"/>
-        <v>"De Redes":"Electro",</v>
+        <v>"GAMMING - Accesorios XBOX":"Gamer",</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -15021,7 +15104,7 @@
         <v>178</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>494</v>
+        <v>553</v>
       </c>
       <c r="C47" t="s">
         <v>178</v>
@@ -15033,7 +15116,7 @@
         <v>178</v>
       </c>
       <c r="F47" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G47" t="s">
         <v>178</v>
@@ -15043,7 +15126,7 @@
       </c>
       <c r="I47" t="str">
         <f t="shared" si="0"/>
-        <v>"De Tinta":"Impresoras e Insumos",</v>
+        <v>"GAMMING - Consolas":"Gamer",</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -15051,7 +15134,7 @@
         <v>178</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>495</v>
+        <v>554</v>
       </c>
       <c r="C48" t="s">
         <v>178</v>
@@ -15063,7 +15146,7 @@
         <v>178</v>
       </c>
       <c r="F48" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G48" t="s">
         <v>178</v>
@@ -15073,7 +15156,7 @@
       </c>
       <c r="I48" t="str">
         <f t="shared" si="0"/>
-        <v>"De Tinta Multifuncion":"Impresoras e Insumos",</v>
+        <v>"GAMMING - Game Pad - Joysticks":"Gamer",</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -15081,7 +15164,7 @@
         <v>178</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>496</v>
+        <v>555</v>
       </c>
       <c r="C49" t="s">
         <v>178</v>
@@ -15093,7 +15176,7 @@
         <v>178</v>
       </c>
       <c r="F49" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G49" t="s">
         <v>178</v>
@@ -15103,7 +15186,7 @@
       </c>
       <c r="I49" t="str">
         <f t="shared" si="0"/>
-        <v>"De Tinta Sistema Continuo":"Impresoras e Insumos",</v>
+        <v>"GAMMING - Guitarras":"Gamer",</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -15111,7 +15194,7 @@
         <v>178</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>497</v>
+        <v>556</v>
       </c>
       <c r="C50" t="s">
         <v>178</v>
@@ -15123,7 +15206,7 @@
         <v>178</v>
       </c>
       <c r="F50" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G50" t="s">
         <v>178</v>
@@ -15133,7 +15216,7 @@
       </c>
       <c r="I50" t="str">
         <f t="shared" si="0"/>
-        <v>"Desayuno":"Electro",</v>
+        <v>"GAMMING - Sillones y Sillas Gamer":"Gamer",</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -15141,7 +15224,7 @@
         <v>178</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>498</v>
+        <v>557</v>
       </c>
       <c r="C51" t="s">
         <v>178</v>
@@ -15153,7 +15236,7 @@
         <v>178</v>
       </c>
       <c r="F51" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G51" t="s">
         <v>178</v>
@@ -15163,7 +15246,7 @@
       </c>
       <c r="I51" t="str">
         <f t="shared" si="0"/>
-        <v>"Destructores de Documentos":"Electro",</v>
+        <v>"GAMMING - Volantes":"Gamer",</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -15171,7 +15254,7 @@
         <v>178</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>499</v>
+        <v>558</v>
       </c>
       <c r="C52" t="s">
         <v>178</v>
@@ -15183,7 +15266,7 @@
         <v>178</v>
       </c>
       <c r="F52" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G52" t="s">
         <v>178</v>
@@ -15193,7 +15276,7 @@
       </c>
       <c r="I52" t="str">
         <f t="shared" si="0"/>
-        <v>"Discos Rigidos":"Discos",</v>
+        <v>"GPS - Accesorios para GPS":"Electro",</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -15201,7 +15284,7 @@
         <v>178</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>500</v>
+        <v>559</v>
       </c>
       <c r="C53" t="s">
         <v>178</v>
@@ -15223,7 +15306,7 @@
       </c>
       <c r="I53" t="str">
         <f t="shared" si="0"/>
-        <v>"Drones - MiniDrones":"Electro",</v>
+        <v>"GPS - De Conduccion (Auto)":"Electro",</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -15231,7 +15314,7 @@
         <v>178</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>501</v>
+        <v>560</v>
       </c>
       <c r="C54" t="s">
         <v>178</v>
@@ -15253,7 +15336,7 @@
       </c>
       <c r="I54" t="str">
         <f t="shared" si="0"/>
-        <v>"DVD - BLURAY - Multimedia":"Electro",</v>
+        <v>"GPS - De Conduccion (Bicicletas)":"Electro",</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -15261,7 +15344,7 @@
         <v>178</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>502</v>
+        <v>561</v>
       </c>
       <c r="C55" t="s">
         <v>178</v>
@@ -15273,7 +15356,7 @@
         <v>178</v>
       </c>
       <c r="F55" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G55" t="s">
         <v>178</v>
@@ -15283,7 +15366,7 @@
       </c>
       <c r="I55" t="str">
         <f t="shared" si="0"/>
-        <v>"DVR Autonomos":"Conectividad",</v>
+        <v>"GPS - De Conduccion (Motos)":"Electro",</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -15291,7 +15374,7 @@
         <v>178</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>282</v>
+        <v>562</v>
       </c>
       <c r="C56" t="s">
         <v>178</v>
@@ -15303,7 +15386,7 @@
         <v>178</v>
       </c>
       <c r="F56" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G56" t="s">
         <v>178</v>
@@ -15313,7 +15396,7 @@
       </c>
       <c r="I56" t="str">
         <f t="shared" si="0"/>
-        <v>"Estabilizadores":"Estabilizadores y UPS",</v>
+        <v>"GPS - De Exploración":"Electro",</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -15321,7 +15404,7 @@
         <v>178</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>503</v>
+        <v>563</v>
       </c>
       <c r="C57" t="s">
         <v>178</v>
@@ -15343,7 +15426,7 @@
       </c>
       <c r="I57" t="str">
         <f t="shared" si="0"/>
-        <v>"Faxes":"Impresoras e Insumos",</v>
+        <v>"IMPRESORAS - De Tinta Multifuncion":"Impresoras e Insumos",</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -15351,7 +15434,7 @@
         <v>178</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>504</v>
+        <v>564</v>
       </c>
       <c r="C58" t="s">
         <v>178</v>
@@ -15363,7 +15446,7 @@
         <v>178</v>
       </c>
       <c r="F58" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="G58" t="s">
         <v>178</v>
@@ -15373,7 +15456,7 @@
       </c>
       <c r="I58" t="str">
         <f t="shared" si="0"/>
-        <v>"Fijos":"Telefonia",</v>
+        <v>"IMPRESORAS - De Tinta Sistema Continuo":"Impresoras e Insumos",</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -15381,7 +15464,7 @@
         <v>178</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>284</v>
+        <v>565</v>
       </c>
       <c r="C59" t="s">
         <v>178</v>
@@ -15393,7 +15476,7 @@
         <v>178</v>
       </c>
       <c r="F59" t="s">
-        <v>264</v>
+        <v>365</v>
       </c>
       <c r="G59" t="s">
         <v>178</v>
@@ -15403,7 +15486,7 @@
       </c>
       <c r="I59" t="str">
         <f t="shared" si="0"/>
-        <v>"Fundas":"Accesorios",</v>
+        <v>"IMPRESORAS - Laser":"Impresoras e Insumos",</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -15411,7 +15494,7 @@
         <v>178</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>505</v>
+        <v>566</v>
       </c>
       <c r="C60" t="s">
         <v>178</v>
@@ -15423,7 +15506,7 @@
         <v>178</v>
       </c>
       <c r="F60" t="s">
-        <v>285</v>
+        <v>365</v>
       </c>
       <c r="G60" t="s">
         <v>178</v>
@@ -15433,7 +15516,7 @@
       </c>
       <c r="I60" t="str">
         <f t="shared" si="0"/>
-        <v>"Gabinetes y Fuentes":"Gabinetes",</v>
+        <v>"IMPRESORAS - Laser Multifuncion":"Impresoras e Insumos",</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -15441,7 +15524,7 @@
         <v>178</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>506</v>
+        <v>567</v>
       </c>
       <c r="C61" t="s">
         <v>178</v>
@@ -15453,7 +15536,7 @@
         <v>178</v>
       </c>
       <c r="F61" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G61" t="s">
         <v>178</v>
@@ -15463,7 +15546,7 @@
       </c>
       <c r="I61" t="str">
         <f t="shared" si="0"/>
-        <v>"Game Pad - Joysticks":"Gamer",</v>
+        <v>"IMPRESORAS - Matriciales":"Impresoras e Insumos",</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -15471,7 +15554,7 @@
         <v>178</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>507</v>
+        <v>568</v>
       </c>
       <c r="C62" t="s">
         <v>178</v>
@@ -15483,7 +15566,7 @@
         <v>178</v>
       </c>
       <c r="F62" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="G62" t="s">
         <v>178</v>
@@ -15493,7 +15576,7 @@
       </c>
       <c r="I62" t="str">
         <f t="shared" si="0"/>
-        <v>"Grabadores de Periodista - Radios":"Electro",</v>
+        <v>"IMPRESORAS - PLOTERS - De Tinta":"Impresoras e Insumos",</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -15501,7 +15584,7 @@
         <v>178</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>508</v>
+        <v>569</v>
       </c>
       <c r="C63" t="s">
         <v>178</v>
@@ -15513,7 +15596,7 @@
         <v>178</v>
       </c>
       <c r="F63" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="G63" t="s">
         <v>178</v>
@@ -15523,7 +15606,7 @@
       </c>
       <c r="I63" t="str">
         <f t="shared" si="0"/>
-        <v>"Guitarras":"Electro",</v>
+        <v>"IMPRESORAS - Ploters de Dibujo":"Impresoras e Insumos",</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -15531,7 +15614,7 @@
         <v>178</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>509</v>
+        <v>570</v>
       </c>
       <c r="C64" t="s">
         <v>178</v>
@@ -15543,7 +15626,7 @@
         <v>178</v>
       </c>
       <c r="F64" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="G64" t="s">
         <v>178</v>
@@ -15553,7 +15636,7 @@
       </c>
       <c r="I64" t="str">
         <f t="shared" si="0"/>
-        <v>"Handies":"Telefonia",</v>
+        <v>"IMPRESORAS - Repuestos":"Impresoras e Insumos",</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -15561,7 +15644,7 @@
         <v>178</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>510</v>
+        <v>571</v>
       </c>
       <c r="C65" t="s">
         <v>178</v>
@@ -15573,7 +15656,7 @@
         <v>178</v>
       </c>
       <c r="F65" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="G65" t="s">
         <v>178</v>
@@ -15583,7 +15666,7 @@
       </c>
       <c r="I65" t="str">
         <f t="shared" si="0"/>
-        <v>"Herramientas":"Electro",</v>
+        <v>"IMPRESORAS - Rotuladoras - Termicas":"Impresoras e Insumos",</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -15591,7 +15674,7 @@
         <v>178</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>511</v>
+        <v>572</v>
       </c>
       <c r="C66" t="s">
         <v>178</v>
@@ -15603,7 +15686,7 @@
         <v>178</v>
       </c>
       <c r="F66" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="G66" t="s">
         <v>178</v>
@@ -15613,7 +15696,7 @@
       </c>
       <c r="I66" t="str">
         <f t="shared" ref="I66:I129" si="1">_xlfn.CONCAT(A66:H66)</f>
-        <v>"Hidrolavadoras":"Electro",</v>
+        <v>"IMPRESORAS - Scanners":"Impresoras e Insumos",</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -15621,7 +15704,7 @@
         <v>178</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>512</v>
+        <v>573</v>
       </c>
       <c r="C67" t="s">
         <v>178</v>
@@ -15633,7 +15716,7 @@
         <v>178</v>
       </c>
       <c r="F67" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G67" t="s">
         <v>178</v>
@@ -15643,7 +15726,7 @@
       </c>
       <c r="I67" t="str">
         <f t="shared" si="1"/>
-        <v>"HOGAR":"Electro",</v>
+        <v>"INFORMATICA - Adaptadores":"Cables y Adaptadores",</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -15651,7 +15734,7 @@
         <v>178</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>513</v>
+        <v>574</v>
       </c>
       <c r="C68" t="s">
         <v>178</v>
@@ -15663,7 +15746,7 @@
         <v>178</v>
       </c>
       <c r="F68" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="G68" t="s">
         <v>178</v>
@@ -15673,7 +15756,7 @@
       </c>
       <c r="I68" t="str">
         <f t="shared" si="1"/>
-        <v>"Hornos - Parillas":"Electro",</v>
+        <v>"INFORMATICA - Camaras WEB":"Webcams",</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -15681,7 +15764,7 @@
         <v>178</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>514</v>
+        <v>575</v>
       </c>
       <c r="C69" t="s">
         <v>178</v>
@@ -15693,7 +15776,7 @@
         <v>178</v>
       </c>
       <c r="F69" t="s">
-        <v>362</v>
+        <v>264</v>
       </c>
       <c r="G69" t="s">
         <v>178</v>
@@ -15703,7 +15786,7 @@
       </c>
       <c r="I69" t="str">
         <f t="shared" si="1"/>
-        <v>"Iluminación":"Electro",</v>
+        <v>"INFORMATICA - Controladores":"Accesorios",</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -15711,7 +15794,7 @@
         <v>178</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>515</v>
+        <v>576</v>
       </c>
       <c r="C70" t="s">
         <v>178</v>
@@ -15723,7 +15806,7 @@
         <v>178</v>
       </c>
       <c r="F70" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G70" t="s">
         <v>178</v>
@@ -15733,7 +15816,7 @@
       </c>
       <c r="I70" t="str">
         <f t="shared" si="1"/>
-        <v>"Jardineria":"Electro",</v>
+        <v>"INFORMATICA - Discos Rigidos":"Discos",</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -15741,7 +15824,7 @@
         <v>178</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>516</v>
+        <v>577</v>
       </c>
       <c r="C71" t="s">
         <v>178</v>
@@ -15753,7 +15836,7 @@
         <v>178</v>
       </c>
       <c r="F71" t="s">
-        <v>362</v>
+        <v>285</v>
       </c>
       <c r="G71" t="s">
         <v>178</v>
@@ -15763,7 +15846,7 @@
       </c>
       <c r="I71" t="str">
         <f t="shared" si="1"/>
-        <v>"Juguetes":"Electro",</v>
+        <v>"INFORMATICA - Gabinetes y Fuentes":"Gabinetes",</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -15771,7 +15854,7 @@
         <v>178</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>517</v>
+        <v>578</v>
       </c>
       <c r="C72" t="s">
         <v>178</v>
@@ -15783,7 +15866,7 @@
         <v>178</v>
       </c>
       <c r="F72" t="s">
-        <v>360</v>
+        <v>302</v>
       </c>
       <c r="G72" t="s">
         <v>178</v>
@@ -15793,7 +15876,7 @@
       </c>
       <c r="I72" t="str">
         <f t="shared" si="1"/>
-        <v>"Kit de Seguridad":"Conectividad",</v>
+        <v>"INFORMATICA - Microprocesadores":"Procesadores",</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -15801,7 +15884,7 @@
         <v>178</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>518</v>
+        <v>579</v>
       </c>
       <c r="C73" t="s">
         <v>178</v>
@@ -15813,7 +15896,7 @@
         <v>178</v>
       </c>
       <c r="F73" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="G73" t="s">
         <v>178</v>
@@ -15823,7 +15906,7 @@
       </c>
       <c r="I73" t="str">
         <f t="shared" si="1"/>
-        <v>"Laser":"Impresoras e Insumos",</v>
+        <v>"INFORMATICA - Mineria":"Computadoras",</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -15831,7 +15914,7 @@
         <v>178</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>519</v>
+        <v>580</v>
       </c>
       <c r="C74" t="s">
         <v>178</v>
@@ -15843,7 +15926,7 @@
         <v>178</v>
       </c>
       <c r="F74" t="s">
-        <v>365</v>
+        <v>293</v>
       </c>
       <c r="G74" t="s">
         <v>178</v>
@@ -15853,7 +15936,7 @@
       </c>
       <c r="I74" t="str">
         <f t="shared" si="1"/>
-        <v>"Laser Multifuncion":"Impresoras e Insumos",</v>
+        <v>"INFORMATICA - Monitores":"Monitores",</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -15861,7 +15944,7 @@
         <v>178</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>520</v>
+        <v>581</v>
       </c>
       <c r="C75" t="s">
         <v>178</v>
@@ -15873,7 +15956,7 @@
         <v>178</v>
       </c>
       <c r="F75" t="s">
-        <v>374</v>
+        <v>295</v>
       </c>
       <c r="G75" t="s">
         <v>178</v>
@@ -15883,7 +15966,7 @@
       </c>
       <c r="I75" t="str">
         <f t="shared" si="1"/>
-        <v>"Lectores de Libros Digitales":"Tablets",</v>
+        <v>"INFORMATICA - Mouses":"Mouses",</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -15891,7 +15974,7 @@
         <v>178</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>521</v>
+        <v>582</v>
       </c>
       <c r="C76" t="s">
         <v>178</v>
@@ -15913,7 +15996,7 @@
       </c>
       <c r="I76" t="str">
         <f t="shared" si="1"/>
-        <v>"Lectores de Memorias":"Almacenamiento Portatil",</v>
+        <v>"INFORMATICA - Opticos":"Almacenamiento Portatil",</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -15921,7 +16004,7 @@
         <v>178</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>522</v>
+        <v>583</v>
       </c>
       <c r="C77" t="s">
         <v>178</v>
@@ -15933,7 +16016,7 @@
         <v>178</v>
       </c>
       <c r="F77" t="s">
-        <v>362</v>
+        <v>264</v>
       </c>
       <c r="G77" t="s">
         <v>178</v>
@@ -15943,7 +16026,7 @@
       </c>
       <c r="I77" t="str">
         <f t="shared" si="1"/>
-        <v>"Libreria":"Electro",</v>
+        <v>"INFORMATICA - Placas de Sonido":"Accesorios",</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -15951,7 +16034,7 @@
         <v>178</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>523</v>
+        <v>584</v>
       </c>
       <c r="C78" t="s">
         <v>178</v>
@@ -15963,7 +16046,7 @@
         <v>178</v>
       </c>
       <c r="F78" t="s">
-        <v>264</v>
+        <v>369</v>
       </c>
       <c r="G78" t="s">
         <v>178</v>
@@ -15973,7 +16056,7 @@
       </c>
       <c r="I78" t="str">
         <f t="shared" si="1"/>
-        <v>"Limpieza":"Accesorios",</v>
+        <v>"INFORMATICA - Placas de Video y TV":"Placas de video",</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -15981,7 +16064,7 @@
         <v>178</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>524</v>
+        <v>585</v>
       </c>
       <c r="C79" t="s">
         <v>178</v>
@@ -15993,7 +16076,7 @@
         <v>178</v>
       </c>
       <c r="F79" t="s">
-        <v>365</v>
+        <v>294</v>
       </c>
       <c r="G79" t="s">
         <v>178</v>
@@ -16003,7 +16086,7 @@
       </c>
       <c r="I79" t="str">
         <f t="shared" si="1"/>
-        <v>"Matriciales":"Impresoras e Insumos",</v>
+        <v>"INFORMATICA - Placas Madre":"Motherboards",</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -16011,7 +16094,7 @@
         <v>178</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>525</v>
+        <v>586</v>
       </c>
       <c r="C80" t="s">
         <v>178</v>
@@ -16023,7 +16106,7 @@
         <v>178</v>
       </c>
       <c r="F80" t="s">
-        <v>362</v>
+        <v>264</v>
       </c>
       <c r="G80" t="s">
         <v>178</v>
@@ -16033,7 +16116,7 @@
       </c>
       <c r="I80" t="str">
         <f t="shared" si="1"/>
-        <v>"Mesas para PC":"Electro",</v>
+        <v>"INFORMATICA - Productos de Limpieza":"Accesorios",</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -16041,7 +16124,7 @@
         <v>178</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>526</v>
+        <v>587</v>
       </c>
       <c r="C81" t="s">
         <v>178</v>
@@ -16053,7 +16136,7 @@
         <v>178</v>
       </c>
       <c r="F81" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="G81" t="s">
         <v>178</v>
@@ -16063,7 +16146,7 @@
       </c>
       <c r="I81" t="str">
         <f t="shared" si="1"/>
-        <v>"Mesas para TV":"Electro",</v>
+        <v>"INFORMATICA - Software":"Software",</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -16071,7 +16154,7 @@
         <v>178</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>292</v>
+        <v>588</v>
       </c>
       <c r="C82" t="s">
         <v>178</v>
@@ -16083,7 +16166,7 @@
         <v>178</v>
       </c>
       <c r="F82" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="G82" t="s">
         <v>178</v>
@@ -16093,7 +16176,7 @@
       </c>
       <c r="I82" t="str">
         <f t="shared" si="1"/>
-        <v>"Microfonos":"Microfonos",</v>
+        <v>"INFORMATICA - Teclados":"Teclados",</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -16101,7 +16184,7 @@
         <v>178</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>527</v>
+        <v>589</v>
       </c>
       <c r="C83" t="s">
         <v>178</v>
@@ -16113,7 +16196,7 @@
         <v>178</v>
       </c>
       <c r="F83" t="s">
-        <v>362</v>
+        <v>264</v>
       </c>
       <c r="G83" t="s">
         <v>178</v>
@@ -16123,7 +16206,7 @@
       </c>
       <c r="I83" t="str">
         <f t="shared" si="1"/>
-        <v>"Microondas":"Electro",</v>
+        <v>"INSUMOS - Cajas p/ CD-DVD":"Accesorios",</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -16131,7 +16214,7 @@
         <v>178</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>528</v>
+        <v>590</v>
       </c>
       <c r="C84" t="s">
         <v>178</v>
@@ -16143,7 +16226,7 @@
         <v>178</v>
       </c>
       <c r="F84" t="s">
-        <v>302</v>
+        <v>365</v>
       </c>
       <c r="G84" t="s">
         <v>178</v>
@@ -16153,7 +16236,7 @@
       </c>
       <c r="I84" t="str">
         <f t="shared" si="1"/>
-        <v>"Microprocesadores":"Procesadores",</v>
+        <v>"INSUMOS - Cartuchos Alternativos":"Impresoras e Insumos",</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -16161,7 +16244,7 @@
         <v>178</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>529</v>
+        <v>591</v>
       </c>
       <c r="C85" t="s">
         <v>178</v>
@@ -16173,7 +16256,7 @@
         <v>178</v>
       </c>
       <c r="F85" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G85" t="s">
         <v>178</v>
@@ -16183,7 +16266,7 @@
       </c>
       <c r="I85" t="str">
         <f t="shared" si="1"/>
-        <v>"Mineria":"Placas de video",</v>
+        <v>"INSUMOS - Cartuchos Originales":"Impresoras e Insumos",</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -16191,7 +16274,7 @@
         <v>178</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>575</v>
+        <v>592</v>
       </c>
       <c r="C86" t="s">
         <v>178</v>
@@ -16203,7 +16286,7 @@
         <v>178</v>
       </c>
       <c r="F86" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="G86" t="s">
         <v>178</v>
@@ -16213,7 +16296,7 @@
       </c>
       <c r="I86" t="str">
         <f t="shared" si="1"/>
-        <v>"Mini PCs":"Computadoras",</v>
+        <v>"INSUMOS - Cintas Matriciales":"Impresoras e Insumos",</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -16221,7 +16304,7 @@
         <v>178</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>530</v>
+        <v>593</v>
       </c>
       <c r="C87" t="s">
         <v>178</v>
@@ -16233,7 +16316,7 @@
         <v>178</v>
       </c>
       <c r="F87" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="G87" t="s">
         <v>178</v>
@@ -16243,7 +16326,7 @@
       </c>
       <c r="I87" t="str">
         <f t="shared" si="1"/>
-        <v>"Modem y ADSL":"Conectividad",</v>
+        <v>"INSUMOS - Libreria":"Impresoras e Insumos",</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -16251,7 +16334,7 @@
         <v>178</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>293</v>
+        <v>594</v>
       </c>
       <c r="C88" t="s">
         <v>178</v>
@@ -16263,7 +16346,7 @@
         <v>178</v>
       </c>
       <c r="F88" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="G88" t="s">
         <v>178</v>
@@ -16273,7 +16356,7 @@
       </c>
       <c r="I88" t="str">
         <f t="shared" si="1"/>
-        <v>"Monitores":"Monitores",</v>
+        <v>"INSUMOS - Opticos (CD-DVD-BD)":"Accesorios",</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -16281,7 +16364,7 @@
         <v>178</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>295</v>
+        <v>595</v>
       </c>
       <c r="C89" t="s">
         <v>178</v>
@@ -16293,7 +16376,7 @@
         <v>178</v>
       </c>
       <c r="F89" t="s">
-        <v>295</v>
+        <v>365</v>
       </c>
       <c r="G89" t="s">
         <v>178</v>
@@ -16303,7 +16386,7 @@
       </c>
       <c r="I89" t="str">
         <f t="shared" si="1"/>
-        <v>"Mouses":"Mouses",</v>
+        <v>"INSUMOS - Papel":"Impresoras e Insumos",</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -16311,7 +16394,7 @@
         <v>178</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>531</v>
+        <v>596</v>
       </c>
       <c r="C90" t="s">
         <v>178</v>
@@ -16323,7 +16406,7 @@
         <v>178</v>
       </c>
       <c r="F90" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="G90" t="s">
         <v>178</v>
@@ -16333,7 +16416,7 @@
       </c>
       <c r="I90" t="str">
         <f t="shared" si="1"/>
-        <v>"MP3":"Electro",</v>
+        <v>"INSUMOS - Tinta Alternativa Continuos":"Impresoras e Insumos",</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -16341,7 +16424,7 @@
         <v>178</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>532</v>
+        <v>597</v>
       </c>
       <c r="C91" t="s">
         <v>178</v>
@@ -16353,7 +16436,7 @@
         <v>178</v>
       </c>
       <c r="F91" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="G91" t="s">
         <v>178</v>
@@ -16363,7 +16446,7 @@
       </c>
       <c r="I91" t="str">
         <f t="shared" si="1"/>
-        <v>"MP5":"Electro",</v>
+        <v>"INSUMOS - Toner y Drum Alternativos":"Impresoras e Insumos",</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -16371,7 +16454,7 @@
         <v>178</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>368</v>
+        <v>598</v>
       </c>
       <c r="C92" t="s">
         <v>178</v>
@@ -16383,7 +16466,7 @@
         <v>178</v>
       </c>
       <c r="F92" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G92" t="s">
         <v>178</v>
@@ -16393,7 +16476,7 @@
       </c>
       <c r="I92" t="str">
         <f t="shared" si="1"/>
-        <v>"Notebooks":"Notebooks",</v>
+        <v>"INSUMOS - Toner y Drum Originales":"Impresoras e Insumos",</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -16401,7 +16484,7 @@
         <v>178</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>533</v>
+        <v>599</v>
       </c>
       <c r="C93" t="s">
         <v>178</v>
@@ -16423,7 +16506,7 @@
       </c>
       <c r="I93" t="str">
         <f t="shared" si="1"/>
-        <v>"Opticos":"Accesorios",</v>
+        <v>"MEMORIAS - Accesorios":"Accesorios",</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -16431,7 +16514,7 @@
         <v>178</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>534</v>
+        <v>600</v>
       </c>
       <c r="C94" t="s">
         <v>178</v>
@@ -16443,7 +16526,7 @@
         <v>178</v>
       </c>
       <c r="F94" t="s">
-        <v>264</v>
+        <v>362</v>
       </c>
       <c r="G94" t="s">
         <v>178</v>
@@ -16453,7 +16536,7 @@
       </c>
       <c r="I94" t="str">
         <f t="shared" si="1"/>
-        <v>"Opticos (CD-DVD-BD)":"Accesorios",</v>
+        <v>"MEMORIAS - Binoculares":"Electro",</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -16461,7 +16544,7 @@
         <v>178</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>535</v>
+        <v>601</v>
       </c>
       <c r="C95" t="s">
         <v>178</v>
@@ -16473,7 +16556,7 @@
         <v>178</v>
       </c>
       <c r="F95" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="G95" t="s">
         <v>178</v>
@@ -16483,7 +16566,7 @@
       </c>
       <c r="I95" t="str">
         <f t="shared" si="1"/>
-        <v>"Papel":"Impresoras e Insumos",</v>
+        <v>"MEMORIAS - CAMARAS - VIDEO CAMARAS":"Conectividad",</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -16491,7 +16574,7 @@
         <v>178</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>536</v>
+        <v>602</v>
       </c>
       <c r="C96" t="s">
         <v>178</v>
@@ -16503,7 +16586,7 @@
         <v>178</v>
       </c>
       <c r="F96" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G96" t="s">
         <v>178</v>
@@ -16513,7 +16596,7 @@
       </c>
       <c r="I96" t="str">
         <f t="shared" si="1"/>
-        <v>"Para Notebooks":"Memorias RAM",</v>
+        <v>"MEMORIAS - Camaras Digitales":"Electro",</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -16521,7 +16604,7 @@
         <v>178</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>537</v>
+        <v>603</v>
       </c>
       <c r="C97" t="s">
         <v>178</v>
@@ -16543,7 +16626,7 @@
       </c>
       <c r="I97" t="str">
         <f t="shared" si="1"/>
-        <v>"Para PC":"Memorias RAM",</v>
+        <v>"MEMORIAS - Para Notebooks":"Memorias RAM",</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -16551,7 +16634,7 @@
         <v>178</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>538</v>
+        <v>604</v>
       </c>
       <c r="C98" t="s">
         <v>178</v>
@@ -16563,7 +16646,7 @@
         <v>178</v>
       </c>
       <c r="F98" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="G98" t="s">
         <v>178</v>
@@ -16573,7 +16656,7 @@
       </c>
       <c r="I98" t="str">
         <f t="shared" si="1"/>
-        <v>"Paralelo":"Cables y Adaptadores",</v>
+        <v>"MEMORIAS - Para PC":"Memorias RAM",</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -16581,7 +16664,7 @@
         <v>178</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>298</v>
+        <v>605</v>
       </c>
       <c r="C99" t="s">
         <v>178</v>
@@ -16593,7 +16676,7 @@
         <v>178</v>
       </c>
       <c r="F99" t="s">
-        <v>298</v>
+        <v>367</v>
       </c>
       <c r="G99" t="s">
         <v>178</v>
@@ -16603,7 +16686,7 @@
       </c>
       <c r="I99" t="str">
         <f t="shared" si="1"/>
-        <v>"Parlantes":"Parlantes",</v>
+        <v>"MEMORIAS - Pen Drive USB":"Almacenamiento Portatil",</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -16611,7 +16694,7 @@
         <v>178</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>539</v>
+        <v>606</v>
       </c>
       <c r="C100" t="s">
         <v>178</v>
@@ -16623,7 +16706,7 @@
         <v>178</v>
       </c>
       <c r="F100" t="s">
-        <v>298</v>
+        <v>367</v>
       </c>
       <c r="G100" t="s">
         <v>178</v>
@@ -16633,7 +16716,7 @@
       </c>
       <c r="I100" t="str">
         <f t="shared" si="1"/>
-        <v>"Parlantes Activos":"Parlantes",</v>
+        <v>"MEMORIAS - SD - MicroSD - CF - MS":"Almacenamiento Portatil",</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -16641,7 +16724,7 @@
         <v>178</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>540</v>
+        <v>607</v>
       </c>
       <c r="C101" t="s">
         <v>178</v>
@@ -16653,7 +16736,7 @@
         <v>178</v>
       </c>
       <c r="F101" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="G101" t="s">
         <v>178</v>
@@ -16663,7 +16746,7 @@
       </c>
       <c r="I101" t="str">
         <f t="shared" si="1"/>
-        <v>"Pen Drive USB":"Almacenamiento Portatil",</v>
+        <v>"MEMORIAS - Video Camaras Digitales":"Electro",</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -16671,7 +16754,7 @@
         <v>178</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>541</v>
+        <v>608</v>
       </c>
       <c r="C102" t="s">
         <v>178</v>
@@ -16683,7 +16766,7 @@
         <v>178</v>
       </c>
       <c r="F102" t="s">
-        <v>264</v>
+        <v>362</v>
       </c>
       <c r="G102" t="s">
         <v>178</v>
@@ -16693,7 +16776,7 @@
       </c>
       <c r="I102" t="str">
         <f t="shared" si="1"/>
-        <v>"Pilas":"Accesorios",</v>
+        <v>"MOBILIARIO - Mesas para PC":"Electro",</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -16701,7 +16784,7 @@
         <v>178</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>542</v>
+        <v>609</v>
       </c>
       <c r="C103" t="s">
         <v>178</v>
@@ -16713,7 +16796,7 @@
         <v>178</v>
       </c>
       <c r="F103" t="s">
-        <v>264</v>
+        <v>362</v>
       </c>
       <c r="G103" t="s">
         <v>178</v>
@@ -16723,7 +16806,7 @@
       </c>
       <c r="I103" t="str">
         <f t="shared" si="1"/>
-        <v>"Placas de Sonido":"Accesorios",</v>
+        <v>"MOBILIARIO - Mesas para TV":"Electro",</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -16731,7 +16814,7 @@
         <v>178</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>543</v>
+        <v>610</v>
       </c>
       <c r="C104" t="s">
         <v>178</v>
@@ -16743,7 +16826,7 @@
         <v>178</v>
       </c>
       <c r="F104" t="s">
-        <v>369</v>
+        <v>264</v>
       </c>
       <c r="G104" t="s">
         <v>178</v>
@@ -16753,7 +16836,7 @@
       </c>
       <c r="I104" t="str">
         <f t="shared" si="1"/>
-        <v>"Placas de Video y TV":"Placas de video",</v>
+        <v>"NOTEBOOKS - Accesorios":"Accesorios",</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -16761,7 +16844,7 @@
         <v>178</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>544</v>
+        <v>611</v>
       </c>
       <c r="C105" t="s">
         <v>178</v>
@@ -16773,7 +16856,7 @@
         <v>178</v>
       </c>
       <c r="F105" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="G105" t="s">
         <v>178</v>
@@ -16783,7 +16866,7 @@
       </c>
       <c r="I105" t="str">
         <f t="shared" si="1"/>
-        <v>"Placas Madre":"Motherboards",</v>
+        <v>"NOTEBOOKS - Bolsos":"Accesorios",</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -16791,7 +16874,7 @@
         <v>178</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>545</v>
+        <v>612</v>
       </c>
       <c r="C106" t="s">
         <v>178</v>
@@ -16803,7 +16886,7 @@
         <v>178</v>
       </c>
       <c r="F106" t="s">
-        <v>365</v>
+        <v>264</v>
       </c>
       <c r="G106" t="s">
         <v>178</v>
@@ -16813,7 +16896,7 @@
       </c>
       <c r="I106" t="str">
         <f t="shared" si="1"/>
-        <v>"Ploters de Dibujo":"Impresoras e Insumos",</v>
+        <v>"NOTEBOOKS - Fundas":"Accesorios",</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -16821,7 +16904,7 @@
         <v>178</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>546</v>
+        <v>613</v>
       </c>
       <c r="C107" t="s">
         <v>178</v>
@@ -16833,7 +16916,7 @@
         <v>178</v>
       </c>
       <c r="F107" t="s">
-        <v>264</v>
+        <v>368</v>
       </c>
       <c r="G107" t="s">
         <v>178</v>
@@ -16843,7 +16926,7 @@
       </c>
       <c r="I107" t="str">
         <f t="shared" si="1"/>
-        <v>"Porta CD-DVD":"Accesorios",</v>
+        <v>"NOTEBOOKS - Notebooks":"Notebooks",</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -16851,7 +16934,7 @@
         <v>178</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>547</v>
+        <v>614</v>
       </c>
       <c r="C108" t="s">
         <v>178</v>
@@ -16863,7 +16946,7 @@
         <v>178</v>
       </c>
       <c r="F108" t="s">
-        <v>264</v>
+        <v>374</v>
       </c>
       <c r="G108" t="s">
         <v>178</v>
@@ -16873,7 +16956,7 @@
       </c>
       <c r="I108" t="str">
         <f t="shared" si="1"/>
-        <v>"Productos de Limpieza":"Accesorios",</v>
+        <v>"NOTEBOOKS - TABLETS - TABLETS":"Tablets",</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -16881,7 +16964,7 @@
         <v>178</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>370</v>
+        <v>615</v>
       </c>
       <c r="C109" t="s">
         <v>178</v>
@@ -16893,7 +16976,7 @@
         <v>178</v>
       </c>
       <c r="F109" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G109" t="s">
         <v>178</v>
@@ -16903,7 +16986,7 @@
       </c>
       <c r="I109" t="str">
         <f t="shared" si="1"/>
-        <v>"Proyectores":"Proyectores",</v>
+        <v>"NOTEBOOKS - ULTRABOOKS":"Notebooks",</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -16911,7 +16994,7 @@
         <v>178</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>548</v>
+        <v>616</v>
       </c>
       <c r="C110" t="s">
         <v>178</v>
@@ -16923,7 +17006,7 @@
         <v>178</v>
       </c>
       <c r="F110" t="s">
-        <v>362</v>
+        <v>264</v>
       </c>
       <c r="G110" t="s">
         <v>178</v>
@@ -16933,7 +17016,7 @@
       </c>
       <c r="I110" t="str">
         <f t="shared" si="1"/>
-        <v>"Radios":"Electro",</v>
+        <v>"REDES - Accesorios para Redes":"Accesorios",</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -16941,7 +17024,7 @@
         <v>178</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>549</v>
+        <v>617</v>
       </c>
       <c r="C111" t="s">
         <v>178</v>
@@ -16953,7 +17036,7 @@
         <v>178</v>
       </c>
       <c r="F111" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="G111" t="s">
         <v>178</v>
@@ -16963,7 +17046,7 @@
       </c>
       <c r="I111" t="str">
         <f t="shared" si="1"/>
-        <v>"Relojes Digitales - Fitness":"Smartwatch",</v>
+        <v>"REDES - Access Point":"Conectividad",</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -16971,7 +17054,7 @@
         <v>178</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>550</v>
+        <v>618</v>
       </c>
       <c r="C112" t="s">
         <v>178</v>
@@ -16983,7 +17066,7 @@
         <v>178</v>
       </c>
       <c r="F112" t="s">
-        <v>264</v>
+        <v>358</v>
       </c>
       <c r="G112" t="s">
         <v>178</v>
@@ -16993,7 +17076,7 @@
       </c>
       <c r="I112" t="str">
         <f t="shared" si="1"/>
-        <v>"Repuestos":"Accesorios",</v>
+        <v>"REDES - Adaptadores de Red":"Cables y Adaptadores",</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -17001,7 +17084,7 @@
         <v>178</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>551</v>
+        <v>619</v>
       </c>
       <c r="C113" t="s">
         <v>178</v>
@@ -17013,7 +17096,7 @@
         <v>178</v>
       </c>
       <c r="F113" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="G113" t="s">
         <v>178</v>
@@ -17023,7 +17106,7 @@
       </c>
       <c r="I113" t="str">
         <f t="shared" si="1"/>
-        <v>"Rotuladoras - Termicas":"Impresoras e Insumos",</v>
+        <v>"REDES - Antenas":"Conectividad",</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -17031,7 +17114,7 @@
         <v>178</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>552</v>
+        <v>620</v>
       </c>
       <c r="C114" t="s">
         <v>178</v>
@@ -17053,7 +17136,7 @@
       </c>
       <c r="I114" t="str">
         <f t="shared" si="1"/>
-        <v>"Routers de Cable":"Conectividad",</v>
+        <v>"REDES - Camaras IP":"Conectividad",</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -17061,7 +17144,7 @@
         <v>178</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>553</v>
+        <v>621</v>
       </c>
       <c r="C115" t="s">
         <v>178</v>
@@ -17083,7 +17166,7 @@
       </c>
       <c r="I115" t="str">
         <f t="shared" si="1"/>
-        <v>"Routers Inalambricos":"Conectividad",</v>
+        <v>"REDES - Modem y ADSL":"Conectividad",</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -17091,7 +17174,7 @@
         <v>178</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>554</v>
+        <v>622</v>
       </c>
       <c r="C116" t="s">
         <v>178</v>
@@ -17103,7 +17186,7 @@
         <v>178</v>
       </c>
       <c r="F116" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="G116" t="s">
         <v>178</v>
@@ -17113,7 +17196,7 @@
       </c>
       <c r="I116" t="str">
         <f t="shared" si="1"/>
-        <v>"Scanners":"Impresoras e Insumos",</v>
+        <v>"REDES - Routers de Cable":"Conectividad",</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -17121,7 +17204,7 @@
         <v>178</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>555</v>
+        <v>623</v>
       </c>
       <c r="C117" t="s">
         <v>178</v>
@@ -17133,7 +17216,7 @@
         <v>178</v>
       </c>
       <c r="F117" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="G117" t="s">
         <v>178</v>
@@ -17143,7 +17226,7 @@
       </c>
       <c r="I117" t="str">
         <f t="shared" si="1"/>
-        <v>"SD - MicroSD - CF - MS":"Almacenamiento Portatil",</v>
+        <v>"REDES - Routers Inalambricos":"Conectividad",</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -17151,7 +17234,7 @@
         <v>178</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>556</v>
+        <v>624</v>
       </c>
       <c r="C118" t="s">
         <v>178</v>
@@ -17163,7 +17246,7 @@
         <v>178</v>
       </c>
       <c r="F118" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G118" t="s">
         <v>178</v>
@@ -17173,7 +17256,7 @@
       </c>
       <c r="I118" t="str">
         <f t="shared" si="1"/>
-        <v>"Servidores":"Computadoras",</v>
+        <v>"REDES - Servidores de Impresion":"Conectividad",</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -17181,7 +17264,7 @@
         <v>178</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>557</v>
+        <v>625</v>
       </c>
       <c r="C119" t="s">
         <v>178</v>
@@ -17193,7 +17276,7 @@
         <v>178</v>
       </c>
       <c r="F119" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="G119" t="s">
         <v>178</v>
@@ -17203,7 +17286,7 @@
       </c>
       <c r="I119" t="str">
         <f t="shared" si="1"/>
-        <v>"Servidores de Impresion":"Impresoras e Insumos",</v>
+        <v>"REDES - Switchs":"Conectividad",</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -17211,7 +17294,7 @@
         <v>178</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>306</v>
+        <v>626</v>
       </c>
       <c r="C120" t="s">
         <v>178</v>
@@ -17223,7 +17306,7 @@
         <v>178</v>
       </c>
       <c r="F120" t="s">
-        <v>306</v>
+        <v>360</v>
       </c>
       <c r="G120" t="s">
         <v>178</v>
@@ -17233,7 +17316,7 @@
       </c>
       <c r="I120" t="str">
         <f t="shared" si="1"/>
-        <v>"Sillas":"Sillas",</v>
+        <v>"SEGURIDAD - Accesorios":"Conectividad",</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -17241,7 +17324,7 @@
         <v>178</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>558</v>
+        <v>627</v>
       </c>
       <c r="C121" t="s">
         <v>178</v>
@@ -17253,7 +17336,7 @@
         <v>178</v>
       </c>
       <c r="F121" t="s">
-        <v>306</v>
+        <v>360</v>
       </c>
       <c r="G121" t="s">
         <v>178</v>
@@ -17263,7 +17346,7 @@
       </c>
       <c r="I121" t="str">
         <f t="shared" si="1"/>
-        <v>"Sillones y Sillas Gamer":"Sillas",</v>
+        <v>"SEGURIDAD - CCTV - Camaras Domo y Bullet":"Conectividad",</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -17271,7 +17354,7 @@
         <v>178</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>559</v>
+        <v>628</v>
       </c>
       <c r="C122" t="s">
         <v>178</v>
@@ -17283,7 +17366,7 @@
         <v>178</v>
       </c>
       <c r="F122" t="s">
-        <v>298</v>
+        <v>360</v>
       </c>
       <c r="G122" t="s">
         <v>178</v>
@@ -17293,7 +17376,7 @@
       </c>
       <c r="I122" t="str">
         <f t="shared" si="1"/>
-        <v>"Sistemas de Audio y Video":"Parlantes",</v>
+        <v>"SEGURIDAD - DVR Autonomos":"Conectividad",</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -17301,7 +17384,7 @@
         <v>178</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>373</v>
+        <v>629</v>
       </c>
       <c r="C123" t="s">
         <v>178</v>
@@ -17313,7 +17396,7 @@
         <v>178</v>
       </c>
       <c r="F123" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="G123" t="s">
         <v>178</v>
@@ -17323,7 +17406,7 @@
       </c>
       <c r="I123" t="str">
         <f t="shared" si="1"/>
-        <v>"Software":"Software",</v>
+        <v>"SEGURIDAD - Kit de Seguridad":"Conectividad",</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -17331,7 +17414,7 @@
         <v>178</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>560</v>
+        <v>630</v>
       </c>
       <c r="C124" t="s">
         <v>178</v>
@@ -17343,7 +17426,7 @@
         <v>178</v>
       </c>
       <c r="F124" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="G124" t="s">
         <v>178</v>
@@ -17353,7 +17436,7 @@
       </c>
       <c r="I124" t="str">
         <f t="shared" si="1"/>
-        <v>"Stereos":"Electro",</v>
+        <v>"TELEFONOS - Faxes":"Impresoras e Insumos",</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -17361,7 +17444,7 @@
         <v>178</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>561</v>
+        <v>631</v>
       </c>
       <c r="C125" t="s">
         <v>178</v>
@@ -17373,7 +17456,7 @@
         <v>178</v>
       </c>
       <c r="F125" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="G125" t="s">
         <v>178</v>
@@ -17383,7 +17466,7 @@
       </c>
       <c r="I125" t="str">
         <f t="shared" si="1"/>
-        <v>"Switchs":"Conectividad",</v>
+        <v>"TELEFONOS - Fijos":"Telefonia",</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -17391,7 +17474,7 @@
         <v>178</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>351</v>
+        <v>632</v>
       </c>
       <c r="C126" t="s">
         <v>178</v>
@@ -17403,7 +17486,7 @@
         <v>178</v>
       </c>
       <c r="F126" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G126" t="s">
         <v>178</v>
@@ -17413,7 +17496,7 @@
       </c>
       <c r="I126" t="str">
         <f t="shared" si="1"/>
-        <v>"TABLETS":"Tablets",</v>
+        <v>"TELEFONOS - Handies":"Telefonia",</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -17421,7 +17504,7 @@
         <v>178</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>311</v>
+        <v>633</v>
       </c>
       <c r="C127" t="s">
         <v>178</v>
@@ -17433,7 +17516,7 @@
         <v>178</v>
       </c>
       <c r="F127" t="s">
-        <v>311</v>
+        <v>375</v>
       </c>
       <c r="G127" t="s">
         <v>178</v>
@@ -17443,7 +17526,7 @@
       </c>
       <c r="I127" t="str">
         <f t="shared" si="1"/>
-        <v>"Teclados":"Teclados",</v>
+        <v>"TELEFONOS - VOIP SKYPE":"Telefonia",</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -17451,7 +17534,7 @@
         <v>178</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>562</v>
+        <v>634</v>
       </c>
       <c r="C128" t="s">
         <v>178</v>
@@ -17463,7 +17546,7 @@
         <v>178</v>
       </c>
       <c r="F128" t="s">
-        <v>362</v>
+        <v>264</v>
       </c>
       <c r="G128" t="s">
         <v>178</v>
@@ -17473,7 +17556,7 @@
       </c>
       <c r="I128" t="str">
         <f t="shared" si="1"/>
-        <v>"Termotanques":"Electro",</v>
+        <v>"TV - CINE - Accesorios TV":"Accesorios",</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -17481,7 +17564,7 @@
         <v>178</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>563</v>
+        <v>635</v>
       </c>
       <c r="C129" t="s">
         <v>178</v>
@@ -17493,7 +17576,7 @@
         <v>178</v>
       </c>
       <c r="F129" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G129" t="s">
         <v>178</v>
@@ -17503,7 +17586,7 @@
       </c>
       <c r="I129" t="str">
         <f t="shared" si="1"/>
-        <v>"Tinta Alternativa Continuos":"Impresoras e Insumos",</v>
+        <v>"TV - Climatizacion":"Electro",</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -17511,7 +17594,7 @@
         <v>178</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>564</v>
+        <v>636</v>
       </c>
       <c r="C130" t="s">
         <v>178</v>
@@ -17523,7 +17606,7 @@
         <v>178</v>
       </c>
       <c r="F130" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="G130" t="s">
         <v>178</v>
@@ -17533,7 +17616,7 @@
       </c>
       <c r="I130" t="str">
         <f t="shared" ref="I130:I141" si="2">_xlfn.CONCAT(A130:H130)</f>
-        <v>"Todo en Uno (AIO)":"Computadoras",</v>
+        <v>"TV - Cocina":"Electro",</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -17541,7 +17624,7 @@
         <v>178</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>565</v>
+        <v>637</v>
       </c>
       <c r="C131" t="s">
         <v>178</v>
@@ -17553,7 +17636,7 @@
         <v>178</v>
       </c>
       <c r="F131" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G131" t="s">
         <v>178</v>
@@ -17563,7 +17646,7 @@
       </c>
       <c r="I131" t="str">
         <f t="shared" si="2"/>
-        <v>"Toner y Drum Alternativos":"Impresoras e Insumos",</v>
+        <v>"TV - Cuidado Personal":"Electro",</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -17571,7 +17654,7 @@
         <v>178</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>566</v>
+        <v>638</v>
       </c>
       <c r="C132" t="s">
         <v>178</v>
@@ -17583,7 +17666,7 @@
         <v>178</v>
       </c>
       <c r="F132" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G132" t="s">
         <v>178</v>
@@ -17593,7 +17676,7 @@
       </c>
       <c r="I132" t="str">
         <f t="shared" si="2"/>
-        <v>"Toner y Drum Originales":"Impresoras e Insumos",</v>
+        <v>"TV - Desayuno":"Electro",</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -17601,7 +17684,7 @@
         <v>178</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>567</v>
+        <v>639</v>
       </c>
       <c r="C133" t="s">
         <v>178</v>
@@ -17623,7 +17706,7 @@
       </c>
       <c r="I133" t="str">
         <f t="shared" si="2"/>
-        <v>"TV - Smart TV":"Electro",</v>
+        <v>"TV - Herramientas":"Electro",</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -17631,7 +17714,7 @@
         <v>178</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>568</v>
+        <v>640</v>
       </c>
       <c r="C134" t="s">
         <v>178</v>
@@ -17643,7 +17726,7 @@
         <v>178</v>
       </c>
       <c r="F134" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G134" t="s">
         <v>178</v>
@@ -17653,7 +17736,7 @@
       </c>
       <c r="I134" t="str">
         <f t="shared" si="2"/>
-        <v>"U.P.S.":"Estabilizadores y UPS",</v>
+        <v>"TV - Hidrolavadoras":"Electro",</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -17661,7 +17744,7 @@
         <v>178</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>569</v>
+        <v>641</v>
       </c>
       <c r="C135" t="s">
         <v>178</v>
@@ -17673,7 +17756,7 @@
         <v>178</v>
       </c>
       <c r="F135" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="G135" t="s">
         <v>178</v>
@@ -17683,7 +17766,7 @@
       </c>
       <c r="I135" t="str">
         <f t="shared" si="2"/>
-        <v>"ULTRABOOKS":"Notebooks",</v>
+        <v>"TV - HOGAR":"Electro",</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -17691,7 +17774,7 @@
         <v>178</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>570</v>
+        <v>642</v>
       </c>
       <c r="C136" t="s">
         <v>178</v>
@@ -17703,7 +17786,7 @@
         <v>178</v>
       </c>
       <c r="F136" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="G136" t="s">
         <v>178</v>
@@ -17713,7 +17796,7 @@
       </c>
       <c r="I136" t="str">
         <f t="shared" si="2"/>
-        <v>"USB y Celulares":"Cables y Adaptadores",</v>
+        <v>"TV - Hornos - Parillas":"Electro",</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -17721,7 +17804,7 @@
         <v>178</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>571</v>
+        <v>643</v>
       </c>
       <c r="C137" t="s">
         <v>178</v>
@@ -17733,7 +17816,7 @@
         <v>178</v>
       </c>
       <c r="F137" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="G137" t="s">
         <v>178</v>
@@ -17743,7 +17826,7 @@
       </c>
       <c r="I137" t="str">
         <f t="shared" si="2"/>
-        <v>"Video":"Cables y Adaptadores",</v>
+        <v>"TV - Iluminación":"Electro",</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -17751,7 +17834,7 @@
         <v>178</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>572</v>
+        <v>644</v>
       </c>
       <c r="C138" t="s">
         <v>178</v>
@@ -17773,7 +17856,7 @@
       </c>
       <c r="I138" t="str">
         <f t="shared" si="2"/>
-        <v>"Video Camaras Digitales":"Electro",</v>
+        <v>"TV - Jardineria":"Electro",</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -17781,7 +17864,7 @@
         <v>178</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>573</v>
+        <v>645</v>
       </c>
       <c r="C139" t="s">
         <v>178</v>
@@ -17793,7 +17876,7 @@
         <v>178</v>
       </c>
       <c r="F139" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G139" t="s">
         <v>178</v>
@@ -17803,7 +17886,7 @@
       </c>
       <c r="I139" t="str">
         <f t="shared" si="2"/>
-        <v>"VOIP SKYPE":"Conectividad",</v>
+        <v>"TV - Limpieza":"Electro",</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -17811,7 +17894,7 @@
         <v>178</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>317</v>
+        <v>646</v>
       </c>
       <c r="C140" t="s">
         <v>178</v>
@@ -17823,7 +17906,7 @@
         <v>178</v>
       </c>
       <c r="F140" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G140" t="s">
         <v>178</v>
@@ -17833,7 +17916,7 @@
       </c>
       <c r="I140" t="str">
         <f t="shared" si="2"/>
-        <v>"Volantes":"Gamer",</v>
+        <v>"TV - Microondas":"Electro",</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -17841,7 +17924,7 @@
         <v>178</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>574</v>
+        <v>647</v>
       </c>
       <c r="C141" t="s">
         <v>178</v>
@@ -17853,7 +17936,7 @@
         <v>178</v>
       </c>
       <c r="F141" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="G141" t="s">
         <v>178</v>
@@ -17863,7 +17946,127 @@
       </c>
       <c r="I141" t="str">
         <f t="shared" si="2"/>
-        <v>"Zapatillas Eléctricas":"Estabilizadores y UPS",</v>
+        <v>"TV - Proyectores":"Proyectores",</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" t="s">
+        <v>178</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="C142" t="s">
+        <v>178</v>
+      </c>
+      <c r="D142" t="s">
+        <v>263</v>
+      </c>
+      <c r="E142" t="s">
+        <v>178</v>
+      </c>
+      <c r="F142" t="s">
+        <v>362</v>
+      </c>
+      <c r="G142" t="s">
+        <v>178</v>
+      </c>
+      <c r="H142" t="s">
+        <v>179</v>
+      </c>
+      <c r="I142" t="str">
+        <f t="shared" ref="I142:I145" si="3">_xlfn.CONCAT(A142:H142)</f>
+        <v>"TV - Sillas":"Electro",</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" t="s">
+        <v>178</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="C143" t="s">
+        <v>178</v>
+      </c>
+      <c r="D143" t="s">
+        <v>263</v>
+      </c>
+      <c r="E143" t="s">
+        <v>178</v>
+      </c>
+      <c r="F143" t="s">
+        <v>362</v>
+      </c>
+      <c r="G143" t="s">
+        <v>178</v>
+      </c>
+      <c r="H143" t="s">
+        <v>179</v>
+      </c>
+      <c r="I143" t="str">
+        <f t="shared" si="3"/>
+        <v>"TV - Termos y Mates":"Electro",</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" t="s">
+        <v>178</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="C144" t="s">
+        <v>178</v>
+      </c>
+      <c r="D144" t="s">
+        <v>263</v>
+      </c>
+      <c r="E144" t="s">
+        <v>178</v>
+      </c>
+      <c r="F144" t="s">
+        <v>362</v>
+      </c>
+      <c r="G144" t="s">
+        <v>178</v>
+      </c>
+      <c r="H144" t="s">
+        <v>179</v>
+      </c>
+      <c r="I144" t="str">
+        <f t="shared" si="3"/>
+        <v>"TV - Termotanques":"Electro",</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" t="s">
+        <v>178</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="C145" t="s">
+        <v>178</v>
+      </c>
+      <c r="D145" t="s">
+        <v>263</v>
+      </c>
+      <c r="E145" t="s">
+        <v>178</v>
+      </c>
+      <c r="F145" t="s">
+        <v>362</v>
+      </c>
+      <c r="G145" t="s">
+        <v>178</v>
+      </c>
+      <c r="H145" t="s">
+        <v>179</v>
+      </c>
+      <c r="I145" t="str">
+        <f t="shared" si="3"/>
+        <v>"TV - TV - Smart TV":"Electro",</v>
       </c>
     </row>
   </sheetData>
@@ -17876,11 +18079,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2BA0658-C126-4173-B7A6-ED504D386D93}">
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.42578125" bestFit="1" customWidth="1"/>
@@ -17892,7 +18095,7 @@
         <v>178</v>
       </c>
       <c r="B1" t="s">
-        <v>577</v>
+        <v>454</v>
       </c>
       <c r="C1" t="s">
         <v>178</v>
@@ -17922,7 +18125,7 @@
         <v>178</v>
       </c>
       <c r="B2" t="s">
-        <v>578</v>
+        <v>455</v>
       </c>
       <c r="C2" t="s">
         <v>178</v>
@@ -17952,7 +18155,7 @@
         <v>178</v>
       </c>
       <c r="B3" t="s">
-        <v>579</v>
+        <v>456</v>
       </c>
       <c r="C3" t="s">
         <v>178</v>
@@ -17982,7 +18185,7 @@
         <v>178</v>
       </c>
       <c r="B4" t="s">
-        <v>580</v>
+        <v>457</v>
       </c>
       <c r="C4" t="s">
         <v>178</v>
@@ -18012,7 +18215,7 @@
         <v>178</v>
       </c>
       <c r="B5" t="s">
-        <v>581</v>
+        <v>458</v>
       </c>
       <c r="C5" t="s">
         <v>178</v>
@@ -18042,7 +18245,7 @@
         <v>178</v>
       </c>
       <c r="B6" t="s">
-        <v>582</v>
+        <v>459</v>
       </c>
       <c r="C6" t="s">
         <v>178</v>
@@ -18072,7 +18275,7 @@
         <v>178</v>
       </c>
       <c r="B7" t="s">
-        <v>583</v>
+        <v>460</v>
       </c>
       <c r="C7" t="s">
         <v>178</v>
@@ -18132,7 +18335,7 @@
         <v>178</v>
       </c>
       <c r="B9" t="s">
-        <v>584</v>
+        <v>461</v>
       </c>
       <c r="C9" t="s">
         <v>178</v>
@@ -18162,7 +18365,7 @@
         <v>178</v>
       </c>
       <c r="B10" t="s">
-        <v>585</v>
+        <v>462</v>
       </c>
       <c r="C10" t="s">
         <v>178</v>
@@ -18192,7 +18395,7 @@
         <v>178</v>
       </c>
       <c r="B11" t="s">
-        <v>586</v>
+        <v>463</v>
       </c>
       <c r="C11" t="s">
         <v>178</v>
@@ -18252,7 +18455,7 @@
         <v>178</v>
       </c>
       <c r="B13" t="s">
-        <v>587</v>
+        <v>464</v>
       </c>
       <c r="C13" t="s">
         <v>178</v>
@@ -18282,7 +18485,7 @@
         <v>178</v>
       </c>
       <c r="B14" t="s">
-        <v>588</v>
+        <v>465</v>
       </c>
       <c r="C14" t="s">
         <v>178</v>
@@ -18312,7 +18515,7 @@
         <v>178</v>
       </c>
       <c r="B15" t="s">
-        <v>589</v>
+        <v>466</v>
       </c>
       <c r="C15" t="s">
         <v>178</v>
@@ -18342,7 +18545,7 @@
         <v>178</v>
       </c>
       <c r="B16" t="s">
-        <v>590</v>
+        <v>467</v>
       </c>
       <c r="C16" t="s">
         <v>178</v>
@@ -18372,7 +18575,7 @@
         <v>178</v>
       </c>
       <c r="B17" t="s">
-        <v>591</v>
+        <v>468</v>
       </c>
       <c r="C17" t="s">
         <v>178</v>
@@ -18402,7 +18605,7 @@
         <v>178</v>
       </c>
       <c r="B18" t="s">
-        <v>478</v>
+        <v>451</v>
       </c>
       <c r="C18" t="s">
         <v>178</v>
@@ -18432,7 +18635,7 @@
         <v>178</v>
       </c>
       <c r="B19" t="s">
-        <v>592</v>
+        <v>469</v>
       </c>
       <c r="C19" t="s">
         <v>178</v>
@@ -18462,7 +18665,7 @@
         <v>178</v>
       </c>
       <c r="B20" t="s">
-        <v>593</v>
+        <v>470</v>
       </c>
       <c r="C20" t="s">
         <v>178</v>
@@ -18492,7 +18695,7 @@
         <v>178</v>
       </c>
       <c r="B21" t="s">
-        <v>594</v>
+        <v>471</v>
       </c>
       <c r="C21" t="s">
         <v>178</v>
@@ -18522,7 +18725,7 @@
         <v>178</v>
       </c>
       <c r="B22" t="s">
-        <v>595</v>
+        <v>472</v>
       </c>
       <c r="C22" t="s">
         <v>178</v>
@@ -18552,7 +18755,7 @@
         <v>178</v>
       </c>
       <c r="B23" t="s">
-        <v>596</v>
+        <v>473</v>
       </c>
       <c r="C23" t="s">
         <v>178</v>
@@ -18582,7 +18785,7 @@
         <v>178</v>
       </c>
       <c r="B24" t="s">
-        <v>597</v>
+        <v>474</v>
       </c>
       <c r="C24" t="s">
         <v>178</v>
@@ -18612,7 +18815,7 @@
         <v>178</v>
       </c>
       <c r="B25" t="s">
-        <v>598</v>
+        <v>475</v>
       </c>
       <c r="C25" t="s">
         <v>178</v>
@@ -18642,7 +18845,7 @@
         <v>178</v>
       </c>
       <c r="B26" t="s">
-        <v>599</v>
+        <v>476</v>
       </c>
       <c r="C26" t="s">
         <v>178</v>
@@ -18672,7 +18875,7 @@
         <v>178</v>
       </c>
       <c r="B27" t="s">
-        <v>600</v>
+        <v>477</v>
       </c>
       <c r="C27" t="s">
         <v>178</v>
@@ -18702,7 +18905,7 @@
         <v>178</v>
       </c>
       <c r="B28" t="s">
-        <v>601</v>
+        <v>478</v>
       </c>
       <c r="C28" t="s">
         <v>178</v>
@@ -18732,7 +18935,7 @@
         <v>178</v>
       </c>
       <c r="B29" t="s">
-        <v>602</v>
+        <v>479</v>
       </c>
       <c r="C29" t="s">
         <v>178</v>
@@ -18762,7 +18965,7 @@
         <v>178</v>
       </c>
       <c r="B30" t="s">
-        <v>603</v>
+        <v>480</v>
       </c>
       <c r="C30" t="s">
         <v>178</v>
@@ -18792,7 +18995,7 @@
         <v>178</v>
       </c>
       <c r="B31" t="s">
-        <v>604</v>
+        <v>481</v>
       </c>
       <c r="C31" t="s">
         <v>178</v>
@@ -18822,7 +19025,7 @@
         <v>178</v>
       </c>
       <c r="B32" t="s">
-        <v>605</v>
+        <v>482</v>
       </c>
       <c r="C32" t="s">
         <v>178</v>
@@ -18852,7 +19055,7 @@
         <v>178</v>
       </c>
       <c r="B33" t="s">
-        <v>606</v>
+        <v>483</v>
       </c>
       <c r="C33" t="s">
         <v>178</v>
@@ -18912,7 +19115,7 @@
         <v>178</v>
       </c>
       <c r="B35" t="s">
-        <v>607</v>
+        <v>484</v>
       </c>
       <c r="C35" t="s">
         <v>178</v>
@@ -18942,7 +19145,7 @@
         <v>178</v>
       </c>
       <c r="B36" t="s">
-        <v>608</v>
+        <v>485</v>
       </c>
       <c r="C36" t="s">
         <v>178</v>
@@ -18984,7 +19187,7 @@
         <v>178</v>
       </c>
       <c r="F37" t="s">
-        <v>629</v>
+        <v>506</v>
       </c>
       <c r="G37" t="s">
         <v>178</v>
@@ -19002,7 +19205,7 @@
         <v>178</v>
       </c>
       <c r="B38" t="s">
-        <v>609</v>
+        <v>486</v>
       </c>
       <c r="C38" t="s">
         <v>178</v>
@@ -19062,7 +19265,7 @@
         <v>178</v>
       </c>
       <c r="B40" t="s">
-        <v>610</v>
+        <v>487</v>
       </c>
       <c r="C40" t="s">
         <v>178</v>
@@ -19092,7 +19295,7 @@
         <v>178</v>
       </c>
       <c r="B41" t="s">
-        <v>611</v>
+        <v>488</v>
       </c>
       <c r="C41" t="s">
         <v>178</v>
@@ -19122,7 +19325,7 @@
         <v>178</v>
       </c>
       <c r="B42" t="s">
-        <v>612</v>
+        <v>489</v>
       </c>
       <c r="C42" t="s">
         <v>178</v>
@@ -19152,7 +19355,7 @@
         <v>178</v>
       </c>
       <c r="B43" t="s">
-        <v>613</v>
+        <v>490</v>
       </c>
       <c r="C43" t="s">
         <v>178</v>
@@ -19182,7 +19385,7 @@
         <v>178</v>
       </c>
       <c r="B44" t="s">
-        <v>614</v>
+        <v>491</v>
       </c>
       <c r="C44" t="s">
         <v>178</v>
@@ -19242,7 +19445,7 @@
         <v>178</v>
       </c>
       <c r="B46" t="s">
-        <v>615</v>
+        <v>492</v>
       </c>
       <c r="C46" t="s">
         <v>178</v>
@@ -19272,7 +19475,7 @@
         <v>178</v>
       </c>
       <c r="B47" t="s">
-        <v>616</v>
+        <v>493</v>
       </c>
       <c r="C47" t="s">
         <v>178</v>
@@ -19302,7 +19505,7 @@
         <v>178</v>
       </c>
       <c r="B48" t="s">
-        <v>617</v>
+        <v>494</v>
       </c>
       <c r="C48" t="s">
         <v>178</v>
@@ -19362,7 +19565,7 @@
         <v>178</v>
       </c>
       <c r="B50" t="s">
-        <v>618</v>
+        <v>495</v>
       </c>
       <c r="C50" t="s">
         <v>178</v>
@@ -19392,7 +19595,7 @@
         <v>178</v>
       </c>
       <c r="B51" t="s">
-        <v>550</v>
+        <v>452</v>
       </c>
       <c r="C51" t="s">
         <v>178</v>
@@ -19452,7 +19655,7 @@
         <v>178</v>
       </c>
       <c r="B53" t="s">
-        <v>619</v>
+        <v>496</v>
       </c>
       <c r="C53" t="s">
         <v>178</v>
@@ -19512,7 +19715,7 @@
         <v>178</v>
       </c>
       <c r="B55" t="s">
-        <v>620</v>
+        <v>497</v>
       </c>
       <c r="C55" t="s">
         <v>178</v>
@@ -19542,7 +19745,7 @@
         <v>178</v>
       </c>
       <c r="B56" t="s">
-        <v>621</v>
+        <v>498</v>
       </c>
       <c r="C56" t="s">
         <v>178</v>
@@ -19572,7 +19775,7 @@
         <v>178</v>
       </c>
       <c r="B57" t="s">
-        <v>622</v>
+        <v>499</v>
       </c>
       <c r="C57" t="s">
         <v>178</v>
@@ -19602,7 +19805,7 @@
         <v>178</v>
       </c>
       <c r="B58" t="s">
-        <v>623</v>
+        <v>500</v>
       </c>
       <c r="C58" t="s">
         <v>178</v>
@@ -19632,7 +19835,7 @@
         <v>178</v>
       </c>
       <c r="B59" t="s">
-        <v>624</v>
+        <v>501</v>
       </c>
       <c r="C59" t="s">
         <v>178</v>
@@ -19692,7 +19895,7 @@
         <v>178</v>
       </c>
       <c r="B61" t="s">
-        <v>625</v>
+        <v>502</v>
       </c>
       <c r="C61" t="s">
         <v>178</v>
@@ -19722,7 +19925,7 @@
         <v>178</v>
       </c>
       <c r="B62" t="s">
-        <v>626</v>
+        <v>503</v>
       </c>
       <c r="C62" t="s">
         <v>178</v>
@@ -19752,7 +19955,7 @@
         <v>178</v>
       </c>
       <c r="B63" t="s">
-        <v>627</v>
+        <v>504</v>
       </c>
       <c r="C63" t="s">
         <v>178</v>
@@ -19782,7 +19985,7 @@
         <v>178</v>
       </c>
       <c r="B64" t="s">
-        <v>628</v>
+        <v>505</v>
       </c>
       <c r="C64" t="s">
         <v>178</v>
@@ -19821,7 +20024,7 @@
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="45.28515625" bestFit="1" customWidth="1"/>
@@ -21191,7 +21394,7 @@
       <selection sqref="A1:A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
